--- a/grants/trafford_council_voluntary_sector_grants_360_giving_format.xlsx
+++ b/grants/trafford_council_voluntary_sector_grants_360_giving_format.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1063" uniqueCount="442">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1557" uniqueCount="613">
   <si>
     <t>Identifier</t>
   </si>
@@ -934,9 +934,6 @@
     <t>360G-traffordmbc-Org:STAMPSync</t>
   </si>
   <si>
-    <t>360G-traffordmbc-Org:TraffordAfroCaribbeanOver50sClub</t>
-  </si>
-  <si>
     <t>GB-COH-08313107</t>
   </si>
   <si>
@@ -1096,9 +1093,6 @@
     <t>Simply Cycling</t>
   </si>
   <si>
-    <t>St Mary's Allotment</t>
-  </si>
-  <si>
     <t>Art with a Heart</t>
   </si>
   <si>
@@ -1135,21 +1129,12 @@
     <t>Our Independence</t>
   </si>
   <si>
-    <t>St Alphonsus Thursday Club</t>
-  </si>
-  <si>
     <t>St. Brides Church (CofE) Old Trafford</t>
   </si>
   <si>
-    <t>St John's Centre</t>
-  </si>
-  <si>
     <t>STAMP Sync</t>
   </si>
   <si>
-    <t>Trafford AfroCaribbean Over 50s club</t>
-  </si>
-  <si>
     <t>4 Cheeky Monkeys CIC</t>
   </si>
   <si>
@@ -1340,6 +1325,534 @@
   </si>
   <si>
     <t>GB-LAE-TRF</t>
+  </si>
+  <si>
+    <t>07962245</t>
+  </si>
+  <si>
+    <t>0512710</t>
+  </si>
+  <si>
+    <t>1102075</t>
+  </si>
+  <si>
+    <t>0508746</t>
+  </si>
+  <si>
+    <t>1108741</t>
+  </si>
+  <si>
+    <t>1113664</t>
+  </si>
+  <si>
+    <t>St. Mary's Allotment</t>
+  </si>
+  <si>
+    <t>St. Alphonsus Thursday Club</t>
+  </si>
+  <si>
+    <t>St. John's Centre</t>
+  </si>
+  <si>
+    <t>360G-traffordmbc-Org:TraffordAfricanAndCaribbeanOver50sClub</t>
+  </si>
+  <si>
+    <t>Trafford African &amp; Caribbean Over 50's club</t>
+  </si>
+  <si>
+    <t>07597525</t>
+  </si>
+  <si>
+    <t>360G-traffordmbc-VSG-UP-17001</t>
+  </si>
+  <si>
+    <t>Voluntary Sector Grant to High-Functioning Trafford</t>
+  </si>
+  <si>
+    <t>Committed to ensuring that children and young people affected by Autism Spectrum Disorder can access the kind of physical activities that other children take for granted.</t>
+  </si>
+  <si>
+    <t>360G-traffordmbc-VSG-UP-17002</t>
+  </si>
+  <si>
+    <t>Voluntary Sector Grant to Charisma Stars Dance Group</t>
+  </si>
+  <si>
+    <t>To help engage more young people to participating in their dance sessions</t>
+  </si>
+  <si>
+    <t>360G-traffordmbc-Org:CharismaStarsDanceGroup</t>
+  </si>
+  <si>
+    <t>Charisma Stars Dance Group</t>
+  </si>
+  <si>
+    <t>360G-traffordmbc-VSG-UP-17003</t>
+  </si>
+  <si>
+    <t>Voluntary Sector Grant to Flixton Infant School PTA</t>
+  </si>
+  <si>
+    <t>To transform an unused area of grass and scrub land into an exciting outdoor exploration and discovery area</t>
+  </si>
+  <si>
+    <t>360G-traffordmbc-Org:FlixtonInfantSchoolPTA</t>
+  </si>
+  <si>
+    <t>Flixton Infant School PTA</t>
+  </si>
+  <si>
+    <t>360G-traffordmbc-VSG-UP-17004</t>
+  </si>
+  <si>
+    <t>Voluntary Sector Grant to Gendai Martial Arts</t>
+  </si>
+  <si>
+    <t>A variety of children’s classes to teach martial arts and simple motor skills to help develop coordination and improve behaviour.</t>
+  </si>
+  <si>
+    <t>360G-traffordmbc-Org:GendaiMartialArts</t>
+  </si>
+  <si>
+    <t>Gendai Martial Arts</t>
+  </si>
+  <si>
+    <t>360G-traffordmbc-VSG-UP-17005</t>
+  </si>
+  <si>
+    <t>Voluntary Sector Grant to Love Partington</t>
+  </si>
+  <si>
+    <t>To deliver free physical activities for children and young people throughout the 2017 school summer holidays.</t>
+  </si>
+  <si>
+    <t>360G-traffordmbc-Org:LovePartington</t>
+  </si>
+  <si>
+    <t>Love Partington</t>
+  </si>
+  <si>
+    <t>360G-traffordmbc-VSG-UP-17006</t>
+  </si>
+  <si>
+    <t>Voluntary Sector Grant to Sport Works (Manchester &amp; Cheshire) LTD</t>
+  </si>
+  <si>
+    <t>Swimming and Activity sessions for disabled young people from Urmston &amp; Partington.</t>
+  </si>
+  <si>
+    <t>GB-COH-09269806</t>
+  </si>
+  <si>
+    <t>Sport Works (Manchester &amp; Cheshire) LTD</t>
+  </si>
+  <si>
+    <t>09269806</t>
+  </si>
+  <si>
+    <t>360G-traffordmbc-VSG-STH-17007</t>
+  </si>
+  <si>
+    <t>Men in Sheds project, reducing social isolation in the over 50’s.</t>
+  </si>
+  <si>
+    <t>1110767</t>
+  </si>
+  <si>
+    <t>360G-traffordmbc-VSG-STH-17008</t>
+  </si>
+  <si>
+    <t>Heritage timeline trail through Altrincham town centre, in partnership with FabLab.</t>
+  </si>
+  <si>
+    <t>1159034</t>
+  </si>
+  <si>
+    <t>360G-traffordmbc-VSG-STH-17009</t>
+  </si>
+  <si>
+    <t>Supporting mental health and emotional wellbeing through guitar based music sessions.</t>
+  </si>
+  <si>
+    <t>1172658</t>
+  </si>
+  <si>
+    <t>360G-traffordmbc-VSG-STH-17010</t>
+  </si>
+  <si>
+    <t>Voluntary Sector Grant to TLC: Talk, Listen, Change</t>
+  </si>
+  <si>
+    <t>Free Counselling sessions in South Trafford to reduce isolation and improve emotional wellbeing</t>
+  </si>
+  <si>
+    <t>360G-traffordmbc-VSG-STH-17011</t>
+  </si>
+  <si>
+    <t>Voluntary Sector Grant to Our Altrincham</t>
+  </si>
+  <si>
+    <t>Lamp post planters in Altrincham town centre</t>
+  </si>
+  <si>
+    <t>GB-COH-08285266</t>
+  </si>
+  <si>
+    <t>Our Altrincham</t>
+  </si>
+  <si>
+    <t>08285266</t>
+  </si>
+  <si>
+    <t>360G-traffordmbc-VSG-STH-17012</t>
+  </si>
+  <si>
+    <t>Voluntary Sector Grant to Prevent Breast Cancer Limited</t>
+  </si>
+  <si>
+    <t>Coordinator’s salary and training support for the coffee shop volunteers.</t>
+  </si>
+  <si>
+    <t>GB-COH-04831397</t>
+  </si>
+  <si>
+    <t>Prevent Breast Cancer Limited</t>
+  </si>
+  <si>
+    <t>1109839</t>
+  </si>
+  <si>
+    <t>04831397</t>
+  </si>
+  <si>
+    <t>360G-traffordmbc-VSG-STH-17013</t>
+  </si>
+  <si>
+    <t>Voluntary Sector Grant to Smallwords</t>
+  </si>
+  <si>
+    <t>Supporting emotional wellbeing through creative writing workshops</t>
+  </si>
+  <si>
+    <t>360G-traffordmbc-Org:Smallwords</t>
+  </si>
+  <si>
+    <t>Smallwords</t>
+  </si>
+  <si>
+    <t>360G-traffordmbc-VSG-STH-17014</t>
+  </si>
+  <si>
+    <t>Voluntary Sector Grant to The Sport Business C.I.C</t>
+  </si>
+  <si>
+    <t>Sport sessions with local schools to engage young people</t>
+  </si>
+  <si>
+    <t>GB-COH-06596982</t>
+  </si>
+  <si>
+    <t>The Sport Business C.I.C</t>
+  </si>
+  <si>
+    <t>06596982</t>
+  </si>
+  <si>
+    <t>360G-traffordmbc-VSG-STH-17015</t>
+  </si>
+  <si>
+    <t>Voluntary Sector Grant to Altrincham Baptist Church</t>
+  </si>
+  <si>
+    <t>‘Eat Well for Less’ workshop course encouraging  healthy eating on a budget. Delivered at The Hub, Altrincham.</t>
+  </si>
+  <si>
+    <t>GB-CHC-1130343</t>
+  </si>
+  <si>
+    <t>Altrincham Baptist Church</t>
+  </si>
+  <si>
+    <t>1130343</t>
+  </si>
+  <si>
+    <t>360G-traffordmbc-VSG-STH-17016</t>
+  </si>
+  <si>
+    <t>Voluntary Sector Grant to Trafford Community Leisure Trust</t>
+  </si>
+  <si>
+    <t>Community cycle ride sessions around South Trafford.</t>
+  </si>
+  <si>
+    <t>GB-COH-04656262</t>
+  </si>
+  <si>
+    <t>Trafford Community Leisure Trust</t>
+  </si>
+  <si>
+    <t>1105629</t>
+  </si>
+  <si>
+    <t>04656262</t>
+  </si>
+  <si>
+    <t>360G-traffordmbc-VSG-SAL-17017</t>
+  </si>
+  <si>
+    <t>Nets, Hoops and gardening equipment</t>
+  </si>
+  <si>
+    <t>360G-traffordmbc-VSG-SAL-17018</t>
+  </si>
+  <si>
+    <t>Befriending service</t>
+  </si>
+  <si>
+    <t>1146179</t>
+  </si>
+  <si>
+    <t>360G-traffordmbc-VSG-SAL-17019</t>
+  </si>
+  <si>
+    <t>Carers Choir</t>
+  </si>
+  <si>
+    <t>360G-traffordmbc-VSG-SAL-17020</t>
+  </si>
+  <si>
+    <t>Men and Ladies Group</t>
+  </si>
+  <si>
+    <t>360G-traffordmbc-VSG-SAL-17021</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Purchase Equipment </t>
+  </si>
+  <si>
+    <t>360G-traffordmbc-VSG-SAL-17022</t>
+  </si>
+  <si>
+    <t>Voluntary Sector Grant to Friends of Lime Tree Primary Academy</t>
+  </si>
+  <si>
+    <t>360G-traffordmbc-Org:FriendsOfLimeTreePrimaryAcademy</t>
+  </si>
+  <si>
+    <t>Friends of Lime Tree Primary Academy</t>
+  </si>
+  <si>
+    <t>360G-traffordmbc-VSG-SAL-17023</t>
+  </si>
+  <si>
+    <t>Voluntary Sector Grant to Friends of the Bridgewater Canal</t>
+  </si>
+  <si>
+    <t>Care for the Bridgewater Canal</t>
+  </si>
+  <si>
+    <t>360G-traffordmbc-Org:FriendsOfTheBridgewaterCanal</t>
+  </si>
+  <si>
+    <t>Friends of the Bridgewater Canal</t>
+  </si>
+  <si>
+    <t>360G-traffordmbc-VSG-SAL-17024</t>
+  </si>
+  <si>
+    <t>Voluntary Sector Grant to Sale United Reformed Church</t>
+  </si>
+  <si>
+    <t>Dorothy's Memory Café</t>
+  </si>
+  <si>
+    <t>360G-traffordmbc-Org:SaleUnitedReformedChurch</t>
+  </si>
+  <si>
+    <t>Sale United Reformed Church</t>
+  </si>
+  <si>
+    <t>360G-traffordmbc-VSG-SAL-17025</t>
+  </si>
+  <si>
+    <t>Voluntary Sector Grant to The Friends of Moor Nook Park</t>
+  </si>
+  <si>
+    <t>Autumn Community Fun Day</t>
+  </si>
+  <si>
+    <t>360G-traffordmbc-Org:TheFriendsOfMoorNookPark</t>
+  </si>
+  <si>
+    <t>The Friends of Moor Nook Park</t>
+  </si>
+  <si>
+    <t>360G-traffordmbc-VSG-SAL-17026</t>
+  </si>
+  <si>
+    <t>Voluntary Sector Grant to The Friends of Walkden Gardens</t>
+  </si>
+  <si>
+    <t>Labyrinth</t>
+  </si>
+  <si>
+    <t>360G-traffordmbc-Org:TheFriendsOfWalkdenGardens</t>
+  </si>
+  <si>
+    <t>The Friends of Walkden Gardens</t>
+  </si>
+  <si>
+    <t>360G-traffordmbc-VSG-SAL-17027</t>
+  </si>
+  <si>
+    <t>Voluntary Sector Grant to We Are Sale Moor Community Interest Company</t>
+  </si>
+  <si>
+    <t>Improve Sale moor Village</t>
+  </si>
+  <si>
+    <t>GB-COH-10158145</t>
+  </si>
+  <si>
+    <t>We Are Sale Moor Community Interest Company</t>
+  </si>
+  <si>
+    <t>10158145</t>
+  </si>
+  <si>
+    <t>360G-traffordmbc-VSG-OTS-17028</t>
+  </si>
+  <si>
+    <t>Voluntary Sector Grant to Trafford African &amp; Carribean over 50's club</t>
+  </si>
+  <si>
+    <t>Funding to continue TAC's operations and facilitate new events.</t>
+  </si>
+  <si>
+    <t>Trafford African &amp; Carribean over 50's club</t>
+  </si>
+  <si>
+    <t>360G-traffordmbc-VSG-OTS-17029</t>
+  </si>
+  <si>
+    <t>Voluntary Sector Grant to St. John's Centre</t>
+  </si>
+  <si>
+    <t>Two week summer school - 30 spaces each day with young people.</t>
+  </si>
+  <si>
+    <t>1146058</t>
+  </si>
+  <si>
+    <t>360G-traffordmbc-VSG-OTS-17030</t>
+  </si>
+  <si>
+    <t>Funding for one-to-one work with people interested in music but unable to afford instruments/lessons.</t>
+  </si>
+  <si>
+    <t>360G-traffordmbc-VSG-OTS-17031</t>
+  </si>
+  <si>
+    <t>To reduce social isolation and improve mental health. Counselling free of charge.</t>
+  </si>
+  <si>
+    <t>360G-traffordmbc-VSG-OTS-17032</t>
+  </si>
+  <si>
+    <t>Gardening group - to provide support for carers enabling respite from caring.</t>
+  </si>
+  <si>
+    <t>360G-traffordmbc-VSG-OTS-17033</t>
+  </si>
+  <si>
+    <t>Voluntary Sector Grant to Friends of Hullard Park</t>
+  </si>
+  <si>
+    <t>Re-establishing Wildflower Meadow, community learning to care for it.</t>
+  </si>
+  <si>
+    <t>360G-traffordmbc-Org:FriendsOfHullardPark</t>
+  </si>
+  <si>
+    <t>Friends of Hullard Park</t>
+  </si>
+  <si>
+    <t>360G-traffordmbc-VSG-OTS-17034</t>
+  </si>
+  <si>
+    <t>Voluntary Sector Grant to Friends of Victoria Park</t>
+  </si>
+  <si>
+    <t>Funding for new kitchen in new community building in park.</t>
+  </si>
+  <si>
+    <t>360G-traffordmbc-Org:FriendsOfVictoriaPark</t>
+  </si>
+  <si>
+    <t>Friends of Victoria Park</t>
+  </si>
+  <si>
+    <t>360G-traffordmbc-VSG-OTS-17035</t>
+  </si>
+  <si>
+    <t>Voluntary Sector Grant to Gorse Hill Learning Allotment</t>
+  </si>
+  <si>
+    <t>Purchase items for all year round outdoor learning/social growing space.</t>
+  </si>
+  <si>
+    <t>360G-traffordmbc-Org:GorseHillLearningAllotment</t>
+  </si>
+  <si>
+    <t>Gorse Hill Learning Allotment</t>
+  </si>
+  <si>
+    <t>360G-traffordmbc-VSG-OTS-17036</t>
+  </si>
+  <si>
+    <t>Voluntary Sector Grant to Stretford Children's Theatre</t>
+  </si>
+  <si>
+    <t>Children's project leading to a public performance looking at our community and the challenges faced.</t>
+  </si>
+  <si>
+    <t>GB-CHC-1175334</t>
+  </si>
+  <si>
+    <t>Stretford Children's Theatre</t>
+  </si>
+  <si>
+    <t>1175334</t>
+  </si>
+  <si>
+    <t>360G-traffordmbc-VSG-OTS-17037</t>
+  </si>
+  <si>
+    <t>Voluntary Sector Grant to The Garden Project at the Centenary Gardens, Old Trafford</t>
+  </si>
+  <si>
+    <t>Funding to replace existing vegetable plots etc that have become unsafe.</t>
+  </si>
+  <si>
+    <t>360G-traffordmbc-Org:TheGardenProjectAtTheCentenaryGardensOldTrafford</t>
+  </si>
+  <si>
+    <t>The Garden Project at the Centenary Gardens, Old Trafford</t>
+  </si>
+  <si>
+    <t>360G-traffordmbc-VSG-OTS-17038</t>
+  </si>
+  <si>
+    <t>Voluntary Sector Grant to Theatre Of The Senses</t>
+  </si>
+  <si>
+    <t>Project tackling poverty, loneliness, isolation, mental health/wellbeing.</t>
+  </si>
+  <si>
+    <t>360G-traffordmbc-Org:TheatreOfTheSenses</t>
+  </si>
+  <si>
+    <t>Theatre Of The Senses</t>
   </si>
 </sst>
 </file>
@@ -1349,7 +1862,20 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="yyyy\-mm\-dd;@"/>
   </numFmts>
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1375,8 +1901,10 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -1384,8 +1912,10 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="3">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal 2" xfId="2"/>
+    <cellStyle name="Normal 3" xfId="1"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1684,11 +2214,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AM85"/>
+  <dimension ref="A1:AM123"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="14" max="14" width="57.28515625" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="28.140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="30.28515625" style="2" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
@@ -1835,29 +2370,28 @@
         <v>41364</v>
       </c>
       <c r="M2" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="N2" t="s">
-        <v>389</v>
-      </c>
-      <c r="P2" s="2"/>
+        <v>384</v>
+      </c>
       <c r="AD2" t="s">
-        <v>441</v>
+        <v>436</v>
       </c>
       <c r="AE2" t="s">
-        <v>436</v>
+        <v>431</v>
       </c>
       <c r="AF2" t="s">
-        <v>437</v>
+        <v>432</v>
       </c>
       <c r="AG2" t="s">
-        <v>438</v>
+        <v>433</v>
       </c>
       <c r="AH2" t="s">
-        <v>439</v>
+        <v>434</v>
       </c>
       <c r="AJ2" t="s">
-        <v>440</v>
+        <v>435</v>
       </c>
       <c r="AL2" s="3">
         <v>42978</v>
@@ -1889,29 +2423,28 @@
         <v>41364</v>
       </c>
       <c r="M3" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="N3" t="s">
-        <v>390</v>
-      </c>
-      <c r="P3" s="2"/>
+        <v>385</v>
+      </c>
       <c r="AD3" t="s">
-        <v>441</v>
+        <v>436</v>
       </c>
       <c r="AE3" t="s">
-        <v>436</v>
+        <v>431</v>
       </c>
       <c r="AF3" t="s">
-        <v>437</v>
+        <v>432</v>
       </c>
       <c r="AG3" t="s">
-        <v>438</v>
+        <v>433</v>
       </c>
       <c r="AH3" t="s">
-        <v>439</v>
+        <v>434</v>
       </c>
       <c r="AJ3" t="s">
-        <v>440</v>
+        <v>435</v>
       </c>
       <c r="AL3" s="3">
         <v>42978</v>
@@ -1943,29 +2476,28 @@
         <v>41364</v>
       </c>
       <c r="M4" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="N4" t="s">
-        <v>391</v>
-      </c>
-      <c r="P4" s="2"/>
+        <v>386</v>
+      </c>
       <c r="AD4" t="s">
-        <v>441</v>
+        <v>436</v>
       </c>
       <c r="AE4" t="s">
-        <v>436</v>
+        <v>431</v>
       </c>
       <c r="AF4" t="s">
-        <v>437</v>
+        <v>432</v>
       </c>
       <c r="AG4" t="s">
-        <v>438</v>
+        <v>433</v>
       </c>
       <c r="AH4" t="s">
-        <v>439</v>
+        <v>434</v>
       </c>
       <c r="AJ4" t="s">
-        <v>440</v>
+        <v>435</v>
       </c>
       <c r="AL4" s="3">
         <v>42978</v>
@@ -1997,35 +2529,37 @@
         <v>41364</v>
       </c>
       <c r="M5" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="N5" t="s">
-        <v>392</v>
-      </c>
-      <c r="O5">
+        <v>387</v>
+      </c>
+      <c r="O5" s="2">
         <v>1146179</v>
       </c>
-      <c r="P5" s="2"/>
+      <c r="P5" s="2" t="s">
+        <v>437</v>
+      </c>
       <c r="AD5" t="s">
-        <v>441</v>
+        <v>436</v>
       </c>
       <c r="AE5" t="s">
-        <v>436</v>
+        <v>431</v>
       </c>
       <c r="AF5" t="s">
-        <v>437</v>
+        <v>432</v>
       </c>
       <c r="AG5" t="s">
-        <v>438</v>
+        <v>433</v>
       </c>
       <c r="AH5" t="s">
-        <v>439</v>
+        <v>434</v>
       </c>
       <c r="AJ5" t="s">
-        <v>440</v>
+        <v>435</v>
       </c>
       <c r="AL5" s="3">
-        <v>42978</v>
+        <v>43033</v>
       </c>
     </row>
     <row r="6" spans="1:39" x14ac:dyDescent="0.25">
@@ -2054,29 +2588,28 @@
         <v>41364</v>
       </c>
       <c r="M6" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="N6" t="s">
-        <v>393</v>
-      </c>
-      <c r="P6" s="2"/>
+        <v>388</v>
+      </c>
       <c r="AD6" t="s">
-        <v>441</v>
+        <v>436</v>
       </c>
       <c r="AE6" t="s">
-        <v>436</v>
+        <v>431</v>
       </c>
       <c r="AF6" t="s">
-        <v>437</v>
+        <v>432</v>
       </c>
       <c r="AG6" t="s">
-        <v>438</v>
+        <v>433</v>
       </c>
       <c r="AH6" t="s">
-        <v>439</v>
+        <v>434</v>
       </c>
       <c r="AJ6" t="s">
-        <v>440</v>
+        <v>435</v>
       </c>
       <c r="AL6" s="3">
         <v>42978</v>
@@ -2108,31 +2641,31 @@
         <v>41364</v>
       </c>
       <c r="M7" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="N7" t="s">
-        <v>394</v>
+        <v>389</v>
       </c>
       <c r="P7" s="2">
         <v>10086410</v>
       </c>
       <c r="AD7" t="s">
-        <v>441</v>
+        <v>436</v>
       </c>
       <c r="AE7" t="s">
-        <v>436</v>
+        <v>431</v>
       </c>
       <c r="AF7" t="s">
-        <v>437</v>
+        <v>432</v>
       </c>
       <c r="AG7" t="s">
-        <v>438</v>
+        <v>433</v>
       </c>
       <c r="AH7" t="s">
-        <v>439</v>
+        <v>434</v>
       </c>
       <c r="AJ7" t="s">
-        <v>440</v>
+        <v>435</v>
       </c>
       <c r="AL7" s="3">
         <v>42978</v>
@@ -2164,29 +2697,28 @@
         <v>41364</v>
       </c>
       <c r="M8" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="N8" t="s">
-        <v>395</v>
-      </c>
-      <c r="P8" s="2"/>
+        <v>390</v>
+      </c>
       <c r="AD8" t="s">
-        <v>441</v>
+        <v>436</v>
       </c>
       <c r="AE8" t="s">
-        <v>436</v>
+        <v>431</v>
       </c>
       <c r="AF8" t="s">
-        <v>437</v>
+        <v>432</v>
       </c>
       <c r="AG8" t="s">
-        <v>438</v>
+        <v>433</v>
       </c>
       <c r="AH8" t="s">
-        <v>439</v>
+        <v>434</v>
       </c>
       <c r="AJ8" t="s">
-        <v>440</v>
+        <v>435</v>
       </c>
       <c r="AL8" s="3">
         <v>42978</v>
@@ -2218,32 +2750,31 @@
         <v>41364</v>
       </c>
       <c r="M9" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="N9" t="s">
-        <v>396</v>
-      </c>
-      <c r="O9">
+        <v>391</v>
+      </c>
+      <c r="O9" s="2">
         <v>1110767</v>
       </c>
-      <c r="P9" s="2"/>
       <c r="AD9" t="s">
-        <v>441</v>
+        <v>436</v>
       </c>
       <c r="AE9" t="s">
-        <v>436</v>
+        <v>431</v>
       </c>
       <c r="AF9" t="s">
-        <v>437</v>
+        <v>432</v>
       </c>
       <c r="AG9" t="s">
-        <v>438</v>
+        <v>433</v>
       </c>
       <c r="AH9" t="s">
-        <v>439</v>
+        <v>434</v>
       </c>
       <c r="AJ9" t="s">
-        <v>440</v>
+        <v>435</v>
       </c>
       <c r="AL9" s="3">
         <v>42978</v>
@@ -2251,22 +2782,22 @@
     </row>
     <row r="10" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>39</v>
+        <v>49</v>
       </c>
       <c r="B10" t="s">
-        <v>123</v>
+        <v>133</v>
       </c>
       <c r="C10" t="s">
-        <v>195</v>
+        <v>205</v>
       </c>
       <c r="D10" t="s">
         <v>279</v>
       </c>
       <c r="F10">
-        <v>4575</v>
+        <v>4540</v>
       </c>
       <c r="H10" s="1">
-        <v>41454</v>
+        <v>41447</v>
       </c>
       <c r="J10" s="1">
         <v>41365</v>
@@ -2275,29 +2806,31 @@
         <v>41729</v>
       </c>
       <c r="M10" t="s">
-        <v>280</v>
+        <v>290</v>
       </c>
       <c r="N10" t="s">
-        <v>351</v>
-      </c>
-      <c r="P10" s="2"/>
+        <v>359</v>
+      </c>
+      <c r="O10" s="2">
+        <v>1159034</v>
+      </c>
       <c r="AD10" t="s">
-        <v>441</v>
+        <v>436</v>
       </c>
       <c r="AE10" t="s">
-        <v>436</v>
+        <v>431</v>
       </c>
       <c r="AF10" t="s">
-        <v>437</v>
+        <v>432</v>
       </c>
       <c r="AG10" t="s">
-        <v>438</v>
+        <v>433</v>
       </c>
       <c r="AH10" t="s">
-        <v>439</v>
+        <v>434</v>
       </c>
       <c r="AJ10" t="s">
-        <v>440</v>
+        <v>435</v>
       </c>
       <c r="AL10" s="3">
         <v>42978</v>
@@ -2305,22 +2838,22 @@
     </row>
     <row r="11" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="B11" t="s">
-        <v>124</v>
+        <v>134</v>
       </c>
       <c r="C11" t="s">
-        <v>196</v>
+        <v>206</v>
       </c>
       <c r="D11" t="s">
         <v>279</v>
       </c>
       <c r="F11">
-        <v>5000</v>
+        <v>2000</v>
       </c>
       <c r="H11" s="1">
-        <v>41454</v>
+        <v>41447</v>
       </c>
       <c r="J11" s="1">
         <v>41365</v>
@@ -2329,29 +2862,28 @@
         <v>41729</v>
       </c>
       <c r="M11" t="s">
-        <v>281</v>
+        <v>291</v>
       </c>
       <c r="N11" t="s">
-        <v>352</v>
-      </c>
-      <c r="P11" s="2"/>
+        <v>360</v>
+      </c>
       <c r="AD11" t="s">
-        <v>441</v>
+        <v>436</v>
       </c>
       <c r="AE11" t="s">
-        <v>436</v>
+        <v>431</v>
       </c>
       <c r="AF11" t="s">
-        <v>437</v>
+        <v>432</v>
       </c>
       <c r="AG11" t="s">
-        <v>438</v>
+        <v>433</v>
       </c>
       <c r="AH11" t="s">
-        <v>439</v>
+        <v>434</v>
       </c>
       <c r="AJ11" t="s">
-        <v>440</v>
+        <v>435</v>
       </c>
       <c r="AL11" s="3">
         <v>42978</v>
@@ -2359,22 +2891,22 @@
     </row>
     <row r="12" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="B12" t="s">
-        <v>125</v>
+        <v>135</v>
       </c>
       <c r="C12" t="s">
-        <v>197</v>
+        <v>207</v>
       </c>
       <c r="D12" t="s">
         <v>279</v>
       </c>
       <c r="F12">
-        <v>5000</v>
+        <v>1430</v>
       </c>
       <c r="H12" s="1">
-        <v>41454</v>
+        <v>41447</v>
       </c>
       <c r="J12" s="1">
         <v>41365</v>
@@ -2383,31 +2915,28 @@
         <v>41729</v>
       </c>
       <c r="M12" t="s">
-        <v>282</v>
+        <v>292</v>
       </c>
       <c r="N12" t="s">
-        <v>353</v>
-      </c>
-      <c r="P12" s="2" t="s">
-        <v>422</v>
+        <v>361</v>
       </c>
       <c r="AD12" t="s">
-        <v>441</v>
+        <v>436</v>
       </c>
       <c r="AE12" t="s">
-        <v>436</v>
+        <v>431</v>
       </c>
       <c r="AF12" t="s">
-        <v>437</v>
+        <v>432</v>
       </c>
       <c r="AG12" t="s">
-        <v>438</v>
+        <v>433</v>
       </c>
       <c r="AH12" t="s">
-        <v>439</v>
+        <v>434</v>
       </c>
       <c r="AJ12" t="s">
-        <v>440</v>
+        <v>435</v>
       </c>
       <c r="AL12" s="3">
         <v>42978</v>
@@ -2415,22 +2944,22 @@
     </row>
     <row r="13" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="B13" t="s">
-        <v>126</v>
+        <v>136</v>
       </c>
       <c r="C13" t="s">
-        <v>198</v>
+        <v>208</v>
       </c>
       <c r="D13" t="s">
         <v>279</v>
       </c>
       <c r="F13">
-        <v>2500</v>
+        <v>1800</v>
       </c>
       <c r="H13" s="1">
-        <v>41454</v>
+        <v>41447</v>
       </c>
       <c r="J13" s="1">
         <v>41365</v>
@@ -2439,29 +2968,28 @@
         <v>41729</v>
       </c>
       <c r="M13" t="s">
-        <v>283</v>
+        <v>293</v>
       </c>
       <c r="N13" t="s">
-        <v>354</v>
-      </c>
-      <c r="P13" s="2"/>
+        <v>362</v>
+      </c>
       <c r="AD13" t="s">
-        <v>441</v>
+        <v>436</v>
       </c>
       <c r="AE13" t="s">
-        <v>436</v>
+        <v>431</v>
       </c>
       <c r="AF13" t="s">
-        <v>437</v>
+        <v>432</v>
       </c>
       <c r="AG13" t="s">
-        <v>438</v>
+        <v>433</v>
       </c>
       <c r="AH13" t="s">
-        <v>439</v>
+        <v>434</v>
       </c>
       <c r="AJ13" t="s">
-        <v>440</v>
+        <v>435</v>
       </c>
       <c r="AL13" s="3">
         <v>42978</v>
@@ -2469,22 +2997,22 @@
     </row>
     <row r="14" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>43</v>
+        <v>53</v>
       </c>
       <c r="B14" t="s">
-        <v>127</v>
+        <v>137</v>
       </c>
       <c r="C14" t="s">
-        <v>199</v>
+        <v>209</v>
       </c>
       <c r="D14" t="s">
         <v>279</v>
       </c>
       <c r="F14">
-        <v>4000</v>
+        <v>4779.54</v>
       </c>
       <c r="H14" s="1">
-        <v>41454</v>
+        <v>41447</v>
       </c>
       <c r="J14" s="1">
         <v>41365</v>
@@ -2493,29 +3021,28 @@
         <v>41729</v>
       </c>
       <c r="M14" t="s">
-        <v>284</v>
+        <v>294</v>
       </c>
       <c r="N14" t="s">
-        <v>355</v>
-      </c>
-      <c r="P14" s="2"/>
+        <v>363</v>
+      </c>
       <c r="AD14" t="s">
-        <v>441</v>
+        <v>436</v>
       </c>
       <c r="AE14" t="s">
-        <v>436</v>
+        <v>431</v>
       </c>
       <c r="AF14" t="s">
-        <v>437</v>
+        <v>432</v>
       </c>
       <c r="AG14" t="s">
-        <v>438</v>
+        <v>433</v>
       </c>
       <c r="AH14" t="s">
-        <v>439</v>
+        <v>434</v>
       </c>
       <c r="AJ14" t="s">
-        <v>440</v>
+        <v>435</v>
       </c>
       <c r="AL14" s="3">
         <v>42978</v>
@@ -2523,22 +3050,22 @@
     </row>
     <row r="15" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>44</v>
+        <v>54</v>
       </c>
       <c r="B15" t="s">
-        <v>128</v>
+        <v>138</v>
       </c>
       <c r="C15" t="s">
-        <v>200</v>
+        <v>210</v>
       </c>
       <c r="D15" t="s">
         <v>279</v>
       </c>
       <c r="F15">
-        <v>4935</v>
+        <v>4180</v>
       </c>
       <c r="H15" s="1">
-        <v>41454</v>
+        <v>41447</v>
       </c>
       <c r="J15" s="1">
         <v>41365</v>
@@ -2547,31 +3074,31 @@
         <v>41729</v>
       </c>
       <c r="M15" t="s">
-        <v>285</v>
+        <v>295</v>
       </c>
       <c r="N15" t="s">
-        <v>356</v>
-      </c>
-      <c r="P15" s="2" t="s">
-        <v>423</v>
+        <v>364</v>
+      </c>
+      <c r="O15" s="2">
+        <v>1121805</v>
       </c>
       <c r="AD15" t="s">
-        <v>441</v>
+        <v>436</v>
       </c>
       <c r="AE15" t="s">
-        <v>436</v>
+        <v>431</v>
       </c>
       <c r="AF15" t="s">
-        <v>437</v>
+        <v>432</v>
       </c>
       <c r="AG15" t="s">
-        <v>438</v>
+        <v>433</v>
       </c>
       <c r="AH15" t="s">
-        <v>439</v>
+        <v>434</v>
       </c>
       <c r="AJ15" t="s">
-        <v>440</v>
+        <v>435</v>
       </c>
       <c r="AL15" s="3">
         <v>42978</v>
@@ -2579,22 +3106,22 @@
     </row>
     <row r="16" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>45</v>
+        <v>55</v>
       </c>
       <c r="B16" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="C16" t="s">
-        <v>201</v>
+        <v>211</v>
       </c>
       <c r="D16" t="s">
         <v>279</v>
       </c>
       <c r="F16">
-        <v>4115.7</v>
+        <v>590</v>
       </c>
       <c r="H16" s="1">
-        <v>41454</v>
+        <v>41447</v>
       </c>
       <c r="J16" s="1">
         <v>41365</v>
@@ -2603,29 +3130,31 @@
         <v>41729</v>
       </c>
       <c r="M16" t="s">
-        <v>286</v>
+        <v>288</v>
       </c>
       <c r="N16" t="s">
-        <v>357</v>
-      </c>
-      <c r="P16" s="2"/>
+        <v>358</v>
+      </c>
+      <c r="O16" s="2">
+        <v>1143362</v>
+      </c>
       <c r="AD16" t="s">
-        <v>441</v>
+        <v>436</v>
       </c>
       <c r="AE16" t="s">
-        <v>436</v>
+        <v>431</v>
       </c>
       <c r="AF16" t="s">
-        <v>437</v>
+        <v>432</v>
       </c>
       <c r="AG16" t="s">
-        <v>438</v>
+        <v>433</v>
       </c>
       <c r="AH16" t="s">
-        <v>439</v>
+        <v>434</v>
       </c>
       <c r="AJ16" t="s">
-        <v>440</v>
+        <v>435</v>
       </c>
       <c r="AL16" s="3">
         <v>42978</v>
@@ -2633,22 +3162,22 @@
     </row>
     <row r="17" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>46</v>
+        <v>68</v>
       </c>
       <c r="B17" t="s">
-        <v>130</v>
+        <v>151</v>
       </c>
       <c r="C17" t="s">
-        <v>202</v>
+        <v>224</v>
       </c>
       <c r="D17" t="s">
         <v>279</v>
       </c>
       <c r="F17">
-        <v>3850</v>
+        <v>3836</v>
       </c>
       <c r="H17" s="1">
-        <v>41454</v>
+        <v>41447</v>
       </c>
       <c r="J17" s="1">
         <v>41365</v>
@@ -2657,29 +3186,31 @@
         <v>41729</v>
       </c>
       <c r="M17" t="s">
-        <v>287</v>
+        <v>306</v>
       </c>
       <c r="N17" t="s">
-        <v>358</v>
-      </c>
-      <c r="P17" s="2"/>
+        <v>373</v>
+      </c>
+      <c r="P17" s="2" t="s">
+        <v>420</v>
+      </c>
       <c r="AD17" t="s">
-        <v>441</v>
+        <v>436</v>
       </c>
       <c r="AE17" t="s">
-        <v>436</v>
+        <v>431</v>
       </c>
       <c r="AF17" t="s">
-        <v>437</v>
+        <v>432</v>
       </c>
       <c r="AG17" t="s">
-        <v>438</v>
+        <v>433</v>
       </c>
       <c r="AH17" t="s">
-        <v>439</v>
+        <v>434</v>
       </c>
       <c r="AJ17" t="s">
-        <v>440</v>
+        <v>435</v>
       </c>
       <c r="AL17" s="3">
         <v>42978</v>
@@ -2687,22 +3218,22 @@
     </row>
     <row r="18" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>47</v>
+        <v>69</v>
       </c>
       <c r="B18" t="s">
-        <v>131</v>
+        <v>152</v>
       </c>
       <c r="C18" t="s">
-        <v>203</v>
+        <v>225</v>
       </c>
       <c r="D18" t="s">
         <v>279</v>
       </c>
       <c r="F18">
-        <v>3300</v>
+        <v>4900</v>
       </c>
       <c r="H18" s="1">
-        <v>41454</v>
+        <v>41447</v>
       </c>
       <c r="J18" s="1">
         <v>41365</v>
@@ -2711,32 +3242,31 @@
         <v>41729</v>
       </c>
       <c r="M18" t="s">
-        <v>288</v>
+        <v>307</v>
       </c>
       <c r="N18" t="s">
-        <v>359</v>
-      </c>
-      <c r="O18">
-        <v>1143362</v>
-      </c>
-      <c r="P18" s="2"/>
+        <v>374</v>
+      </c>
+      <c r="P18" s="2" t="s">
+        <v>421</v>
+      </c>
       <c r="AD18" t="s">
-        <v>441</v>
+        <v>436</v>
       </c>
       <c r="AE18" t="s">
-        <v>436</v>
+        <v>431</v>
       </c>
       <c r="AF18" t="s">
-        <v>437</v>
+        <v>432</v>
       </c>
       <c r="AG18" t="s">
-        <v>438</v>
+        <v>433</v>
       </c>
       <c r="AH18" t="s">
-        <v>439</v>
+        <v>434</v>
       </c>
       <c r="AJ18" t="s">
-        <v>440</v>
+        <v>435</v>
       </c>
       <c r="AL18" s="3">
         <v>42978</v>
@@ -2744,22 +3274,22 @@
     </row>
     <row r="19" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>48</v>
+        <v>70</v>
       </c>
       <c r="B19" t="s">
-        <v>132</v>
+        <v>153</v>
       </c>
       <c r="C19" t="s">
-        <v>204</v>
+        <v>226</v>
       </c>
       <c r="D19" t="s">
         <v>279</v>
       </c>
       <c r="F19">
-        <v>780</v>
+        <v>4215</v>
       </c>
       <c r="H19" s="1">
-        <v>41454</v>
+        <v>41447</v>
       </c>
       <c r="J19" s="1">
         <v>41365</v>
@@ -2768,29 +3298,31 @@
         <v>41729</v>
       </c>
       <c r="M19" t="s">
-        <v>289</v>
+        <v>308</v>
       </c>
       <c r="N19" t="s">
-        <v>360</v>
-      </c>
-      <c r="P19" s="2"/>
+        <v>375</v>
+      </c>
+      <c r="P19" s="2" t="s">
+        <v>422</v>
+      </c>
       <c r="AD19" t="s">
-        <v>441</v>
+        <v>436</v>
       </c>
       <c r="AE19" t="s">
-        <v>436</v>
+        <v>431</v>
       </c>
       <c r="AF19" t="s">
-        <v>437</v>
+        <v>432</v>
       </c>
       <c r="AG19" t="s">
-        <v>438</v>
+        <v>433</v>
       </c>
       <c r="AH19" t="s">
-        <v>439</v>
+        <v>434</v>
       </c>
       <c r="AJ19" t="s">
-        <v>440</v>
+        <v>435</v>
       </c>
       <c r="AL19" s="3">
         <v>42978</v>
@@ -2798,19 +3330,19 @@
     </row>
     <row r="20" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>49</v>
+        <v>71</v>
       </c>
       <c r="B20" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="C20" t="s">
-        <v>205</v>
+        <v>227</v>
       </c>
       <c r="D20" t="s">
         <v>279</v>
       </c>
       <c r="F20">
-        <v>4540</v>
+        <v>1430</v>
       </c>
       <c r="H20" s="1">
         <v>41447</v>
@@ -2822,32 +3354,28 @@
         <v>41729</v>
       </c>
       <c r="M20" t="s">
-        <v>290</v>
+        <v>292</v>
       </c>
       <c r="N20" t="s">
         <v>361</v>
       </c>
-      <c r="O20">
-        <v>1159034</v>
-      </c>
-      <c r="P20" s="2"/>
       <c r="AD20" t="s">
-        <v>441</v>
+        <v>436</v>
       </c>
       <c r="AE20" t="s">
-        <v>436</v>
+        <v>431</v>
       </c>
       <c r="AF20" t="s">
-        <v>437</v>
+        <v>432</v>
       </c>
       <c r="AG20" t="s">
-        <v>438</v>
+        <v>433</v>
       </c>
       <c r="AH20" t="s">
-        <v>439</v>
+        <v>434</v>
       </c>
       <c r="AJ20" t="s">
-        <v>440</v>
+        <v>435</v>
       </c>
       <c r="AL20" s="3">
         <v>42978</v>
@@ -2855,19 +3383,19 @@
     </row>
     <row r="21" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>50</v>
+        <v>72</v>
       </c>
       <c r="B21" t="s">
-        <v>134</v>
+        <v>154</v>
       </c>
       <c r="C21" t="s">
-        <v>206</v>
+        <v>228</v>
       </c>
       <c r="D21" t="s">
         <v>279</v>
       </c>
       <c r="F21">
-        <v>2000</v>
+        <v>4069.74</v>
       </c>
       <c r="H21" s="1">
         <v>41447</v>
@@ -2879,29 +3407,31 @@
         <v>41729</v>
       </c>
       <c r="M21" t="s">
-        <v>291</v>
+        <v>309</v>
       </c>
       <c r="N21" t="s">
-        <v>362</v>
-      </c>
-      <c r="P21" s="2"/>
+        <v>376</v>
+      </c>
+      <c r="P21" s="2" t="s">
+        <v>423</v>
+      </c>
       <c r="AD21" t="s">
-        <v>441</v>
+        <v>436</v>
       </c>
       <c r="AE21" t="s">
-        <v>436</v>
+        <v>431</v>
       </c>
       <c r="AF21" t="s">
-        <v>437</v>
+        <v>432</v>
       </c>
       <c r="AG21" t="s">
-        <v>438</v>
+        <v>433</v>
       </c>
       <c r="AH21" t="s">
-        <v>439</v>
+        <v>434</v>
       </c>
       <c r="AJ21" t="s">
-        <v>440</v>
+        <v>435</v>
       </c>
       <c r="AL21" s="3">
         <v>42978</v>
@@ -2909,19 +3439,19 @@
     </row>
     <row r="22" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>51</v>
+        <v>73</v>
       </c>
       <c r="B22" t="s">
-        <v>135</v>
+        <v>155</v>
       </c>
       <c r="C22" t="s">
-        <v>207</v>
+        <v>229</v>
       </c>
       <c r="D22" t="s">
         <v>279</v>
       </c>
       <c r="F22">
-        <v>1430</v>
+        <v>4794</v>
       </c>
       <c r="H22" s="1">
         <v>41447</v>
@@ -2933,29 +3463,28 @@
         <v>41729</v>
       </c>
       <c r="M22" t="s">
-        <v>292</v>
+        <v>310</v>
       </c>
       <c r="N22" t="s">
-        <v>363</v>
-      </c>
-      <c r="P22" s="2"/>
+        <v>377</v>
+      </c>
       <c r="AD22" t="s">
-        <v>441</v>
+        <v>436</v>
       </c>
       <c r="AE22" t="s">
-        <v>436</v>
+        <v>431</v>
       </c>
       <c r="AF22" t="s">
-        <v>437</v>
+        <v>432</v>
       </c>
       <c r="AG22" t="s">
-        <v>438</v>
+        <v>433</v>
       </c>
       <c r="AH22" t="s">
-        <v>439</v>
+        <v>434</v>
       </c>
       <c r="AJ22" t="s">
-        <v>440</v>
+        <v>435</v>
       </c>
       <c r="AL22" s="3">
         <v>42978</v>
@@ -2963,19 +3492,19 @@
     </row>
     <row r="23" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>52</v>
+        <v>74</v>
       </c>
       <c r="B23" t="s">
-        <v>136</v>
+        <v>156</v>
       </c>
       <c r="C23" t="s">
-        <v>208</v>
+        <v>230</v>
       </c>
       <c r="D23" t="s">
         <v>279</v>
       </c>
       <c r="F23">
-        <v>1800</v>
+        <v>2524.38</v>
       </c>
       <c r="H23" s="1">
         <v>41447</v>
@@ -2987,29 +3516,28 @@
         <v>41729</v>
       </c>
       <c r="M23" t="s">
-        <v>293</v>
+        <v>311</v>
       </c>
       <c r="N23" t="s">
-        <v>364</v>
-      </c>
-      <c r="P23" s="2"/>
+        <v>378</v>
+      </c>
       <c r="AD23" t="s">
-        <v>441</v>
+        <v>436</v>
       </c>
       <c r="AE23" t="s">
-        <v>436</v>
+        <v>431</v>
       </c>
       <c r="AF23" t="s">
-        <v>437</v>
+        <v>432</v>
       </c>
       <c r="AG23" t="s">
-        <v>438</v>
+        <v>433</v>
       </c>
       <c r="AH23" t="s">
-        <v>439</v>
+        <v>434</v>
       </c>
       <c r="AJ23" t="s">
-        <v>440</v>
+        <v>435</v>
       </c>
       <c r="AL23" s="3">
         <v>42978</v>
@@ -3017,19 +3545,19 @@
     </row>
     <row r="24" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>53</v>
+        <v>75</v>
       </c>
       <c r="B24" t="s">
-        <v>137</v>
+        <v>157</v>
       </c>
       <c r="C24" t="s">
-        <v>209</v>
+        <v>231</v>
       </c>
       <c r="D24" t="s">
         <v>279</v>
       </c>
       <c r="F24">
-        <v>4779.54</v>
+        <v>1400</v>
       </c>
       <c r="H24" s="1">
         <v>41447</v>
@@ -3041,29 +3569,31 @@
         <v>41729</v>
       </c>
       <c r="M24" t="s">
-        <v>294</v>
+        <v>312</v>
       </c>
       <c r="N24" t="s">
-        <v>365</v>
-      </c>
-      <c r="P24" s="2"/>
+        <v>379</v>
+      </c>
+      <c r="O24" s="2">
+        <v>1137438</v>
+      </c>
       <c r="AD24" t="s">
-        <v>441</v>
+        <v>436</v>
       </c>
       <c r="AE24" t="s">
-        <v>436</v>
+        <v>431</v>
       </c>
       <c r="AF24" t="s">
-        <v>437</v>
+        <v>432</v>
       </c>
       <c r="AG24" t="s">
-        <v>438</v>
+        <v>433</v>
       </c>
       <c r="AH24" t="s">
-        <v>439</v>
+        <v>434</v>
       </c>
       <c r="AJ24" t="s">
-        <v>440</v>
+        <v>435</v>
       </c>
       <c r="AL24" s="3">
         <v>42978</v>
@@ -3071,19 +3601,19 @@
     </row>
     <row r="25" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>54</v>
+        <v>76</v>
       </c>
       <c r="B25" t="s">
-        <v>138</v>
+        <v>158</v>
       </c>
       <c r="C25" t="s">
-        <v>210</v>
+        <v>232</v>
       </c>
       <c r="D25" t="s">
         <v>279</v>
       </c>
       <c r="F25">
-        <v>4180</v>
+        <v>900</v>
       </c>
       <c r="H25" s="1">
         <v>41447</v>
@@ -3095,32 +3625,28 @@
         <v>41729</v>
       </c>
       <c r="M25" t="s">
-        <v>295</v>
+        <v>313</v>
       </c>
       <c r="N25" t="s">
-        <v>366</v>
-      </c>
-      <c r="O25">
-        <v>1121805</v>
-      </c>
-      <c r="P25" s="2"/>
+        <v>380</v>
+      </c>
       <c r="AD25" t="s">
-        <v>441</v>
+        <v>436</v>
       </c>
       <c r="AE25" t="s">
-        <v>436</v>
+        <v>431</v>
       </c>
       <c r="AF25" t="s">
-        <v>437</v>
+        <v>432</v>
       </c>
       <c r="AG25" t="s">
-        <v>438</v>
+        <v>433</v>
       </c>
       <c r="AH25" t="s">
-        <v>439</v>
+        <v>434</v>
       </c>
       <c r="AJ25" t="s">
-        <v>440</v>
+        <v>435</v>
       </c>
       <c r="AL25" s="3">
         <v>42978</v>
@@ -3128,19 +3654,19 @@
     </row>
     <row r="26" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>55</v>
+        <v>77</v>
       </c>
       <c r="B26" t="s">
-        <v>131</v>
+        <v>159</v>
       </c>
       <c r="C26" t="s">
-        <v>211</v>
+        <v>233</v>
       </c>
       <c r="D26" t="s">
         <v>279</v>
       </c>
       <c r="F26">
-        <v>590</v>
+        <v>3000</v>
       </c>
       <c r="H26" s="1">
         <v>41447</v>
@@ -3152,55 +3678,57 @@
         <v>41729</v>
       </c>
       <c r="M26" t="s">
-        <v>288</v>
+        <v>314</v>
       </c>
       <c r="N26" t="s">
-        <v>359</v>
-      </c>
-      <c r="O26">
-        <v>1143362</v>
-      </c>
-      <c r="P26" s="2"/>
+        <v>381</v>
+      </c>
+      <c r="O26" s="2" t="s">
+        <v>442</v>
+      </c>
+      <c r="P26" s="2" t="s">
+        <v>424</v>
+      </c>
       <c r="AD26" t="s">
-        <v>441</v>
+        <v>436</v>
       </c>
       <c r="AE26" t="s">
-        <v>436</v>
+        <v>431</v>
       </c>
       <c r="AF26" t="s">
-        <v>437</v>
+        <v>432</v>
       </c>
       <c r="AG26" t="s">
-        <v>438</v>
+        <v>433</v>
       </c>
       <c r="AH26" t="s">
-        <v>439</v>
+        <v>434</v>
       </c>
       <c r="AJ26" t="s">
-        <v>440</v>
+        <v>435</v>
       </c>
       <c r="AL26" s="3">
-        <v>42978</v>
+        <v>43033</v>
       </c>
     </row>
     <row r="27" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>56</v>
+        <v>78</v>
       </c>
       <c r="B27" t="s">
-        <v>139</v>
+        <v>160</v>
       </c>
       <c r="C27" t="s">
-        <v>212</v>
+        <v>234</v>
       </c>
       <c r="D27" t="s">
         <v>279</v>
       </c>
       <c r="F27">
-        <v>5000</v>
+        <v>4000</v>
       </c>
       <c r="H27" s="1">
-        <v>41454</v>
+        <v>41447</v>
       </c>
       <c r="J27" s="1">
         <v>41365</v>
@@ -3209,29 +3737,28 @@
         <v>41729</v>
       </c>
       <c r="M27" t="s">
-        <v>296</v>
+        <v>315</v>
       </c>
       <c r="N27" t="s">
-        <v>367</v>
-      </c>
-      <c r="P27" s="2"/>
+        <v>382</v>
+      </c>
       <c r="AD27" t="s">
-        <v>441</v>
+        <v>436</v>
       </c>
       <c r="AE27" t="s">
-        <v>436</v>
+        <v>431</v>
       </c>
       <c r="AF27" t="s">
-        <v>437</v>
+        <v>432</v>
       </c>
       <c r="AG27" t="s">
-        <v>438</v>
+        <v>433</v>
       </c>
       <c r="AH27" t="s">
-        <v>439</v>
+        <v>434</v>
       </c>
       <c r="AJ27" t="s">
-        <v>440</v>
+        <v>435</v>
       </c>
       <c r="AL27" s="3">
         <v>42978</v>
@@ -3239,22 +3766,22 @@
     </row>
     <row r="28" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>57</v>
+        <v>79</v>
       </c>
       <c r="B28" t="s">
-        <v>140</v>
+        <v>161</v>
       </c>
       <c r="C28" t="s">
-        <v>213</v>
+        <v>235</v>
       </c>
       <c r="D28" t="s">
         <v>279</v>
       </c>
       <c r="F28">
-        <v>4329.53</v>
+        <v>4550</v>
       </c>
       <c r="H28" s="1">
-        <v>41454</v>
+        <v>41447</v>
       </c>
       <c r="J28" s="1">
         <v>41365</v>
@@ -3263,31 +3790,28 @@
         <v>41729</v>
       </c>
       <c r="M28" t="s">
-        <v>297</v>
+        <v>316</v>
       </c>
       <c r="N28" t="s">
-        <v>368</v>
-      </c>
-      <c r="P28" s="2" t="s">
-        <v>424</v>
+        <v>383</v>
       </c>
       <c r="AD28" t="s">
-        <v>441</v>
+        <v>436</v>
       </c>
       <c r="AE28" t="s">
-        <v>436</v>
+        <v>431</v>
       </c>
       <c r="AF28" t="s">
-        <v>437</v>
+        <v>432</v>
       </c>
       <c r="AG28" t="s">
-        <v>438</v>
+        <v>433</v>
       </c>
       <c r="AH28" t="s">
-        <v>439</v>
+        <v>434</v>
       </c>
       <c r="AJ28" t="s">
-        <v>440</v>
+        <v>435</v>
       </c>
       <c r="AL28" s="3">
         <v>42978</v>
@@ -3295,19 +3819,19 @@
     </row>
     <row r="29" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>58</v>
+        <v>39</v>
       </c>
       <c r="B29" t="s">
-        <v>141</v>
+        <v>123</v>
       </c>
       <c r="C29" t="s">
-        <v>214</v>
+        <v>195</v>
       </c>
       <c r="D29" t="s">
         <v>279</v>
       </c>
       <c r="F29">
-        <v>2890</v>
+        <v>4575</v>
       </c>
       <c r="H29" s="1">
         <v>41454</v>
@@ -3319,29 +3843,28 @@
         <v>41729</v>
       </c>
       <c r="M29" t="s">
-        <v>298</v>
+        <v>280</v>
       </c>
       <c r="N29" t="s">
-        <v>369</v>
-      </c>
-      <c r="P29" s="2"/>
+        <v>350</v>
+      </c>
       <c r="AD29" t="s">
-        <v>441</v>
+        <v>436</v>
       </c>
       <c r="AE29" t="s">
-        <v>436</v>
+        <v>431</v>
       </c>
       <c r="AF29" t="s">
-        <v>437</v>
+        <v>432</v>
       </c>
       <c r="AG29" t="s">
-        <v>438</v>
+        <v>433</v>
       </c>
       <c r="AH29" t="s">
-        <v>439</v>
+        <v>434</v>
       </c>
       <c r="AJ29" t="s">
-        <v>440</v>
+        <v>435</v>
       </c>
       <c r="AL29" s="3">
         <v>42978</v>
@@ -3349,19 +3872,19 @@
     </row>
     <row r="30" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>59</v>
+        <v>40</v>
       </c>
       <c r="B30" t="s">
-        <v>142</v>
+        <v>124</v>
       </c>
       <c r="C30" t="s">
-        <v>215</v>
+        <v>196</v>
       </c>
       <c r="D30" t="s">
         <v>279</v>
       </c>
       <c r="F30">
-        <v>1500</v>
+        <v>5000</v>
       </c>
       <c r="H30" s="1">
         <v>41454</v>
@@ -3373,29 +3896,28 @@
         <v>41729</v>
       </c>
       <c r="M30" t="s">
-        <v>299</v>
+        <v>281</v>
       </c>
       <c r="N30" t="s">
-        <v>370</v>
-      </c>
-      <c r="P30" s="2"/>
+        <v>351</v>
+      </c>
       <c r="AD30" t="s">
-        <v>441</v>
+        <v>436</v>
       </c>
       <c r="AE30" t="s">
-        <v>436</v>
+        <v>431</v>
       </c>
       <c r="AF30" t="s">
-        <v>437</v>
+        <v>432</v>
       </c>
       <c r="AG30" t="s">
-        <v>438</v>
+        <v>433</v>
       </c>
       <c r="AH30" t="s">
-        <v>439</v>
+        <v>434</v>
       </c>
       <c r="AJ30" t="s">
-        <v>440</v>
+        <v>435</v>
       </c>
       <c r="AL30" s="3">
         <v>42978</v>
@@ -3403,19 +3925,19 @@
     </row>
     <row r="31" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>60</v>
+        <v>41</v>
       </c>
       <c r="B31" t="s">
-        <v>143</v>
+        <v>125</v>
       </c>
       <c r="C31" t="s">
-        <v>216</v>
+        <v>197</v>
       </c>
       <c r="D31" t="s">
         <v>279</v>
       </c>
       <c r="F31">
-        <v>924.73</v>
+        <v>5000</v>
       </c>
       <c r="H31" s="1">
         <v>41454</v>
@@ -3427,29 +3949,31 @@
         <v>41729</v>
       </c>
       <c r="M31" t="s">
-        <v>300</v>
+        <v>282</v>
       </c>
       <c r="N31" t="s">
-        <v>371</v>
-      </c>
-      <c r="P31" s="2"/>
+        <v>352</v>
+      </c>
+      <c r="P31" s="2" t="s">
+        <v>417</v>
+      </c>
       <c r="AD31" t="s">
-        <v>441</v>
+        <v>436</v>
       </c>
       <c r="AE31" t="s">
-        <v>436</v>
+        <v>431</v>
       </c>
       <c r="AF31" t="s">
-        <v>437</v>
+        <v>432</v>
       </c>
       <c r="AG31" t="s">
-        <v>438</v>
+        <v>433</v>
       </c>
       <c r="AH31" t="s">
-        <v>439</v>
+        <v>434</v>
       </c>
       <c r="AJ31" t="s">
-        <v>440</v>
+        <v>435</v>
       </c>
       <c r="AL31" s="3">
         <v>42978</v>
@@ -3457,19 +3981,19 @@
     </row>
     <row r="32" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>61</v>
+        <v>42</v>
       </c>
       <c r="B32" t="s">
-        <v>144</v>
+        <v>126</v>
       </c>
       <c r="C32" t="s">
-        <v>217</v>
+        <v>198</v>
       </c>
       <c r="D32" t="s">
         <v>279</v>
       </c>
       <c r="F32">
-        <v>943</v>
+        <v>2500</v>
       </c>
       <c r="H32" s="1">
         <v>41454</v>
@@ -3481,29 +4005,28 @@
         <v>41729</v>
       </c>
       <c r="M32" t="s">
-        <v>301</v>
+        <v>283</v>
       </c>
       <c r="N32" t="s">
-        <v>372</v>
-      </c>
-      <c r="P32" s="2"/>
+        <v>353</v>
+      </c>
       <c r="AD32" t="s">
-        <v>441</v>
+        <v>436</v>
       </c>
       <c r="AE32" t="s">
-        <v>436</v>
+        <v>431</v>
       </c>
       <c r="AF32" t="s">
-        <v>437</v>
+        <v>432</v>
       </c>
       <c r="AG32" t="s">
-        <v>438</v>
+        <v>433</v>
       </c>
       <c r="AH32" t="s">
-        <v>439</v>
+        <v>434</v>
       </c>
       <c r="AJ32" t="s">
-        <v>440</v>
+        <v>435</v>
       </c>
       <c r="AL32" s="3">
         <v>42978</v>
@@ -3511,19 +4034,19 @@
     </row>
     <row r="33" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>62</v>
+        <v>43</v>
       </c>
       <c r="B33" t="s">
-        <v>145</v>
+        <v>127</v>
       </c>
       <c r="C33" t="s">
-        <v>218</v>
+        <v>199</v>
       </c>
       <c r="D33" t="s">
         <v>279</v>
       </c>
       <c r="F33">
-        <v>2070</v>
+        <v>4000</v>
       </c>
       <c r="H33" s="1">
         <v>41454</v>
@@ -3535,29 +4058,28 @@
         <v>41729</v>
       </c>
       <c r="M33" t="s">
-        <v>302</v>
+        <v>284</v>
       </c>
       <c r="N33" t="s">
-        <v>373</v>
-      </c>
-      <c r="P33" s="2"/>
+        <v>354</v>
+      </c>
       <c r="AD33" t="s">
-        <v>441</v>
+        <v>436</v>
       </c>
       <c r="AE33" t="s">
-        <v>436</v>
+        <v>431</v>
       </c>
       <c r="AF33" t="s">
-        <v>437</v>
+        <v>432</v>
       </c>
       <c r="AG33" t="s">
-        <v>438</v>
+        <v>433</v>
       </c>
       <c r="AH33" t="s">
-        <v>439</v>
+        <v>434</v>
       </c>
       <c r="AJ33" t="s">
-        <v>440</v>
+        <v>435</v>
       </c>
       <c r="AL33" s="3">
         <v>42978</v>
@@ -3565,19 +4087,19 @@
     </row>
     <row r="34" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>63</v>
+        <v>44</v>
       </c>
       <c r="B34" t="s">
-        <v>146</v>
+        <v>128</v>
       </c>
       <c r="C34" t="s">
-        <v>219</v>
+        <v>200</v>
       </c>
       <c r="D34" t="s">
         <v>279</v>
       </c>
       <c r="F34">
-        <v>4995</v>
+        <v>4935</v>
       </c>
       <c r="H34" s="1">
         <v>41454</v>
@@ -3589,29 +4111,31 @@
         <v>41729</v>
       </c>
       <c r="M34" t="s">
-        <v>303</v>
+        <v>285</v>
       </c>
       <c r="N34" t="s">
-        <v>374</v>
-      </c>
-      <c r="P34" s="2"/>
+        <v>355</v>
+      </c>
+      <c r="P34" s="2" t="s">
+        <v>418</v>
+      </c>
       <c r="AD34" t="s">
-        <v>441</v>
+        <v>436</v>
       </c>
       <c r="AE34" t="s">
-        <v>436</v>
+        <v>431</v>
       </c>
       <c r="AF34" t="s">
-        <v>437</v>
+        <v>432</v>
       </c>
       <c r="AG34" t="s">
-        <v>438</v>
+        <v>433</v>
       </c>
       <c r="AH34" t="s">
-        <v>439</v>
+        <v>434</v>
       </c>
       <c r="AJ34" t="s">
-        <v>440</v>
+        <v>435</v>
       </c>
       <c r="AL34" s="3">
         <v>42978</v>
@@ -3619,19 +4143,19 @@
     </row>
     <row r="35" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>64</v>
+        <v>45</v>
       </c>
       <c r="B35" t="s">
-        <v>147</v>
+        <v>129</v>
       </c>
       <c r="C35" t="s">
-        <v>220</v>
+        <v>201</v>
       </c>
       <c r="D35" t="s">
         <v>279</v>
       </c>
       <c r="F35">
-        <v>5000</v>
+        <v>4115.7</v>
       </c>
       <c r="H35" s="1">
         <v>41454</v>
@@ -3643,32 +4167,28 @@
         <v>41729</v>
       </c>
       <c r="M35" t="s">
-        <v>304</v>
+        <v>286</v>
       </c>
       <c r="N35" t="s">
-        <v>375</v>
-      </c>
-      <c r="O35">
-        <v>1146058</v>
-      </c>
-      <c r="P35" s="2"/>
+        <v>356</v>
+      </c>
       <c r="AD35" t="s">
-        <v>441</v>
+        <v>436</v>
       </c>
       <c r="AE35" t="s">
-        <v>436</v>
+        <v>431</v>
       </c>
       <c r="AF35" t="s">
-        <v>437</v>
+        <v>432</v>
       </c>
       <c r="AG35" t="s">
-        <v>438</v>
+        <v>433</v>
       </c>
       <c r="AH35" t="s">
-        <v>439</v>
+        <v>434</v>
       </c>
       <c r="AJ35" t="s">
-        <v>440</v>
+        <v>435</v>
       </c>
       <c r="AL35" s="3">
         <v>42978</v>
@@ -3676,19 +4196,19 @@
     </row>
     <row r="36" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>65</v>
+        <v>46</v>
       </c>
       <c r="B36" t="s">
-        <v>148</v>
+        <v>130</v>
       </c>
       <c r="C36" t="s">
-        <v>221</v>
+        <v>202</v>
       </c>
       <c r="D36" t="s">
         <v>279</v>
       </c>
       <c r="F36">
-        <v>2980</v>
+        <v>3850</v>
       </c>
       <c r="H36" s="1">
         <v>41454</v>
@@ -3700,32 +4220,28 @@
         <v>41729</v>
       </c>
       <c r="M36" t="s">
-        <v>304</v>
+        <v>287</v>
       </c>
       <c r="N36" t="s">
-        <v>375</v>
-      </c>
-      <c r="O36">
-        <v>1146058</v>
-      </c>
-      <c r="P36" s="2"/>
+        <v>357</v>
+      </c>
       <c r="AD36" t="s">
-        <v>441</v>
+        <v>436</v>
       </c>
       <c r="AE36" t="s">
-        <v>436</v>
+        <v>431</v>
       </c>
       <c r="AF36" t="s">
-        <v>437</v>
+        <v>432</v>
       </c>
       <c r="AG36" t="s">
-        <v>438</v>
+        <v>433</v>
       </c>
       <c r="AH36" t="s">
-        <v>439</v>
+        <v>434</v>
       </c>
       <c r="AJ36" t="s">
-        <v>440</v>
+        <v>435</v>
       </c>
       <c r="AL36" s="3">
         <v>42978</v>
@@ -3733,19 +4249,19 @@
     </row>
     <row r="37" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>66</v>
+        <v>47</v>
       </c>
       <c r="B37" t="s">
-        <v>149</v>
+        <v>131</v>
       </c>
       <c r="C37" t="s">
-        <v>222</v>
+        <v>203</v>
       </c>
       <c r="D37" t="s">
         <v>279</v>
       </c>
       <c r="F37">
-        <v>4126</v>
+        <v>3300</v>
       </c>
       <c r="H37" s="1">
         <v>41454</v>
@@ -3757,29 +4273,31 @@
         <v>41729</v>
       </c>
       <c r="M37" t="s">
-        <v>305</v>
+        <v>288</v>
       </c>
       <c r="N37" t="s">
-        <v>376</v>
-      </c>
-      <c r="P37" s="2"/>
+        <v>358</v>
+      </c>
+      <c r="O37" s="2">
+        <v>1143362</v>
+      </c>
       <c r="AD37" t="s">
-        <v>441</v>
+        <v>436</v>
       </c>
       <c r="AE37" t="s">
-        <v>436</v>
+        <v>431</v>
       </c>
       <c r="AF37" t="s">
-        <v>437</v>
+        <v>432</v>
       </c>
       <c r="AG37" t="s">
-        <v>438</v>
+        <v>433</v>
       </c>
       <c r="AH37" t="s">
-        <v>439</v>
+        <v>434</v>
       </c>
       <c r="AJ37" t="s">
-        <v>440</v>
+        <v>435</v>
       </c>
       <c r="AL37" s="3">
         <v>42978</v>
@@ -3787,19 +4305,19 @@
     </row>
     <row r="38" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>67</v>
+        <v>48</v>
       </c>
       <c r="B38" t="s">
-        <v>150</v>
+        <v>132</v>
       </c>
       <c r="C38" t="s">
-        <v>223</v>
+        <v>204</v>
       </c>
       <c r="D38" t="s">
         <v>279</v>
       </c>
       <c r="F38">
-        <v>4800</v>
+        <v>780</v>
       </c>
       <c r="H38" s="1">
         <v>41454</v>
@@ -3811,52 +4329,51 @@
         <v>41729</v>
       </c>
       <c r="M38" t="s">
-        <v>306</v>
+        <v>289</v>
       </c>
       <c r="N38" t="s">
-        <v>377</v>
-      </c>
-      <c r="P38" s="2"/>
+        <v>443</v>
+      </c>
       <c r="AD38" t="s">
-        <v>441</v>
+        <v>436</v>
       </c>
       <c r="AE38" t="s">
-        <v>436</v>
+        <v>431</v>
       </c>
       <c r="AF38" t="s">
-        <v>437</v>
+        <v>432</v>
       </c>
       <c r="AG38" t="s">
-        <v>438</v>
+        <v>433</v>
       </c>
       <c r="AH38" t="s">
-        <v>439</v>
+        <v>434</v>
       </c>
       <c r="AJ38" t="s">
-        <v>440</v>
+        <v>435</v>
       </c>
       <c r="AL38" s="3">
-        <v>42978</v>
+        <v>43033</v>
       </c>
     </row>
     <row r="39" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>68</v>
+        <v>56</v>
       </c>
       <c r="B39" t="s">
-        <v>151</v>
+        <v>139</v>
       </c>
       <c r="C39" t="s">
-        <v>224</v>
+        <v>212</v>
       </c>
       <c r="D39" t="s">
         <v>279</v>
       </c>
       <c r="F39">
-        <v>3836</v>
+        <v>5000</v>
       </c>
       <c r="H39" s="1">
-        <v>41447</v>
+        <v>41454</v>
       </c>
       <c r="J39" s="1">
         <v>41365</v>
@@ -3865,31 +4382,28 @@
         <v>41729</v>
       </c>
       <c r="M39" t="s">
-        <v>307</v>
+        <v>296</v>
       </c>
       <c r="N39" t="s">
-        <v>378</v>
-      </c>
-      <c r="P39" s="2" t="s">
-        <v>425</v>
+        <v>365</v>
       </c>
       <c r="AD39" t="s">
-        <v>441</v>
+        <v>436</v>
       </c>
       <c r="AE39" t="s">
-        <v>436</v>
+        <v>431</v>
       </c>
       <c r="AF39" t="s">
-        <v>437</v>
+        <v>432</v>
       </c>
       <c r="AG39" t="s">
-        <v>438</v>
+        <v>433</v>
       </c>
       <c r="AH39" t="s">
-        <v>439</v>
+        <v>434</v>
       </c>
       <c r="AJ39" t="s">
-        <v>440</v>
+        <v>435</v>
       </c>
       <c r="AL39" s="3">
         <v>42978</v>
@@ -3897,22 +4411,22 @@
     </row>
     <row r="40" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>69</v>
+        <v>57</v>
       </c>
       <c r="B40" t="s">
-        <v>152</v>
+        <v>140</v>
       </c>
       <c r="C40" t="s">
-        <v>225</v>
+        <v>213</v>
       </c>
       <c r="D40" t="s">
         <v>279</v>
       </c>
       <c r="F40">
-        <v>4900</v>
+        <v>4329.53</v>
       </c>
       <c r="H40" s="1">
-        <v>41447</v>
+        <v>41454</v>
       </c>
       <c r="J40" s="1">
         <v>41365</v>
@@ -3921,31 +4435,31 @@
         <v>41729</v>
       </c>
       <c r="M40" t="s">
-        <v>308</v>
+        <v>297</v>
       </c>
       <c r="N40" t="s">
-        <v>379</v>
+        <v>366</v>
       </c>
       <c r="P40" s="2" t="s">
-        <v>426</v>
+        <v>419</v>
       </c>
       <c r="AD40" t="s">
-        <v>441</v>
+        <v>436</v>
       </c>
       <c r="AE40" t="s">
-        <v>436</v>
+        <v>431</v>
       </c>
       <c r="AF40" t="s">
-        <v>437</v>
+        <v>432</v>
       </c>
       <c r="AG40" t="s">
-        <v>438</v>
+        <v>433</v>
       </c>
       <c r="AH40" t="s">
-        <v>439</v>
+        <v>434</v>
       </c>
       <c r="AJ40" t="s">
-        <v>440</v>
+        <v>435</v>
       </c>
       <c r="AL40" s="3">
         <v>42978</v>
@@ -3953,22 +4467,22 @@
     </row>
     <row r="41" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>70</v>
+        <v>58</v>
       </c>
       <c r="B41" t="s">
-        <v>153</v>
+        <v>141</v>
       </c>
       <c r="C41" t="s">
-        <v>226</v>
+        <v>214</v>
       </c>
       <c r="D41" t="s">
         <v>279</v>
       </c>
       <c r="F41">
-        <v>4215</v>
+        <v>2890</v>
       </c>
       <c r="H41" s="1">
-        <v>41447</v>
+        <v>41454</v>
       </c>
       <c r="J41" s="1">
         <v>41365</v>
@@ -3977,31 +4491,28 @@
         <v>41729</v>
       </c>
       <c r="M41" t="s">
-        <v>309</v>
+        <v>298</v>
       </c>
       <c r="N41" t="s">
-        <v>380</v>
-      </c>
-      <c r="P41" s="2" t="s">
-        <v>427</v>
+        <v>367</v>
       </c>
       <c r="AD41" t="s">
-        <v>441</v>
+        <v>436</v>
       </c>
       <c r="AE41" t="s">
-        <v>436</v>
+        <v>431</v>
       </c>
       <c r="AF41" t="s">
-        <v>437</v>
+        <v>432</v>
       </c>
       <c r="AG41" t="s">
-        <v>438</v>
+        <v>433</v>
       </c>
       <c r="AH41" t="s">
-        <v>439</v>
+        <v>434</v>
       </c>
       <c r="AJ41" t="s">
-        <v>440</v>
+        <v>435</v>
       </c>
       <c r="AL41" s="3">
         <v>42978</v>
@@ -4009,22 +4520,22 @@
     </row>
     <row r="42" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>71</v>
+        <v>59</v>
       </c>
       <c r="B42" t="s">
-        <v>135</v>
+        <v>142</v>
       </c>
       <c r="C42" t="s">
-        <v>227</v>
+        <v>215</v>
       </c>
       <c r="D42" t="s">
         <v>279</v>
       </c>
       <c r="F42">
-        <v>1430</v>
+        <v>1500</v>
       </c>
       <c r="H42" s="1">
-        <v>41447</v>
+        <v>41454</v>
       </c>
       <c r="J42" s="1">
         <v>41365</v>
@@ -4033,29 +4544,28 @@
         <v>41729</v>
       </c>
       <c r="M42" t="s">
-        <v>292</v>
+        <v>299</v>
       </c>
       <c r="N42" t="s">
-        <v>363</v>
-      </c>
-      <c r="P42" s="2"/>
+        <v>368</v>
+      </c>
       <c r="AD42" t="s">
-        <v>441</v>
+        <v>436</v>
       </c>
       <c r="AE42" t="s">
-        <v>436</v>
+        <v>431</v>
       </c>
       <c r="AF42" t="s">
-        <v>437</v>
+        <v>432</v>
       </c>
       <c r="AG42" t="s">
-        <v>438</v>
+        <v>433</v>
       </c>
       <c r="AH42" t="s">
-        <v>439</v>
+        <v>434</v>
       </c>
       <c r="AJ42" t="s">
-        <v>440</v>
+        <v>435</v>
       </c>
       <c r="AL42" s="3">
         <v>42978</v>
@@ -4063,22 +4573,22 @@
     </row>
     <row r="43" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>72</v>
+        <v>60</v>
       </c>
       <c r="B43" t="s">
-        <v>154</v>
+        <v>143</v>
       </c>
       <c r="C43" t="s">
-        <v>228</v>
+        <v>216</v>
       </c>
       <c r="D43" t="s">
         <v>279</v>
       </c>
       <c r="F43">
-        <v>4069.74</v>
+        <v>924.73</v>
       </c>
       <c r="H43" s="1">
-        <v>41447</v>
+        <v>41454</v>
       </c>
       <c r="J43" s="1">
         <v>41365</v>
@@ -4087,31 +4597,28 @@
         <v>41729</v>
       </c>
       <c r="M43" t="s">
-        <v>310</v>
+        <v>300</v>
       </c>
       <c r="N43" t="s">
-        <v>381</v>
-      </c>
-      <c r="P43" s="2" t="s">
-        <v>428</v>
+        <v>369</v>
       </c>
       <c r="AD43" t="s">
-        <v>441</v>
+        <v>436</v>
       </c>
       <c r="AE43" t="s">
-        <v>436</v>
+        <v>431</v>
       </c>
       <c r="AF43" t="s">
-        <v>437</v>
+        <v>432</v>
       </c>
       <c r="AG43" t="s">
-        <v>438</v>
+        <v>433</v>
       </c>
       <c r="AH43" t="s">
-        <v>439</v>
+        <v>434</v>
       </c>
       <c r="AJ43" t="s">
-        <v>440</v>
+        <v>435</v>
       </c>
       <c r="AL43" s="3">
         <v>42978</v>
@@ -4119,22 +4626,22 @@
     </row>
     <row r="44" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>73</v>
+        <v>61</v>
       </c>
       <c r="B44" t="s">
-        <v>155</v>
+        <v>144</v>
       </c>
       <c r="C44" t="s">
-        <v>229</v>
+        <v>217</v>
       </c>
       <c r="D44" t="s">
         <v>279</v>
       </c>
       <c r="F44">
-        <v>4794</v>
+        <v>943</v>
       </c>
       <c r="H44" s="1">
-        <v>41447</v>
+        <v>41454</v>
       </c>
       <c r="J44" s="1">
         <v>41365</v>
@@ -4143,29 +4650,28 @@
         <v>41729</v>
       </c>
       <c r="M44" t="s">
-        <v>311</v>
+        <v>301</v>
       </c>
       <c r="N44" t="s">
-        <v>382</v>
-      </c>
-      <c r="P44" s="2"/>
+        <v>370</v>
+      </c>
       <c r="AD44" t="s">
-        <v>441</v>
+        <v>436</v>
       </c>
       <c r="AE44" t="s">
-        <v>436</v>
+        <v>431</v>
       </c>
       <c r="AF44" t="s">
-        <v>437</v>
+        <v>432</v>
       </c>
       <c r="AG44" t="s">
-        <v>438</v>
+        <v>433</v>
       </c>
       <c r="AH44" t="s">
-        <v>439</v>
+        <v>434</v>
       </c>
       <c r="AJ44" t="s">
-        <v>440</v>
+        <v>435</v>
       </c>
       <c r="AL44" s="3">
         <v>42978</v>
@@ -4173,22 +4679,22 @@
     </row>
     <row r="45" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>74</v>
+        <v>62</v>
       </c>
       <c r="B45" t="s">
-        <v>156</v>
+        <v>145</v>
       </c>
       <c r="C45" t="s">
-        <v>230</v>
+        <v>218</v>
       </c>
       <c r="D45" t="s">
         <v>279</v>
       </c>
       <c r="F45">
-        <v>2524.38</v>
+        <v>2070</v>
       </c>
       <c r="H45" s="1">
-        <v>41447</v>
+        <v>41454</v>
       </c>
       <c r="J45" s="1">
         <v>41365</v>
@@ -4197,52 +4703,51 @@
         <v>41729</v>
       </c>
       <c r="M45" t="s">
-        <v>312</v>
+        <v>302</v>
       </c>
       <c r="N45" t="s">
-        <v>383</v>
-      </c>
-      <c r="P45" s="2"/>
+        <v>444</v>
+      </c>
       <c r="AD45" t="s">
-        <v>441</v>
+        <v>436</v>
       </c>
       <c r="AE45" t="s">
-        <v>436</v>
+        <v>431</v>
       </c>
       <c r="AF45" t="s">
-        <v>437</v>
+        <v>432</v>
       </c>
       <c r="AG45" t="s">
-        <v>438</v>
+        <v>433</v>
       </c>
       <c r="AH45" t="s">
-        <v>439</v>
+        <v>434</v>
       </c>
       <c r="AJ45" t="s">
-        <v>440</v>
+        <v>435</v>
       </c>
       <c r="AL45" s="3">
-        <v>42978</v>
+        <v>43033</v>
       </c>
     </row>
     <row r="46" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>75</v>
+        <v>63</v>
       </c>
       <c r="B46" t="s">
-        <v>157</v>
+        <v>146</v>
       </c>
       <c r="C46" t="s">
-        <v>231</v>
+        <v>219</v>
       </c>
       <c r="D46" t="s">
         <v>279</v>
       </c>
       <c r="F46">
-        <v>1400</v>
+        <v>4995</v>
       </c>
       <c r="H46" s="1">
-        <v>41447</v>
+        <v>41454</v>
       </c>
       <c r="J46" s="1">
         <v>41365</v>
@@ -4251,32 +4756,28 @@
         <v>41729</v>
       </c>
       <c r="M46" t="s">
-        <v>313</v>
+        <v>303</v>
       </c>
       <c r="N46" t="s">
-        <v>384</v>
-      </c>
-      <c r="O46">
-        <v>1137438</v>
-      </c>
-      <c r="P46" s="2"/>
+        <v>371</v>
+      </c>
       <c r="AD46" t="s">
-        <v>441</v>
+        <v>436</v>
       </c>
       <c r="AE46" t="s">
-        <v>436</v>
+        <v>431</v>
       </c>
       <c r="AF46" t="s">
-        <v>437</v>
+        <v>432</v>
       </c>
       <c r="AG46" t="s">
-        <v>438</v>
+        <v>433</v>
       </c>
       <c r="AH46" t="s">
-        <v>439</v>
+        <v>434</v>
       </c>
       <c r="AJ46" t="s">
-        <v>440</v>
+        <v>435</v>
       </c>
       <c r="AL46" s="3">
         <v>42978</v>
@@ -4284,22 +4785,22 @@
     </row>
     <row r="47" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>76</v>
+        <v>64</v>
       </c>
       <c r="B47" t="s">
-        <v>158</v>
+        <v>147</v>
       </c>
       <c r="C47" t="s">
-        <v>232</v>
+        <v>220</v>
       </c>
       <c r="D47" t="s">
         <v>279</v>
       </c>
       <c r="F47">
-        <v>900</v>
+        <v>5000</v>
       </c>
       <c r="H47" s="1">
-        <v>41447</v>
+        <v>41454</v>
       </c>
       <c r="J47" s="1">
         <v>41365</v>
@@ -4308,52 +4809,57 @@
         <v>41729</v>
       </c>
       <c r="M47" t="s">
-        <v>314</v>
+        <v>304</v>
       </c>
       <c r="N47" t="s">
-        <v>385</v>
-      </c>
-      <c r="P47" s="2"/>
+        <v>445</v>
+      </c>
+      <c r="O47" s="2">
+        <v>1146058</v>
+      </c>
+      <c r="P47" s="2" t="s">
+        <v>448</v>
+      </c>
       <c r="AD47" t="s">
-        <v>441</v>
+        <v>436</v>
       </c>
       <c r="AE47" t="s">
-        <v>436</v>
+        <v>431</v>
       </c>
       <c r="AF47" t="s">
-        <v>437</v>
+        <v>432</v>
       </c>
       <c r="AG47" t="s">
-        <v>438</v>
+        <v>433</v>
       </c>
       <c r="AH47" t="s">
-        <v>439</v>
+        <v>434</v>
       </c>
       <c r="AJ47" t="s">
-        <v>440</v>
+        <v>435</v>
       </c>
       <c r="AL47" s="3">
-        <v>42978</v>
+        <v>43033</v>
       </c>
     </row>
     <row r="48" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
-        <v>77</v>
+        <v>65</v>
       </c>
       <c r="B48" t="s">
-        <v>159</v>
+        <v>148</v>
       </c>
       <c r="C48" t="s">
-        <v>233</v>
+        <v>221</v>
       </c>
       <c r="D48" t="s">
         <v>279</v>
       </c>
       <c r="F48">
-        <v>3000</v>
+        <v>2980</v>
       </c>
       <c r="H48" s="1">
-        <v>41447</v>
+        <v>41454</v>
       </c>
       <c r="J48" s="1">
         <v>41365</v>
@@ -4362,54 +4868,57 @@
         <v>41729</v>
       </c>
       <c r="M48" t="s">
-        <v>315</v>
+        <v>304</v>
       </c>
       <c r="N48" t="s">
-        <v>386</v>
+        <v>445</v>
+      </c>
+      <c r="O48" s="2">
+        <v>1146058</v>
       </c>
       <c r="P48" s="2" t="s">
-        <v>429</v>
+        <v>448</v>
       </c>
       <c r="AD48" t="s">
-        <v>441</v>
+        <v>436</v>
       </c>
       <c r="AE48" t="s">
-        <v>436</v>
+        <v>431</v>
       </c>
       <c r="AF48" t="s">
-        <v>437</v>
+        <v>432</v>
       </c>
       <c r="AG48" t="s">
-        <v>438</v>
+        <v>433</v>
       </c>
       <c r="AH48" t="s">
-        <v>439</v>
+        <v>434</v>
       </c>
       <c r="AJ48" t="s">
-        <v>440</v>
+        <v>435</v>
       </c>
       <c r="AL48" s="3">
-        <v>42978</v>
+        <v>43033</v>
       </c>
     </row>
     <row r="49" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
-        <v>78</v>
+        <v>66</v>
       </c>
       <c r="B49" t="s">
-        <v>160</v>
+        <v>149</v>
       </c>
       <c r="C49" t="s">
-        <v>234</v>
+        <v>222</v>
       </c>
       <c r="D49" t="s">
         <v>279</v>
       </c>
       <c r="F49">
-        <v>4000</v>
+        <v>4126</v>
       </c>
       <c r="H49" s="1">
-        <v>41447</v>
+        <v>41454</v>
       </c>
       <c r="J49" s="1">
         <v>41365</v>
@@ -4418,29 +4927,28 @@
         <v>41729</v>
       </c>
       <c r="M49" t="s">
-        <v>316</v>
+        <v>305</v>
       </c>
       <c r="N49" t="s">
-        <v>387</v>
-      </c>
-      <c r="P49" s="2"/>
+        <v>372</v>
+      </c>
       <c r="AD49" t="s">
-        <v>441</v>
+        <v>436</v>
       </c>
       <c r="AE49" t="s">
-        <v>436</v>
+        <v>431</v>
       </c>
       <c r="AF49" t="s">
-        <v>437</v>
+        <v>432</v>
       </c>
       <c r="AG49" t="s">
-        <v>438</v>
+        <v>433</v>
       </c>
       <c r="AH49" t="s">
-        <v>439</v>
+        <v>434</v>
       </c>
       <c r="AJ49" t="s">
-        <v>440</v>
+        <v>435</v>
       </c>
       <c r="AL49" s="3">
         <v>42978</v>
@@ -4448,22 +4956,22 @@
     </row>
     <row r="50" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
-        <v>79</v>
+        <v>67</v>
       </c>
       <c r="B50" t="s">
-        <v>161</v>
+        <v>150</v>
       </c>
       <c r="C50" t="s">
-        <v>235</v>
+        <v>223</v>
       </c>
       <c r="D50" t="s">
         <v>279</v>
       </c>
       <c r="F50">
-        <v>4550</v>
+        <v>4800</v>
       </c>
       <c r="H50" s="1">
-        <v>41447</v>
+        <v>41454</v>
       </c>
       <c r="J50" s="1">
         <v>41365</v>
@@ -4472,32 +4980,31 @@
         <v>41729</v>
       </c>
       <c r="M50" t="s">
-        <v>317</v>
+        <v>446</v>
       </c>
       <c r="N50" t="s">
-        <v>388</v>
-      </c>
-      <c r="P50" s="2"/>
+        <v>447</v>
+      </c>
       <c r="AD50" t="s">
-        <v>441</v>
+        <v>436</v>
       </c>
       <c r="AE50" t="s">
-        <v>436</v>
+        <v>431</v>
       </c>
       <c r="AF50" t="s">
-        <v>437</v>
+        <v>432</v>
       </c>
       <c r="AG50" t="s">
-        <v>438</v>
+        <v>433</v>
       </c>
       <c r="AH50" t="s">
-        <v>439</v>
+        <v>434</v>
       </c>
       <c r="AJ50" t="s">
-        <v>440</v>
+        <v>435</v>
       </c>
       <c r="AL50" s="3">
-        <v>42978</v>
+        <v>43033</v>
       </c>
     </row>
     <row r="51" spans="1:38" x14ac:dyDescent="0.25">
@@ -4526,29 +5033,28 @@
         <v>42094</v>
       </c>
       <c r="M51" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="N51" t="s">
-        <v>397</v>
-      </c>
-      <c r="P51" s="2"/>
+        <v>392</v>
+      </c>
       <c r="AD51" t="s">
-        <v>441</v>
+        <v>436</v>
       </c>
       <c r="AE51" t="s">
-        <v>436</v>
+        <v>431</v>
       </c>
       <c r="AF51" t="s">
-        <v>437</v>
+        <v>432</v>
       </c>
       <c r="AG51" t="s">
-        <v>438</v>
+        <v>433</v>
       </c>
       <c r="AH51" t="s">
-        <v>439</v>
+        <v>434</v>
       </c>
       <c r="AJ51" t="s">
-        <v>440</v>
+        <v>435</v>
       </c>
       <c r="AL51" s="3">
         <v>42978</v>
@@ -4580,54 +5086,57 @@
         <v>42094</v>
       </c>
       <c r="M52" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="N52" t="s">
-        <v>398</v>
+        <v>393</v>
+      </c>
+      <c r="O52" s="2" t="s">
+        <v>438</v>
       </c>
       <c r="P52" s="2" t="s">
-        <v>430</v>
+        <v>425</v>
       </c>
       <c r="AD52" t="s">
-        <v>441</v>
+        <v>436</v>
       </c>
       <c r="AE52" t="s">
-        <v>436</v>
+        <v>431</v>
       </c>
       <c r="AF52" t="s">
-        <v>437</v>
+        <v>432</v>
       </c>
       <c r="AG52" t="s">
-        <v>438</v>
+        <v>433</v>
       </c>
       <c r="AH52" t="s">
-        <v>439</v>
+        <v>434</v>
       </c>
       <c r="AJ52" t="s">
-        <v>440</v>
+        <v>435</v>
       </c>
       <c r="AL52" s="3">
-        <v>42978</v>
+        <v>43033</v>
       </c>
     </row>
     <row r="53" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="B53" t="s">
-        <v>165</v>
+        <v>173</v>
       </c>
       <c r="C53" t="s">
-        <v>246</v>
+        <v>248</v>
       </c>
       <c r="D53" t="s">
         <v>279</v>
       </c>
       <c r="F53">
-        <v>2275</v>
+        <v>4000</v>
       </c>
       <c r="H53" s="1">
-        <v>41839</v>
+        <v>41825</v>
       </c>
       <c r="J53" s="1">
         <v>41730</v>
@@ -4636,32 +5145,28 @@
         <v>42094</v>
       </c>
       <c r="M53" t="s">
-        <v>321</v>
+        <v>328</v>
       </c>
       <c r="N53" t="s">
-        <v>392</v>
-      </c>
-      <c r="O53">
-        <v>1146179</v>
-      </c>
-      <c r="P53" s="2"/>
+        <v>395</v>
+      </c>
       <c r="AD53" t="s">
-        <v>441</v>
+        <v>436</v>
       </c>
       <c r="AE53" t="s">
-        <v>436</v>
+        <v>431</v>
       </c>
       <c r="AF53" t="s">
-        <v>437</v>
+        <v>432</v>
       </c>
       <c r="AG53" t="s">
-        <v>438</v>
+        <v>433</v>
       </c>
       <c r="AH53" t="s">
-        <v>439</v>
+        <v>434</v>
       </c>
       <c r="AJ53" t="s">
-        <v>440</v>
+        <v>435</v>
       </c>
       <c r="AL53" s="3">
         <v>42978</v>
@@ -4669,22 +5174,22 @@
     </row>
     <row r="54" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
-        <v>91</v>
+        <v>97</v>
       </c>
       <c r="B54" t="s">
-        <v>172</v>
+        <v>176</v>
       </c>
       <c r="C54" t="s">
-        <v>247</v>
+        <v>253</v>
       </c>
       <c r="D54" t="s">
         <v>279</v>
       </c>
       <c r="F54">
-        <v>3043.69</v>
+        <v>4000</v>
       </c>
       <c r="H54" s="1">
-        <v>41832</v>
+        <v>41825</v>
       </c>
       <c r="J54" s="1">
         <v>41730</v>
@@ -4693,29 +5198,28 @@
         <v>42094</v>
       </c>
       <c r="M54" t="s">
-        <v>328</v>
+        <v>331</v>
       </c>
       <c r="N54" t="s">
-        <v>399</v>
-      </c>
-      <c r="P54" s="2"/>
+        <v>398</v>
+      </c>
       <c r="AD54" t="s">
-        <v>441</v>
+        <v>436</v>
       </c>
       <c r="AE54" t="s">
-        <v>436</v>
+        <v>431</v>
       </c>
       <c r="AF54" t="s">
-        <v>437</v>
+        <v>432</v>
       </c>
       <c r="AG54" t="s">
-        <v>438</v>
+        <v>433</v>
       </c>
       <c r="AH54" t="s">
-        <v>439</v>
+        <v>434</v>
       </c>
       <c r="AJ54" t="s">
-        <v>440</v>
+        <v>435</v>
       </c>
       <c r="AL54" s="3">
         <v>42978</v>
@@ -4723,19 +5227,19 @@
     </row>
     <row r="55" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
-        <v>92</v>
+        <v>103</v>
       </c>
       <c r="B55" t="s">
-        <v>173</v>
+        <v>125</v>
       </c>
       <c r="C55" t="s">
-        <v>248</v>
+        <v>259</v>
       </c>
       <c r="D55" t="s">
         <v>279</v>
       </c>
       <c r="F55">
-        <v>4000</v>
+        <v>2950</v>
       </c>
       <c r="H55" s="1">
         <v>41825</v>
@@ -4747,29 +5251,31 @@
         <v>42094</v>
       </c>
       <c r="M55" t="s">
-        <v>329</v>
+        <v>282</v>
       </c>
       <c r="N55" t="s">
-        <v>400</v>
-      </c>
-      <c r="P55" s="2"/>
+        <v>352</v>
+      </c>
+      <c r="P55" s="2" t="s">
+        <v>417</v>
+      </c>
       <c r="AD55" t="s">
-        <v>441</v>
+        <v>436</v>
       </c>
       <c r="AE55" t="s">
-        <v>436</v>
+        <v>431</v>
       </c>
       <c r="AF55" t="s">
-        <v>437</v>
+        <v>432</v>
       </c>
       <c r="AG55" t="s">
-        <v>438</v>
+        <v>433</v>
       </c>
       <c r="AH55" t="s">
-        <v>439</v>
+        <v>434</v>
       </c>
       <c r="AJ55" t="s">
-        <v>440</v>
+        <v>435</v>
       </c>
       <c r="AL55" s="3">
         <v>42978</v>
@@ -4777,22 +5283,22 @@
     </row>
     <row r="56" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
-        <v>93</v>
+        <v>104</v>
       </c>
       <c r="B56" t="s">
-        <v>142</v>
+        <v>181</v>
       </c>
       <c r="C56" t="s">
-        <v>249</v>
+        <v>260</v>
       </c>
       <c r="D56" t="s">
         <v>279</v>
       </c>
       <c r="F56">
-        <v>2000</v>
+        <v>2400</v>
       </c>
       <c r="H56" s="1">
-        <v>41832</v>
+        <v>41825</v>
       </c>
       <c r="J56" s="1">
         <v>41730</v>
@@ -4801,29 +5307,31 @@
         <v>42094</v>
       </c>
       <c r="M56" t="s">
-        <v>299</v>
+        <v>336</v>
       </c>
       <c r="N56" t="s">
-        <v>370</v>
-      </c>
-      <c r="P56" s="2"/>
+        <v>403</v>
+      </c>
+      <c r="P56" s="2" t="s">
+        <v>428</v>
+      </c>
       <c r="AD56" t="s">
-        <v>441</v>
+        <v>436</v>
       </c>
       <c r="AE56" t="s">
-        <v>436</v>
+        <v>431</v>
       </c>
       <c r="AF56" t="s">
-        <v>437</v>
+        <v>432</v>
       </c>
       <c r="AG56" t="s">
-        <v>438</v>
+        <v>433</v>
       </c>
       <c r="AH56" t="s">
-        <v>439</v>
+        <v>434</v>
       </c>
       <c r="AJ56" t="s">
-        <v>440</v>
+        <v>435</v>
       </c>
       <c r="AL56" s="3">
         <v>42978</v>
@@ -4831,22 +5339,22 @@
     </row>
     <row r="57" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
-        <v>94</v>
+        <v>105</v>
       </c>
       <c r="B57" t="s">
-        <v>172</v>
+        <v>182</v>
       </c>
       <c r="C57" t="s">
-        <v>250</v>
+        <v>261</v>
       </c>
       <c r="D57" t="s">
         <v>279</v>
       </c>
       <c r="F57">
-        <v>2894.7</v>
+        <v>4000</v>
       </c>
       <c r="H57" s="1">
-        <v>41839</v>
+        <v>41825</v>
       </c>
       <c r="J57" s="1">
         <v>41730</v>
@@ -4855,29 +5363,28 @@
         <v>42094</v>
       </c>
       <c r="M57" t="s">
-        <v>328</v>
+        <v>337</v>
       </c>
       <c r="N57" t="s">
-        <v>399</v>
-      </c>
-      <c r="P57" s="2"/>
+        <v>404</v>
+      </c>
       <c r="AD57" t="s">
-        <v>441</v>
+        <v>436</v>
       </c>
       <c r="AE57" t="s">
-        <v>436</v>
+        <v>431</v>
       </c>
       <c r="AF57" t="s">
-        <v>437</v>
+        <v>432</v>
       </c>
       <c r="AG57" t="s">
-        <v>438</v>
+        <v>433</v>
       </c>
       <c r="AH57" t="s">
-        <v>439</v>
+        <v>434</v>
       </c>
       <c r="AJ57" t="s">
-        <v>440</v>
+        <v>435</v>
       </c>
       <c r="AL57" s="3">
         <v>42978</v>
@@ -4885,22 +5392,22 @@
     </row>
     <row r="58" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
-        <v>95</v>
+        <v>112</v>
       </c>
       <c r="B58" t="s">
-        <v>174</v>
+        <v>187</v>
       </c>
       <c r="C58" t="s">
-        <v>251</v>
+        <v>268</v>
       </c>
       <c r="D58" t="s">
         <v>279</v>
       </c>
       <c r="F58">
-        <v>2730</v>
+        <v>2300</v>
       </c>
       <c r="H58" s="1">
-        <v>41832</v>
+        <v>41825</v>
       </c>
       <c r="J58" s="1">
         <v>41730</v>
@@ -4909,32 +5416,28 @@
         <v>42094</v>
       </c>
       <c r="M58" t="s">
-        <v>330</v>
+        <v>342</v>
       </c>
       <c r="N58" t="s">
-        <v>401</v>
-      </c>
-      <c r="O58">
-        <v>1172658</v>
-      </c>
-      <c r="P58" s="2"/>
+        <v>409</v>
+      </c>
       <c r="AD58" t="s">
-        <v>441</v>
+        <v>436</v>
       </c>
       <c r="AE58" t="s">
-        <v>436</v>
+        <v>431</v>
       </c>
       <c r="AF58" t="s">
-        <v>437</v>
+        <v>432</v>
       </c>
       <c r="AG58" t="s">
-        <v>438</v>
+        <v>433</v>
       </c>
       <c r="AH58" t="s">
-        <v>439</v>
+        <v>434</v>
       </c>
       <c r="AJ58" t="s">
-        <v>440</v>
+        <v>435</v>
       </c>
       <c r="AL58" s="3">
         <v>42978</v>
@@ -4942,19 +5445,19 @@
     </row>
     <row r="59" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
-        <v>96</v>
+        <v>91</v>
       </c>
       <c r="B59" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="C59" t="s">
-        <v>252</v>
+        <v>247</v>
       </c>
       <c r="D59" t="s">
         <v>279</v>
       </c>
       <c r="F59">
-        <v>1651.35</v>
+        <v>3043.69</v>
       </c>
       <c r="H59" s="1">
         <v>41832</v>
@@ -4966,29 +5469,28 @@
         <v>42094</v>
       </c>
       <c r="M59" t="s">
-        <v>331</v>
+        <v>327</v>
       </c>
       <c r="N59" t="s">
-        <v>402</v>
-      </c>
-      <c r="P59" s="2"/>
+        <v>394</v>
+      </c>
       <c r="AD59" t="s">
-        <v>441</v>
+        <v>436</v>
       </c>
       <c r="AE59" t="s">
-        <v>436</v>
+        <v>431</v>
       </c>
       <c r="AF59" t="s">
-        <v>437</v>
+        <v>432</v>
       </c>
       <c r="AG59" t="s">
-        <v>438</v>
+        <v>433</v>
       </c>
       <c r="AH59" t="s">
-        <v>439</v>
+        <v>434</v>
       </c>
       <c r="AJ59" t="s">
-        <v>440</v>
+        <v>435</v>
       </c>
       <c r="AL59" s="3">
         <v>42978</v>
@@ -4996,22 +5498,22 @@
     </row>
     <row r="60" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="B60" t="s">
-        <v>176</v>
+        <v>142</v>
       </c>
       <c r="C60" t="s">
-        <v>253</v>
+        <v>249</v>
       </c>
       <c r="D60" t="s">
         <v>279</v>
       </c>
       <c r="F60">
-        <v>4000</v>
+        <v>2000</v>
       </c>
       <c r="H60" s="1">
-        <v>41825</v>
+        <v>41832</v>
       </c>
       <c r="J60" s="1">
         <v>41730</v>
@@ -5020,29 +5522,28 @@
         <v>42094</v>
       </c>
       <c r="M60" t="s">
-        <v>332</v>
+        <v>299</v>
       </c>
       <c r="N60" t="s">
-        <v>403</v>
-      </c>
-      <c r="P60" s="2"/>
+        <v>368</v>
+      </c>
       <c r="AD60" t="s">
-        <v>441</v>
+        <v>436</v>
       </c>
       <c r="AE60" t="s">
-        <v>436</v>
+        <v>431</v>
       </c>
       <c r="AF60" t="s">
-        <v>437</v>
+        <v>432</v>
       </c>
       <c r="AG60" t="s">
-        <v>438</v>
+        <v>433</v>
       </c>
       <c r="AH60" t="s">
-        <v>439</v>
+        <v>434</v>
       </c>
       <c r="AJ60" t="s">
-        <v>440</v>
+        <v>435</v>
       </c>
       <c r="AL60" s="3">
         <v>42978</v>
@@ -5050,19 +5551,19 @@
     </row>
     <row r="61" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="B61" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="C61" t="s">
-        <v>254</v>
+        <v>251</v>
       </c>
       <c r="D61" t="s">
         <v>279</v>
       </c>
       <c r="F61">
-        <v>3970</v>
+        <v>2730</v>
       </c>
       <c r="H61" s="1">
         <v>41832</v>
@@ -5074,31 +5575,31 @@
         <v>42094</v>
       </c>
       <c r="M61" t="s">
-        <v>333</v>
+        <v>329</v>
       </c>
       <c r="N61" t="s">
-        <v>404</v>
-      </c>
-      <c r="P61" s="2" t="s">
-        <v>431</v>
+        <v>396</v>
+      </c>
+      <c r="O61" s="2">
+        <v>1172658</v>
       </c>
       <c r="AD61" t="s">
-        <v>441</v>
+        <v>436</v>
       </c>
       <c r="AE61" t="s">
-        <v>436</v>
+        <v>431</v>
       </c>
       <c r="AF61" t="s">
-        <v>437</v>
+        <v>432</v>
       </c>
       <c r="AG61" t="s">
-        <v>438</v>
+        <v>433</v>
       </c>
       <c r="AH61" t="s">
-        <v>439</v>
+        <v>434</v>
       </c>
       <c r="AJ61" t="s">
-        <v>440</v>
+        <v>435</v>
       </c>
       <c r="AL61" s="3">
         <v>42978</v>
@@ -5106,22 +5607,22 @@
     </row>
     <row r="62" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="B62" t="s">
-        <v>169</v>
+        <v>175</v>
       </c>
       <c r="C62" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="D62" t="s">
         <v>279</v>
       </c>
       <c r="F62">
-        <v>3988</v>
+        <v>1651.35</v>
       </c>
       <c r="H62" s="1">
-        <v>41839</v>
+        <v>41832</v>
       </c>
       <c r="J62" s="1">
         <v>41730</v>
@@ -5130,32 +5631,28 @@
         <v>42094</v>
       </c>
       <c r="M62" t="s">
-        <v>325</v>
+        <v>330</v>
       </c>
       <c r="N62" t="s">
-        <v>396</v>
-      </c>
-      <c r="O62">
-        <v>1110767</v>
-      </c>
-      <c r="P62" s="2"/>
+        <v>397</v>
+      </c>
       <c r="AD62" t="s">
-        <v>441</v>
+        <v>436</v>
       </c>
       <c r="AE62" t="s">
-        <v>436</v>
+        <v>431</v>
       </c>
       <c r="AF62" t="s">
-        <v>437</v>
+        <v>432</v>
       </c>
       <c r="AG62" t="s">
-        <v>438</v>
+        <v>433</v>
       </c>
       <c r="AH62" t="s">
-        <v>439</v>
+        <v>434</v>
       </c>
       <c r="AJ62" t="s">
-        <v>440</v>
+        <v>435</v>
       </c>
       <c r="AL62" s="3">
         <v>42978</v>
@@ -5163,22 +5660,22 @@
     </row>
     <row r="63" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="B63" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="C63" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="D63" t="s">
         <v>279</v>
       </c>
       <c r="F63">
-        <v>404</v>
+        <v>3970</v>
       </c>
       <c r="H63" s="1">
-        <v>41839</v>
+        <v>41832</v>
       </c>
       <c r="J63" s="1">
         <v>41730</v>
@@ -5187,32 +5684,37 @@
         <v>42094</v>
       </c>
       <c r="M63" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
       <c r="N63" t="s">
-        <v>405</v>
-      </c>
-      <c r="P63" s="2"/>
+        <v>399</v>
+      </c>
+      <c r="O63" s="2" t="s">
+        <v>441</v>
+      </c>
+      <c r="P63" s="2" t="s">
+        <v>426</v>
+      </c>
       <c r="AD63" t="s">
-        <v>441</v>
+        <v>436</v>
       </c>
       <c r="AE63" t="s">
-        <v>436</v>
+        <v>431</v>
       </c>
       <c r="AF63" t="s">
-        <v>437</v>
+        <v>432</v>
       </c>
       <c r="AG63" t="s">
-        <v>438</v>
+        <v>433</v>
       </c>
       <c r="AH63" t="s">
-        <v>439</v>
+        <v>434</v>
       </c>
       <c r="AJ63" t="s">
-        <v>440</v>
+        <v>435</v>
       </c>
       <c r="AL63" s="3">
-        <v>42978</v>
+        <v>43033</v>
       </c>
     </row>
     <row r="64" spans="1:38" x14ac:dyDescent="0.25">
@@ -5241,29 +5743,28 @@
         <v>42094</v>
       </c>
       <c r="M64" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="N64" t="s">
-        <v>406</v>
-      </c>
-      <c r="P64" s="2"/>
+        <v>401</v>
+      </c>
       <c r="AD64" t="s">
-        <v>441</v>
+        <v>436</v>
       </c>
       <c r="AE64" t="s">
-        <v>436</v>
+        <v>431</v>
       </c>
       <c r="AF64" t="s">
-        <v>437</v>
+        <v>432</v>
       </c>
       <c r="AG64" t="s">
-        <v>438</v>
+        <v>433</v>
       </c>
       <c r="AH64" t="s">
-        <v>439</v>
+        <v>434</v>
       </c>
       <c r="AJ64" t="s">
-        <v>440</v>
+        <v>435</v>
       </c>
       <c r="AL64" s="3">
         <v>42978</v>
@@ -5271,22 +5772,22 @@
     </row>
     <row r="65" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
-        <v>102</v>
+        <v>108</v>
       </c>
       <c r="B65" t="s">
-        <v>180</v>
+        <v>125</v>
       </c>
       <c r="C65" t="s">
-        <v>258</v>
+        <v>264</v>
       </c>
       <c r="D65" t="s">
         <v>279</v>
       </c>
       <c r="F65">
-        <v>3987.6</v>
+        <v>3425</v>
       </c>
       <c r="H65" s="1">
-        <v>41839</v>
+        <v>41832</v>
       </c>
       <c r="J65" s="1">
         <v>41730</v>
@@ -5295,31 +5796,31 @@
         <v>42094</v>
       </c>
       <c r="M65" t="s">
-        <v>336</v>
+        <v>282</v>
       </c>
       <c r="N65" t="s">
-        <v>407</v>
+        <v>352</v>
       </c>
       <c r="P65" s="2" t="s">
-        <v>432</v>
+        <v>417</v>
       </c>
       <c r="AD65" t="s">
-        <v>441</v>
+        <v>436</v>
       </c>
       <c r="AE65" t="s">
-        <v>436</v>
+        <v>431</v>
       </c>
       <c r="AF65" t="s">
-        <v>437</v>
+        <v>432</v>
       </c>
       <c r="AG65" t="s">
-        <v>438</v>
+        <v>433</v>
       </c>
       <c r="AH65" t="s">
-        <v>439</v>
+        <v>434</v>
       </c>
       <c r="AJ65" t="s">
-        <v>440</v>
+        <v>435</v>
       </c>
       <c r="AL65" s="3">
         <v>42978</v>
@@ -5327,22 +5828,22 @@
     </row>
     <row r="66" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
-        <v>103</v>
+        <v>110</v>
       </c>
       <c r="B66" t="s">
-        <v>125</v>
+        <v>185</v>
       </c>
       <c r="C66" t="s">
-        <v>259</v>
+        <v>266</v>
       </c>
       <c r="D66" t="s">
         <v>279</v>
       </c>
       <c r="F66">
-        <v>2950</v>
+        <v>1461</v>
       </c>
       <c r="H66" s="1">
-        <v>41825</v>
+        <v>41832</v>
       </c>
       <c r="J66" s="1">
         <v>41730</v>
@@ -5351,31 +5852,28 @@
         <v>42094</v>
       </c>
       <c r="M66" t="s">
-        <v>282</v>
+        <v>340</v>
       </c>
       <c r="N66" t="s">
-        <v>353</v>
-      </c>
-      <c r="P66" s="2" t="s">
-        <v>422</v>
+        <v>407</v>
       </c>
       <c r="AD66" t="s">
-        <v>441</v>
+        <v>436</v>
       </c>
       <c r="AE66" t="s">
-        <v>436</v>
+        <v>431</v>
       </c>
       <c r="AF66" t="s">
-        <v>437</v>
+        <v>432</v>
       </c>
       <c r="AG66" t="s">
-        <v>438</v>
+        <v>433</v>
       </c>
       <c r="AH66" t="s">
-        <v>439</v>
+        <v>434</v>
       </c>
       <c r="AJ66" t="s">
-        <v>440</v>
+        <v>435</v>
       </c>
       <c r="AL66" s="3">
         <v>42978</v>
@@ -5383,22 +5881,22 @@
     </row>
     <row r="67" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
-        <v>104</v>
+        <v>111</v>
       </c>
       <c r="B67" t="s">
-        <v>181</v>
+        <v>186</v>
       </c>
       <c r="C67" t="s">
-        <v>260</v>
+        <v>267</v>
       </c>
       <c r="D67" t="s">
         <v>279</v>
       </c>
       <c r="F67">
-        <v>2400</v>
+        <v>2000</v>
       </c>
       <c r="H67" s="1">
-        <v>41825</v>
+        <v>41832</v>
       </c>
       <c r="J67" s="1">
         <v>41730</v>
@@ -5407,31 +5905,28 @@
         <v>42094</v>
       </c>
       <c r="M67" t="s">
-        <v>337</v>
+        <v>341</v>
       </c>
       <c r="N67" t="s">
         <v>408</v>
       </c>
-      <c r="P67" s="2" t="s">
-        <v>433</v>
-      </c>
       <c r="AD67" t="s">
-        <v>441</v>
+        <v>436</v>
       </c>
       <c r="AE67" t="s">
-        <v>436</v>
+        <v>431</v>
       </c>
       <c r="AF67" t="s">
-        <v>437</v>
+        <v>432</v>
       </c>
       <c r="AG67" t="s">
-        <v>438</v>
+        <v>433</v>
       </c>
       <c r="AH67" t="s">
-        <v>439</v>
+        <v>434</v>
       </c>
       <c r="AJ67" t="s">
-        <v>440</v>
+        <v>435</v>
       </c>
       <c r="AL67" s="3">
         <v>42978</v>
@@ -5439,22 +5934,22 @@
     </row>
     <row r="68" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
-        <v>105</v>
+        <v>113</v>
       </c>
       <c r="B68" t="s">
-        <v>182</v>
+        <v>131</v>
       </c>
       <c r="C68" t="s">
-        <v>261</v>
+        <v>269</v>
       </c>
       <c r="D68" t="s">
         <v>279</v>
       </c>
       <c r="F68">
-        <v>4000</v>
+        <v>3599</v>
       </c>
       <c r="H68" s="1">
-        <v>41825</v>
+        <v>41832</v>
       </c>
       <c r="J68" s="1">
         <v>41730</v>
@@ -5463,29 +5958,31 @@
         <v>42094</v>
       </c>
       <c r="M68" t="s">
-        <v>338</v>
+        <v>288</v>
       </c>
       <c r="N68" t="s">
-        <v>409</v>
-      </c>
-      <c r="P68" s="2"/>
+        <v>358</v>
+      </c>
+      <c r="O68" s="2">
+        <v>1143362</v>
+      </c>
       <c r="AD68" t="s">
-        <v>441</v>
+        <v>436</v>
       </c>
       <c r="AE68" t="s">
-        <v>436</v>
+        <v>431</v>
       </c>
       <c r="AF68" t="s">
-        <v>437</v>
+        <v>432</v>
       </c>
       <c r="AG68" t="s">
-        <v>438</v>
+        <v>433</v>
       </c>
       <c r="AH68" t="s">
-        <v>439</v>
+        <v>434</v>
       </c>
       <c r="AJ68" t="s">
-        <v>440</v>
+        <v>435</v>
       </c>
       <c r="AL68" s="3">
         <v>42978</v>
@@ -5493,19 +5990,19 @@
     </row>
     <row r="69" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
-        <v>106</v>
+        <v>90</v>
       </c>
       <c r="B69" t="s">
-        <v>183</v>
+        <v>165</v>
       </c>
       <c r="C69" t="s">
-        <v>262</v>
+        <v>246</v>
       </c>
       <c r="D69" t="s">
         <v>279</v>
       </c>
       <c r="F69">
-        <v>2400</v>
+        <v>2275</v>
       </c>
       <c r="H69" s="1">
         <v>41839</v>
@@ -5517,49 +6014,54 @@
         <v>42094</v>
       </c>
       <c r="M69" t="s">
-        <v>339</v>
+        <v>320</v>
       </c>
       <c r="N69" t="s">
-        <v>410</v>
-      </c>
-      <c r="P69" s="2"/>
+        <v>387</v>
+      </c>
+      <c r="O69" s="2">
+        <v>1146179</v>
+      </c>
+      <c r="P69" s="2" t="s">
+        <v>437</v>
+      </c>
       <c r="AD69" t="s">
-        <v>441</v>
+        <v>436</v>
       </c>
       <c r="AE69" t="s">
-        <v>436</v>
+        <v>431</v>
       </c>
       <c r="AF69" t="s">
-        <v>437</v>
+        <v>432</v>
       </c>
       <c r="AG69" t="s">
-        <v>438</v>
+        <v>433</v>
       </c>
       <c r="AH69" t="s">
-        <v>439</v>
+        <v>434</v>
       </c>
       <c r="AJ69" t="s">
-        <v>440</v>
+        <v>435</v>
       </c>
       <c r="AL69" s="3">
-        <v>42978</v>
+        <v>43033</v>
       </c>
     </row>
     <row r="70" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
-        <v>107</v>
+        <v>94</v>
       </c>
       <c r="B70" t="s">
-        <v>133</v>
+        <v>172</v>
       </c>
       <c r="C70" t="s">
-        <v>263</v>
+        <v>250</v>
       </c>
       <c r="D70" t="s">
         <v>279</v>
       </c>
       <c r="F70">
-        <v>3843</v>
+        <v>2894.7</v>
       </c>
       <c r="H70" s="1">
         <v>41839</v>
@@ -5571,32 +6073,28 @@
         <v>42094</v>
       </c>
       <c r="M70" t="s">
-        <v>290</v>
+        <v>327</v>
       </c>
       <c r="N70" t="s">
-        <v>361</v>
-      </c>
-      <c r="O70">
-        <v>1159034</v>
-      </c>
-      <c r="P70" s="2"/>
+        <v>394</v>
+      </c>
       <c r="AD70" t="s">
-        <v>441</v>
+        <v>436</v>
       </c>
       <c r="AE70" t="s">
-        <v>436</v>
+        <v>431</v>
       </c>
       <c r="AF70" t="s">
-        <v>437</v>
+        <v>432</v>
       </c>
       <c r="AG70" t="s">
-        <v>438</v>
+        <v>433</v>
       </c>
       <c r="AH70" t="s">
-        <v>439</v>
+        <v>434</v>
       </c>
       <c r="AJ70" t="s">
-        <v>440</v>
+        <v>435</v>
       </c>
       <c r="AL70" s="3">
         <v>42978</v>
@@ -5604,22 +6102,22 @@
     </row>
     <row r="71" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
-        <v>108</v>
+        <v>99</v>
       </c>
       <c r="B71" t="s">
-        <v>125</v>
+        <v>169</v>
       </c>
       <c r="C71" t="s">
-        <v>264</v>
+        <v>255</v>
       </c>
       <c r="D71" t="s">
         <v>279</v>
       </c>
       <c r="F71">
-        <v>3425</v>
+        <v>3988</v>
       </c>
       <c r="H71" s="1">
-        <v>41832</v>
+        <v>41839</v>
       </c>
       <c r="J71" s="1">
         <v>41730</v>
@@ -5628,31 +6126,31 @@
         <v>42094</v>
       </c>
       <c r="M71" t="s">
-        <v>282</v>
+        <v>324</v>
       </c>
       <c r="N71" t="s">
-        <v>353</v>
-      </c>
-      <c r="P71" s="2" t="s">
-        <v>422</v>
+        <v>391</v>
+      </c>
+      <c r="O71" s="2">
+        <v>1110767</v>
       </c>
       <c r="AD71" t="s">
-        <v>441</v>
+        <v>436</v>
       </c>
       <c r="AE71" t="s">
-        <v>436</v>
+        <v>431</v>
       </c>
       <c r="AF71" t="s">
-        <v>437</v>
+        <v>432</v>
       </c>
       <c r="AG71" t="s">
-        <v>438</v>
+        <v>433</v>
       </c>
       <c r="AH71" t="s">
-        <v>439</v>
+        <v>434</v>
       </c>
       <c r="AJ71" t="s">
-        <v>440</v>
+        <v>435</v>
       </c>
       <c r="AL71" s="3">
         <v>42978</v>
@@ -5660,19 +6158,19 @@
     </row>
     <row r="72" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
-        <v>109</v>
+        <v>100</v>
       </c>
       <c r="B72" t="s">
-        <v>184</v>
+        <v>178</v>
       </c>
       <c r="C72" t="s">
-        <v>265</v>
+        <v>256</v>
       </c>
       <c r="D72" t="s">
         <v>279</v>
       </c>
       <c r="F72">
-        <v>4000</v>
+        <v>404</v>
       </c>
       <c r="H72" s="1">
         <v>41839</v>
@@ -5684,29 +6182,28 @@
         <v>42094</v>
       </c>
       <c r="M72" t="s">
-        <v>340</v>
+        <v>333</v>
       </c>
       <c r="N72" t="s">
-        <v>411</v>
-      </c>
-      <c r="P72" s="2"/>
+        <v>400</v>
+      </c>
       <c r="AD72" t="s">
-        <v>441</v>
+        <v>436</v>
       </c>
       <c r="AE72" t="s">
-        <v>436</v>
+        <v>431</v>
       </c>
       <c r="AF72" t="s">
-        <v>437</v>
+        <v>432</v>
       </c>
       <c r="AG72" t="s">
-        <v>438</v>
+        <v>433</v>
       </c>
       <c r="AH72" t="s">
-        <v>439</v>
+        <v>434</v>
       </c>
       <c r="AJ72" t="s">
-        <v>440</v>
+        <v>435</v>
       </c>
       <c r="AL72" s="3">
         <v>42978</v>
@@ -5714,22 +6211,22 @@
     </row>
     <row r="73" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
-        <v>110</v>
+        <v>102</v>
       </c>
       <c r="B73" t="s">
-        <v>185</v>
+        <v>180</v>
       </c>
       <c r="C73" t="s">
-        <v>266</v>
+        <v>258</v>
       </c>
       <c r="D73" t="s">
         <v>279</v>
       </c>
       <c r="F73">
-        <v>1461</v>
+        <v>3987.6</v>
       </c>
       <c r="H73" s="1">
-        <v>41832</v>
+        <v>41839</v>
       </c>
       <c r="J73" s="1">
         <v>41730</v>
@@ -5738,29 +6235,31 @@
         <v>42094</v>
       </c>
       <c r="M73" t="s">
-        <v>341</v>
+        <v>335</v>
       </c>
       <c r="N73" t="s">
-        <v>412</v>
-      </c>
-      <c r="P73" s="2"/>
+        <v>402</v>
+      </c>
+      <c r="P73" s="2" t="s">
+        <v>427</v>
+      </c>
       <c r="AD73" t="s">
-        <v>441</v>
+        <v>436</v>
       </c>
       <c r="AE73" t="s">
-        <v>436</v>
+        <v>431</v>
       </c>
       <c r="AF73" t="s">
-        <v>437</v>
+        <v>432</v>
       </c>
       <c r="AG73" t="s">
-        <v>438</v>
+        <v>433</v>
       </c>
       <c r="AH73" t="s">
-        <v>439</v>
+        <v>434</v>
       </c>
       <c r="AJ73" t="s">
-        <v>440</v>
+        <v>435</v>
       </c>
       <c r="AL73" s="3">
         <v>42978</v>
@@ -5768,22 +6267,22 @@
     </row>
     <row r="74" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
-        <v>111</v>
+        <v>106</v>
       </c>
       <c r="B74" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="C74" t="s">
-        <v>267</v>
+        <v>262</v>
       </c>
       <c r="D74" t="s">
         <v>279</v>
       </c>
       <c r="F74">
-        <v>2000</v>
+        <v>2400</v>
       </c>
       <c r="H74" s="1">
-        <v>41832</v>
+        <v>41839</v>
       </c>
       <c r="J74" s="1">
         <v>41730</v>
@@ -5792,29 +6291,28 @@
         <v>42094</v>
       </c>
       <c r="M74" t="s">
-        <v>342</v>
+        <v>338</v>
       </c>
       <c r="N74" t="s">
-        <v>413</v>
-      </c>
-      <c r="P74" s="2"/>
+        <v>405</v>
+      </c>
       <c r="AD74" t="s">
-        <v>441</v>
+        <v>436</v>
       </c>
       <c r="AE74" t="s">
-        <v>436</v>
+        <v>431</v>
       </c>
       <c r="AF74" t="s">
-        <v>437</v>
+        <v>432</v>
       </c>
       <c r="AG74" t="s">
-        <v>438</v>
+        <v>433</v>
       </c>
       <c r="AH74" t="s">
-        <v>439</v>
+        <v>434</v>
       </c>
       <c r="AJ74" t="s">
-        <v>440</v>
+        <v>435</v>
       </c>
       <c r="AL74" s="3">
         <v>42978</v>
@@ -5822,22 +6320,22 @@
     </row>
     <row r="75" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
-        <v>112</v>
+        <v>107</v>
       </c>
       <c r="B75" t="s">
-        <v>187</v>
+        <v>133</v>
       </c>
       <c r="C75" t="s">
-        <v>268</v>
+        <v>263</v>
       </c>
       <c r="D75" t="s">
         <v>279</v>
       </c>
       <c r="F75">
-        <v>2300</v>
+        <v>3843</v>
       </c>
       <c r="H75" s="1">
-        <v>41825</v>
+        <v>41839</v>
       </c>
       <c r="J75" s="1">
         <v>41730</v>
@@ -5846,29 +6344,31 @@
         <v>42094</v>
       </c>
       <c r="M75" t="s">
-        <v>343</v>
+        <v>290</v>
       </c>
       <c r="N75" t="s">
-        <v>414</v>
-      </c>
-      <c r="P75" s="2"/>
+        <v>359</v>
+      </c>
+      <c r="O75" s="2">
+        <v>1159034</v>
+      </c>
       <c r="AD75" t="s">
-        <v>441</v>
+        <v>436</v>
       </c>
       <c r="AE75" t="s">
-        <v>436</v>
+        <v>431</v>
       </c>
       <c r="AF75" t="s">
-        <v>437</v>
+        <v>432</v>
       </c>
       <c r="AG75" t="s">
-        <v>438</v>
+        <v>433</v>
       </c>
       <c r="AH75" t="s">
-        <v>439</v>
+        <v>434</v>
       </c>
       <c r="AJ75" t="s">
-        <v>440</v>
+        <v>435</v>
       </c>
       <c r="AL75" s="3">
         <v>42978</v>
@@ -5876,22 +6376,22 @@
     </row>
     <row r="76" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="B76" t="s">
-        <v>131</v>
+        <v>184</v>
       </c>
       <c r="C76" t="s">
-        <v>269</v>
+        <v>265</v>
       </c>
       <c r="D76" t="s">
         <v>279</v>
       </c>
       <c r="F76">
-        <v>3599</v>
+        <v>4000</v>
       </c>
       <c r="H76" s="1">
-        <v>41832</v>
+        <v>41839</v>
       </c>
       <c r="J76" s="1">
         <v>41730</v>
@@ -5900,32 +6400,28 @@
         <v>42094</v>
       </c>
       <c r="M76" t="s">
-        <v>288</v>
+        <v>339</v>
       </c>
       <c r="N76" t="s">
-        <v>359</v>
-      </c>
-      <c r="O76">
-        <v>1143362</v>
-      </c>
-      <c r="P76" s="2"/>
+        <v>406</v>
+      </c>
       <c r="AD76" t="s">
-        <v>441</v>
+        <v>436</v>
       </c>
       <c r="AE76" t="s">
-        <v>436</v>
+        <v>431</v>
       </c>
       <c r="AF76" t="s">
-        <v>437</v>
+        <v>432</v>
       </c>
       <c r="AG76" t="s">
-        <v>438</v>
+        <v>433</v>
       </c>
       <c r="AH76" t="s">
-        <v>439</v>
+        <v>434</v>
       </c>
       <c r="AJ76" t="s">
-        <v>440</v>
+        <v>435</v>
       </c>
       <c r="AL76" s="3">
         <v>42978</v>
@@ -5957,29 +6453,28 @@
         <v>42094</v>
       </c>
       <c r="M77" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="N77" t="s">
-        <v>397</v>
-      </c>
-      <c r="P77" s="2"/>
+        <v>392</v>
+      </c>
       <c r="AD77" t="s">
-        <v>441</v>
+        <v>436</v>
       </c>
       <c r="AE77" t="s">
-        <v>436</v>
+        <v>431</v>
       </c>
       <c r="AF77" t="s">
-        <v>437</v>
+        <v>432</v>
       </c>
       <c r="AG77" t="s">
-        <v>438</v>
+        <v>433</v>
       </c>
       <c r="AH77" t="s">
-        <v>439</v>
+        <v>434</v>
       </c>
       <c r="AJ77" t="s">
-        <v>440</v>
+        <v>435</v>
       </c>
       <c r="AL77" s="3">
         <v>42978</v>
@@ -6011,29 +6506,28 @@
         <v>42094</v>
       </c>
       <c r="M78" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="N78" t="s">
-        <v>415</v>
-      </c>
-      <c r="P78" s="2"/>
+        <v>410</v>
+      </c>
       <c r="AD78" t="s">
-        <v>441</v>
+        <v>436</v>
       </c>
       <c r="AE78" t="s">
-        <v>436</v>
+        <v>431</v>
       </c>
       <c r="AF78" t="s">
-        <v>437</v>
+        <v>432</v>
       </c>
       <c r="AG78" t="s">
-        <v>438</v>
+        <v>433</v>
       </c>
       <c r="AH78" t="s">
-        <v>439</v>
+        <v>434</v>
       </c>
       <c r="AJ78" t="s">
-        <v>440</v>
+        <v>435</v>
       </c>
       <c r="AL78" s="3">
         <v>42978</v>
@@ -6065,29 +6559,28 @@
         <v>42094</v>
       </c>
       <c r="M79" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="N79" t="s">
-        <v>416</v>
-      </c>
-      <c r="P79" s="2"/>
+        <v>411</v>
+      </c>
       <c r="AD79" t="s">
-        <v>441</v>
+        <v>436</v>
       </c>
       <c r="AE79" t="s">
-        <v>436</v>
+        <v>431</v>
       </c>
       <c r="AF79" t="s">
-        <v>437</v>
+        <v>432</v>
       </c>
       <c r="AG79" t="s">
-        <v>438</v>
+        <v>433</v>
       </c>
       <c r="AH79" t="s">
-        <v>439</v>
+        <v>434</v>
       </c>
       <c r="AJ79" t="s">
-        <v>440</v>
+        <v>435</v>
       </c>
       <c r="AL79" s="3">
         <v>42978</v>
@@ -6119,34 +6612,37 @@
         <v>42094</v>
       </c>
       <c r="M80" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="N80" t="s">
-        <v>417</v>
+        <v>412</v>
+      </c>
+      <c r="O80" s="2" t="s">
+        <v>440</v>
       </c>
       <c r="P80" s="2" t="s">
-        <v>434</v>
+        <v>429</v>
       </c>
       <c r="AD80" t="s">
-        <v>441</v>
+        <v>436</v>
       </c>
       <c r="AE80" t="s">
-        <v>436</v>
+        <v>431</v>
       </c>
       <c r="AF80" t="s">
-        <v>437</v>
+        <v>432</v>
       </c>
       <c r="AG80" t="s">
-        <v>438</v>
+        <v>433</v>
       </c>
       <c r="AH80" t="s">
-        <v>439</v>
+        <v>434</v>
       </c>
       <c r="AJ80" t="s">
-        <v>440</v>
+        <v>435</v>
       </c>
       <c r="AL80" s="3">
-        <v>42978</v>
+        <v>43033</v>
       </c>
     </row>
     <row r="81" spans="1:38" x14ac:dyDescent="0.25">
@@ -6175,34 +6671,37 @@
         <v>42094</v>
       </c>
       <c r="M81" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="N81" t="s">
-        <v>418</v>
+        <v>413</v>
+      </c>
+      <c r="O81" s="2" t="s">
+        <v>439</v>
       </c>
       <c r="P81" s="2" t="s">
-        <v>435</v>
+        <v>430</v>
       </c>
       <c r="AD81" t="s">
-        <v>441</v>
+        <v>436</v>
       </c>
       <c r="AE81" t="s">
-        <v>436</v>
+        <v>431</v>
       </c>
       <c r="AF81" t="s">
-        <v>437</v>
+        <v>432</v>
       </c>
       <c r="AG81" t="s">
-        <v>438</v>
+        <v>433</v>
       </c>
       <c r="AH81" t="s">
-        <v>439</v>
+        <v>434</v>
       </c>
       <c r="AJ81" t="s">
-        <v>440</v>
+        <v>435</v>
       </c>
       <c r="AL81" s="3">
-        <v>42978</v>
+        <v>43033</v>
       </c>
     </row>
     <row r="82" spans="1:38" x14ac:dyDescent="0.25">
@@ -6234,26 +6733,25 @@
         <v>292</v>
       </c>
       <c r="N82" t="s">
-        <v>363</v>
-      </c>
-      <c r="P82" s="2"/>
+        <v>361</v>
+      </c>
       <c r="AD82" t="s">
-        <v>441</v>
+        <v>436</v>
       </c>
       <c r="AE82" t="s">
-        <v>436</v>
+        <v>431</v>
       </c>
       <c r="AF82" t="s">
-        <v>437</v>
+        <v>432</v>
       </c>
       <c r="AG82" t="s">
-        <v>438</v>
+        <v>433</v>
       </c>
       <c r="AH82" t="s">
-        <v>439</v>
+        <v>434</v>
       </c>
       <c r="AJ82" t="s">
-        <v>440</v>
+        <v>435</v>
       </c>
       <c r="AL82" s="3">
         <v>42978</v>
@@ -6285,29 +6783,28 @@
         <v>42094</v>
       </c>
       <c r="M83" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="N83" t="s">
-        <v>419</v>
-      </c>
-      <c r="P83" s="2"/>
+        <v>414</v>
+      </c>
       <c r="AD83" t="s">
-        <v>441</v>
+        <v>436</v>
       </c>
       <c r="AE83" t="s">
-        <v>436</v>
+        <v>431</v>
       </c>
       <c r="AF83" t="s">
-        <v>437</v>
+        <v>432</v>
       </c>
       <c r="AG83" t="s">
-        <v>438</v>
+        <v>433</v>
       </c>
       <c r="AH83" t="s">
-        <v>439</v>
+        <v>434</v>
       </c>
       <c r="AJ83" t="s">
-        <v>440</v>
+        <v>435</v>
       </c>
       <c r="AL83" s="3">
         <v>42978</v>
@@ -6339,29 +6836,28 @@
         <v>42094</v>
       </c>
       <c r="M84" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="N84" t="s">
-        <v>420</v>
-      </c>
-      <c r="P84" s="2"/>
+        <v>415</v>
+      </c>
       <c r="AD84" t="s">
-        <v>441</v>
+        <v>436</v>
       </c>
       <c r="AE84" t="s">
-        <v>436</v>
+        <v>431</v>
       </c>
       <c r="AF84" t="s">
-        <v>437</v>
+        <v>432</v>
       </c>
       <c r="AG84" t="s">
-        <v>438</v>
+        <v>433</v>
       </c>
       <c r="AH84" t="s">
-        <v>439</v>
+        <v>434</v>
       </c>
       <c r="AJ84" t="s">
-        <v>440</v>
+        <v>435</v>
       </c>
       <c r="AL84" s="3">
         <v>42978</v>
@@ -6393,35 +6889,2100 @@
         <v>42094</v>
       </c>
       <c r="M85" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="N85" t="s">
-        <v>421</v>
-      </c>
-      <c r="P85" s="2"/>
+        <v>416</v>
+      </c>
       <c r="AD85" t="s">
-        <v>441</v>
+        <v>436</v>
       </c>
       <c r="AE85" t="s">
-        <v>436</v>
+        <v>431</v>
       </c>
       <c r="AF85" t="s">
-        <v>437</v>
+        <v>432</v>
       </c>
       <c r="AG85" t="s">
-        <v>438</v>
+        <v>433</v>
       </c>
       <c r="AH85" t="s">
-        <v>439</v>
+        <v>434</v>
       </c>
       <c r="AJ85" t="s">
-        <v>440</v>
+        <v>435</v>
       </c>
       <c r="AL85" s="3">
         <v>42978</v>
       </c>
     </row>
+    <row r="86" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="A86" t="s">
+        <v>449</v>
+      </c>
+      <c r="B86" t="s">
+        <v>450</v>
+      </c>
+      <c r="C86" t="s">
+        <v>451</v>
+      </c>
+      <c r="D86" t="s">
+        <v>279</v>
+      </c>
+      <c r="F86">
+        <v>1830</v>
+      </c>
+      <c r="H86" s="3">
+        <v>42896</v>
+      </c>
+      <c r="J86" s="3"/>
+      <c r="K86" s="3"/>
+      <c r="L86" s="2">
+        <v>12</v>
+      </c>
+      <c r="M86" t="s">
+        <v>287</v>
+      </c>
+      <c r="N86" t="s">
+        <v>357</v>
+      </c>
+      <c r="AD86" t="s">
+        <v>436</v>
+      </c>
+      <c r="AE86" t="s">
+        <v>431</v>
+      </c>
+      <c r="AF86" t="s">
+        <v>432</v>
+      </c>
+      <c r="AG86" t="s">
+        <v>433</v>
+      </c>
+      <c r="AH86" t="s">
+        <v>434</v>
+      </c>
+      <c r="AJ86" t="s">
+        <v>435</v>
+      </c>
+      <c r="AL86" s="3">
+        <v>43033</v>
+      </c>
+    </row>
+    <row r="87" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="A87" t="s">
+        <v>452</v>
+      </c>
+      <c r="B87" t="s">
+        <v>453</v>
+      </c>
+      <c r="C87" t="s">
+        <v>454</v>
+      </c>
+      <c r="D87" t="s">
+        <v>279</v>
+      </c>
+      <c r="F87">
+        <v>500</v>
+      </c>
+      <c r="H87" s="3">
+        <v>42896</v>
+      </c>
+      <c r="J87" s="3"/>
+      <c r="K87" s="3"/>
+      <c r="L87" s="2">
+        <v>12</v>
+      </c>
+      <c r="M87" t="s">
+        <v>455</v>
+      </c>
+      <c r="N87" t="s">
+        <v>456</v>
+      </c>
+      <c r="AD87" t="s">
+        <v>436</v>
+      </c>
+      <c r="AE87" t="s">
+        <v>431</v>
+      </c>
+      <c r="AF87" t="s">
+        <v>432</v>
+      </c>
+      <c r="AG87" t="s">
+        <v>433</v>
+      </c>
+      <c r="AH87" t="s">
+        <v>434</v>
+      </c>
+      <c r="AJ87" t="s">
+        <v>435</v>
+      </c>
+      <c r="AL87" s="3">
+        <v>43033</v>
+      </c>
+    </row>
+    <row r="88" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="A88" t="s">
+        <v>457</v>
+      </c>
+      <c r="B88" t="s">
+        <v>458</v>
+      </c>
+      <c r="C88" t="s">
+        <v>459</v>
+      </c>
+      <c r="D88" t="s">
+        <v>279</v>
+      </c>
+      <c r="F88">
+        <v>3000</v>
+      </c>
+      <c r="H88" s="3">
+        <v>42896</v>
+      </c>
+      <c r="J88" s="3"/>
+      <c r="K88" s="3"/>
+      <c r="L88" s="2">
+        <v>12</v>
+      </c>
+      <c r="M88" t="s">
+        <v>460</v>
+      </c>
+      <c r="N88" t="s">
+        <v>461</v>
+      </c>
+      <c r="AD88" t="s">
+        <v>436</v>
+      </c>
+      <c r="AE88" t="s">
+        <v>431</v>
+      </c>
+      <c r="AF88" t="s">
+        <v>432</v>
+      </c>
+      <c r="AG88" t="s">
+        <v>433</v>
+      </c>
+      <c r="AH88" t="s">
+        <v>434</v>
+      </c>
+      <c r="AJ88" t="s">
+        <v>435</v>
+      </c>
+      <c r="AL88" s="3">
+        <v>43033</v>
+      </c>
+    </row>
+    <row r="89" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="A89" t="s">
+        <v>462</v>
+      </c>
+      <c r="B89" t="s">
+        <v>463</v>
+      </c>
+      <c r="C89" t="s">
+        <v>464</v>
+      </c>
+      <c r="D89" t="s">
+        <v>279</v>
+      </c>
+      <c r="F89">
+        <v>1944</v>
+      </c>
+      <c r="H89" s="3">
+        <v>42896</v>
+      </c>
+      <c r="J89" s="3"/>
+      <c r="K89" s="3"/>
+      <c r="L89" s="2">
+        <v>12</v>
+      </c>
+      <c r="M89" t="s">
+        <v>465</v>
+      </c>
+      <c r="N89" t="s">
+        <v>466</v>
+      </c>
+      <c r="AD89" t="s">
+        <v>436</v>
+      </c>
+      <c r="AE89" t="s">
+        <v>431</v>
+      </c>
+      <c r="AF89" t="s">
+        <v>432</v>
+      </c>
+      <c r="AG89" t="s">
+        <v>433</v>
+      </c>
+      <c r="AH89" t="s">
+        <v>434</v>
+      </c>
+      <c r="AJ89" t="s">
+        <v>435</v>
+      </c>
+      <c r="AL89" s="3">
+        <v>43033</v>
+      </c>
+    </row>
+    <row r="90" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="A90" t="s">
+        <v>467</v>
+      </c>
+      <c r="B90" t="s">
+        <v>468</v>
+      </c>
+      <c r="C90" t="s">
+        <v>469</v>
+      </c>
+      <c r="D90" t="s">
+        <v>279</v>
+      </c>
+      <c r="F90">
+        <v>2440</v>
+      </c>
+      <c r="H90" s="3">
+        <v>42896</v>
+      </c>
+      <c r="J90" s="3"/>
+      <c r="K90" s="3"/>
+      <c r="L90" s="2">
+        <v>12</v>
+      </c>
+      <c r="M90" t="s">
+        <v>470</v>
+      </c>
+      <c r="N90" t="s">
+        <v>471</v>
+      </c>
+      <c r="AD90" t="s">
+        <v>436</v>
+      </c>
+      <c r="AE90" t="s">
+        <v>431</v>
+      </c>
+      <c r="AF90" t="s">
+        <v>432</v>
+      </c>
+      <c r="AG90" t="s">
+        <v>433</v>
+      </c>
+      <c r="AH90" t="s">
+        <v>434</v>
+      </c>
+      <c r="AJ90" t="s">
+        <v>435</v>
+      </c>
+      <c r="AL90" s="3">
+        <v>43033</v>
+      </c>
+    </row>
+    <row r="91" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="A91" t="s">
+        <v>472</v>
+      </c>
+      <c r="B91" t="s">
+        <v>473</v>
+      </c>
+      <c r="C91" t="s">
+        <v>474</v>
+      </c>
+      <c r="D91" t="s">
+        <v>279</v>
+      </c>
+      <c r="F91">
+        <v>2781</v>
+      </c>
+      <c r="H91" s="3">
+        <v>42896</v>
+      </c>
+      <c r="J91" s="3"/>
+      <c r="K91" s="3"/>
+      <c r="L91" s="2">
+        <v>12</v>
+      </c>
+      <c r="M91" t="s">
+        <v>475</v>
+      </c>
+      <c r="N91" t="s">
+        <v>476</v>
+      </c>
+      <c r="P91" s="2" t="s">
+        <v>477</v>
+      </c>
+      <c r="AD91" t="s">
+        <v>436</v>
+      </c>
+      <c r="AE91" t="s">
+        <v>431</v>
+      </c>
+      <c r="AF91" t="s">
+        <v>432</v>
+      </c>
+      <c r="AG91" t="s">
+        <v>433</v>
+      </c>
+      <c r="AH91" t="s">
+        <v>434</v>
+      </c>
+      <c r="AJ91" t="s">
+        <v>435</v>
+      </c>
+      <c r="AL91" s="3">
+        <v>43033</v>
+      </c>
+    </row>
+    <row r="92" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="A92" t="s">
+        <v>478</v>
+      </c>
+      <c r="B92" t="s">
+        <v>169</v>
+      </c>
+      <c r="C92" t="s">
+        <v>479</v>
+      </c>
+      <c r="D92" t="s">
+        <v>279</v>
+      </c>
+      <c r="F92">
+        <v>2000</v>
+      </c>
+      <c r="H92" s="3">
+        <v>42903</v>
+      </c>
+      <c r="J92" s="3"/>
+      <c r="K92" s="3"/>
+      <c r="L92" s="2">
+        <v>12</v>
+      </c>
+      <c r="M92" t="s">
+        <v>324</v>
+      </c>
+      <c r="N92" t="s">
+        <v>391</v>
+      </c>
+      <c r="O92" s="2" t="s">
+        <v>480</v>
+      </c>
+      <c r="AD92" t="s">
+        <v>436</v>
+      </c>
+      <c r="AE92" t="s">
+        <v>431</v>
+      </c>
+      <c r="AF92" t="s">
+        <v>432</v>
+      </c>
+      <c r="AG92" t="s">
+        <v>433</v>
+      </c>
+      <c r="AH92" t="s">
+        <v>434</v>
+      </c>
+      <c r="AJ92" t="s">
+        <v>435</v>
+      </c>
+      <c r="AL92" s="3">
+        <v>43033</v>
+      </c>
+    </row>
+    <row r="93" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="A93" t="s">
+        <v>481</v>
+      </c>
+      <c r="B93" t="s">
+        <v>133</v>
+      </c>
+      <c r="C93" t="s">
+        <v>482</v>
+      </c>
+      <c r="D93" t="s">
+        <v>279</v>
+      </c>
+      <c r="F93">
+        <v>2000</v>
+      </c>
+      <c r="H93" s="3">
+        <v>42903</v>
+      </c>
+      <c r="J93" s="3"/>
+      <c r="K93" s="3"/>
+      <c r="L93" s="2">
+        <v>12</v>
+      </c>
+      <c r="M93" t="s">
+        <v>290</v>
+      </c>
+      <c r="N93" t="s">
+        <v>359</v>
+      </c>
+      <c r="O93" s="2" t="s">
+        <v>483</v>
+      </c>
+      <c r="AD93" t="s">
+        <v>436</v>
+      </c>
+      <c r="AE93" t="s">
+        <v>431</v>
+      </c>
+      <c r="AF93" t="s">
+        <v>432</v>
+      </c>
+      <c r="AG93" t="s">
+        <v>433</v>
+      </c>
+      <c r="AH93" t="s">
+        <v>434</v>
+      </c>
+      <c r="AJ93" t="s">
+        <v>435</v>
+      </c>
+      <c r="AL93" s="3">
+        <v>43033</v>
+      </c>
+    </row>
+    <row r="94" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="A94" t="s">
+        <v>484</v>
+      </c>
+      <c r="B94" t="s">
+        <v>174</v>
+      </c>
+      <c r="C94" t="s">
+        <v>485</v>
+      </c>
+      <c r="D94" t="s">
+        <v>279</v>
+      </c>
+      <c r="F94">
+        <v>1955</v>
+      </c>
+      <c r="H94" s="3">
+        <v>42903</v>
+      </c>
+      <c r="J94" s="3"/>
+      <c r="K94" s="3"/>
+      <c r="L94" s="2">
+        <v>12</v>
+      </c>
+      <c r="M94" t="s">
+        <v>329</v>
+      </c>
+      <c r="N94" t="s">
+        <v>396</v>
+      </c>
+      <c r="O94" s="2" t="s">
+        <v>486</v>
+      </c>
+      <c r="AD94" t="s">
+        <v>436</v>
+      </c>
+      <c r="AE94" t="s">
+        <v>431</v>
+      </c>
+      <c r="AF94" t="s">
+        <v>432</v>
+      </c>
+      <c r="AG94" t="s">
+        <v>433</v>
+      </c>
+      <c r="AH94" t="s">
+        <v>434</v>
+      </c>
+      <c r="AJ94" t="s">
+        <v>435</v>
+      </c>
+      <c r="AL94" s="3">
+        <v>43033</v>
+      </c>
+    </row>
+    <row r="95" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="A95" t="s">
+        <v>487</v>
+      </c>
+      <c r="B95" t="s">
+        <v>488</v>
+      </c>
+      <c r="C95" t="s">
+        <v>489</v>
+      </c>
+      <c r="D95" t="s">
+        <v>279</v>
+      </c>
+      <c r="F95">
+        <v>1000</v>
+      </c>
+      <c r="H95" s="3">
+        <v>42903</v>
+      </c>
+      <c r="J95" s="3"/>
+      <c r="K95" s="3"/>
+      <c r="L95" s="2">
+        <v>12</v>
+      </c>
+      <c r="M95" t="s">
+        <v>326</v>
+      </c>
+      <c r="N95" t="s">
+        <v>393</v>
+      </c>
+      <c r="O95" s="2" t="s">
+        <v>438</v>
+      </c>
+      <c r="P95" s="2" t="s">
+        <v>425</v>
+      </c>
+      <c r="AD95" t="s">
+        <v>436</v>
+      </c>
+      <c r="AE95" t="s">
+        <v>431</v>
+      </c>
+      <c r="AF95" t="s">
+        <v>432</v>
+      </c>
+      <c r="AG95" t="s">
+        <v>433</v>
+      </c>
+      <c r="AH95" t="s">
+        <v>434</v>
+      </c>
+      <c r="AJ95" t="s">
+        <v>435</v>
+      </c>
+      <c r="AL95" s="3">
+        <v>43033</v>
+      </c>
+    </row>
+    <row r="96" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="A96" t="s">
+        <v>490</v>
+      </c>
+      <c r="B96" t="s">
+        <v>491</v>
+      </c>
+      <c r="C96" t="s">
+        <v>492</v>
+      </c>
+      <c r="D96" t="s">
+        <v>279</v>
+      </c>
+      <c r="F96">
+        <v>2000</v>
+      </c>
+      <c r="H96" s="3">
+        <v>42903</v>
+      </c>
+      <c r="J96" s="3"/>
+      <c r="K96" s="3"/>
+      <c r="L96" s="2">
+        <v>12</v>
+      </c>
+      <c r="M96" t="s">
+        <v>493</v>
+      </c>
+      <c r="N96" t="s">
+        <v>494</v>
+      </c>
+      <c r="P96" s="2" t="s">
+        <v>495</v>
+      </c>
+      <c r="AD96" t="s">
+        <v>436</v>
+      </c>
+      <c r="AE96" t="s">
+        <v>431</v>
+      </c>
+      <c r="AF96" t="s">
+        <v>432</v>
+      </c>
+      <c r="AG96" t="s">
+        <v>433</v>
+      </c>
+      <c r="AH96" t="s">
+        <v>434</v>
+      </c>
+      <c r="AJ96" t="s">
+        <v>435</v>
+      </c>
+      <c r="AL96" s="3">
+        <v>43033</v>
+      </c>
+    </row>
+    <row r="97" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="A97" t="s">
+        <v>496</v>
+      </c>
+      <c r="B97" t="s">
+        <v>497</v>
+      </c>
+      <c r="C97" t="s">
+        <v>498</v>
+      </c>
+      <c r="D97" t="s">
+        <v>279</v>
+      </c>
+      <c r="F97">
+        <v>500</v>
+      </c>
+      <c r="H97" s="3">
+        <v>42903</v>
+      </c>
+      <c r="J97" s="3"/>
+      <c r="K97" s="3"/>
+      <c r="L97" s="2">
+        <v>12</v>
+      </c>
+      <c r="M97" t="s">
+        <v>499</v>
+      </c>
+      <c r="N97" t="s">
+        <v>500</v>
+      </c>
+      <c r="O97" s="2" t="s">
+        <v>501</v>
+      </c>
+      <c r="P97" s="2" t="s">
+        <v>502</v>
+      </c>
+      <c r="AD97" t="s">
+        <v>436</v>
+      </c>
+      <c r="AE97" t="s">
+        <v>431</v>
+      </c>
+      <c r="AF97" t="s">
+        <v>432</v>
+      </c>
+      <c r="AG97" t="s">
+        <v>433</v>
+      </c>
+      <c r="AH97" t="s">
+        <v>434</v>
+      </c>
+      <c r="AJ97" t="s">
+        <v>435</v>
+      </c>
+      <c r="AL97" s="3">
+        <v>43033</v>
+      </c>
+    </row>
+    <row r="98" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="A98" t="s">
+        <v>503</v>
+      </c>
+      <c r="B98" t="s">
+        <v>504</v>
+      </c>
+      <c r="C98" t="s">
+        <v>505</v>
+      </c>
+      <c r="D98" t="s">
+        <v>279</v>
+      </c>
+      <c r="F98">
+        <v>1000</v>
+      </c>
+      <c r="H98" s="3">
+        <v>42903</v>
+      </c>
+      <c r="J98" s="3"/>
+      <c r="K98" s="3"/>
+      <c r="L98" s="2">
+        <v>12</v>
+      </c>
+      <c r="M98" t="s">
+        <v>506</v>
+      </c>
+      <c r="N98" t="s">
+        <v>507</v>
+      </c>
+      <c r="AD98" t="s">
+        <v>436</v>
+      </c>
+      <c r="AE98" t="s">
+        <v>431</v>
+      </c>
+      <c r="AF98" t="s">
+        <v>432</v>
+      </c>
+      <c r="AG98" t="s">
+        <v>433</v>
+      </c>
+      <c r="AH98" t="s">
+        <v>434</v>
+      </c>
+      <c r="AJ98" t="s">
+        <v>435</v>
+      </c>
+      <c r="AL98" s="3">
+        <v>43033</v>
+      </c>
+    </row>
+    <row r="99" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="A99" t="s">
+        <v>508</v>
+      </c>
+      <c r="B99" t="s">
+        <v>509</v>
+      </c>
+      <c r="C99" t="s">
+        <v>510</v>
+      </c>
+      <c r="D99" t="s">
+        <v>279</v>
+      </c>
+      <c r="F99">
+        <v>2000</v>
+      </c>
+      <c r="H99" s="3">
+        <v>42903</v>
+      </c>
+      <c r="J99" s="3"/>
+      <c r="K99" s="3"/>
+      <c r="L99" s="2">
+        <v>12</v>
+      </c>
+      <c r="M99" t="s">
+        <v>511</v>
+      </c>
+      <c r="N99" t="s">
+        <v>512</v>
+      </c>
+      <c r="P99" s="2" t="s">
+        <v>513</v>
+      </c>
+      <c r="AD99" t="s">
+        <v>436</v>
+      </c>
+      <c r="AE99" t="s">
+        <v>431</v>
+      </c>
+      <c r="AF99" t="s">
+        <v>432</v>
+      </c>
+      <c r="AG99" t="s">
+        <v>433</v>
+      </c>
+      <c r="AH99" t="s">
+        <v>434</v>
+      </c>
+      <c r="AJ99" t="s">
+        <v>435</v>
+      </c>
+      <c r="AL99" s="3">
+        <v>43033</v>
+      </c>
+    </row>
+    <row r="100" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="A100" t="s">
+        <v>514</v>
+      </c>
+      <c r="B100" t="s">
+        <v>515</v>
+      </c>
+      <c r="C100" t="s">
+        <v>516</v>
+      </c>
+      <c r="D100" t="s">
+        <v>279</v>
+      </c>
+      <c r="F100">
+        <v>1980</v>
+      </c>
+      <c r="H100" s="3">
+        <v>42903</v>
+      </c>
+      <c r="J100" s="3"/>
+      <c r="K100" s="3"/>
+      <c r="L100" s="2">
+        <v>12</v>
+      </c>
+      <c r="M100" t="s">
+        <v>517</v>
+      </c>
+      <c r="N100" t="s">
+        <v>518</v>
+      </c>
+      <c r="O100" s="2" t="s">
+        <v>519</v>
+      </c>
+      <c r="AD100" t="s">
+        <v>436</v>
+      </c>
+      <c r="AE100" t="s">
+        <v>431</v>
+      </c>
+      <c r="AF100" t="s">
+        <v>432</v>
+      </c>
+      <c r="AG100" t="s">
+        <v>433</v>
+      </c>
+      <c r="AH100" t="s">
+        <v>434</v>
+      </c>
+      <c r="AJ100" t="s">
+        <v>435</v>
+      </c>
+      <c r="AL100" s="3">
+        <v>43033</v>
+      </c>
+    </row>
+    <row r="101" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="A101" t="s">
+        <v>520</v>
+      </c>
+      <c r="B101" t="s">
+        <v>521</v>
+      </c>
+      <c r="C101" t="s">
+        <v>522</v>
+      </c>
+      <c r="D101" t="s">
+        <v>279</v>
+      </c>
+      <c r="F101">
+        <v>1000</v>
+      </c>
+      <c r="H101" s="3">
+        <v>42903</v>
+      </c>
+      <c r="J101" s="3"/>
+      <c r="K101" s="3"/>
+      <c r="L101" s="2">
+        <v>12</v>
+      </c>
+      <c r="M101" t="s">
+        <v>523</v>
+      </c>
+      <c r="N101" t="s">
+        <v>524</v>
+      </c>
+      <c r="O101" s="2" t="s">
+        <v>525</v>
+      </c>
+      <c r="P101" s="2" t="s">
+        <v>526</v>
+      </c>
+      <c r="AD101" t="s">
+        <v>436</v>
+      </c>
+      <c r="AE101" t="s">
+        <v>431</v>
+      </c>
+      <c r="AF101" t="s">
+        <v>432</v>
+      </c>
+      <c r="AG101" t="s">
+        <v>433</v>
+      </c>
+      <c r="AH101" t="s">
+        <v>434</v>
+      </c>
+      <c r="AJ101" t="s">
+        <v>435</v>
+      </c>
+      <c r="AL101" s="3">
+        <v>43033</v>
+      </c>
+    </row>
+    <row r="102" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="A102" t="s">
+        <v>527</v>
+      </c>
+      <c r="B102" t="s">
+        <v>189</v>
+      </c>
+      <c r="C102" t="s">
+        <v>528</v>
+      </c>
+      <c r="D102" t="s">
+        <v>279</v>
+      </c>
+      <c r="F102">
+        <v>1129</v>
+      </c>
+      <c r="H102" s="3">
+        <v>42904</v>
+      </c>
+      <c r="J102" s="3"/>
+      <c r="K102" s="3"/>
+      <c r="L102" s="2">
+        <v>12</v>
+      </c>
+      <c r="M102" t="s">
+        <v>344</v>
+      </c>
+      <c r="N102" t="s">
+        <v>411</v>
+      </c>
+      <c r="AD102" t="s">
+        <v>436</v>
+      </c>
+      <c r="AE102" t="s">
+        <v>431</v>
+      </c>
+      <c r="AF102" t="s">
+        <v>432</v>
+      </c>
+      <c r="AG102" t="s">
+        <v>433</v>
+      </c>
+      <c r="AH102" t="s">
+        <v>434</v>
+      </c>
+      <c r="AJ102" t="s">
+        <v>435</v>
+      </c>
+      <c r="AL102" s="3">
+        <v>43033</v>
+      </c>
+    </row>
+    <row r="103" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="A103" t="s">
+        <v>529</v>
+      </c>
+      <c r="B103" t="s">
+        <v>165</v>
+      </c>
+      <c r="C103" t="s">
+        <v>530</v>
+      </c>
+      <c r="D103" t="s">
+        <v>279</v>
+      </c>
+      <c r="F103">
+        <v>1500</v>
+      </c>
+      <c r="H103" s="3">
+        <v>42904</v>
+      </c>
+      <c r="J103" s="3"/>
+      <c r="K103" s="3"/>
+      <c r="L103" s="2">
+        <v>12</v>
+      </c>
+      <c r="M103" t="s">
+        <v>320</v>
+      </c>
+      <c r="N103" t="s">
+        <v>387</v>
+      </c>
+      <c r="O103" s="2" t="s">
+        <v>531</v>
+      </c>
+      <c r="P103" s="2" t="s">
+        <v>437</v>
+      </c>
+      <c r="AD103" t="s">
+        <v>436</v>
+      </c>
+      <c r="AE103" t="s">
+        <v>431</v>
+      </c>
+      <c r="AF103" t="s">
+        <v>432</v>
+      </c>
+      <c r="AG103" t="s">
+        <v>433</v>
+      </c>
+      <c r="AH103" t="s">
+        <v>434</v>
+      </c>
+      <c r="AJ103" t="s">
+        <v>435</v>
+      </c>
+      <c r="AL103" s="3">
+        <v>43033</v>
+      </c>
+    </row>
+    <row r="104" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="A104" t="s">
+        <v>532</v>
+      </c>
+      <c r="B104" t="s">
+        <v>191</v>
+      </c>
+      <c r="C104" t="s">
+        <v>533</v>
+      </c>
+      <c r="D104" t="s">
+        <v>279</v>
+      </c>
+      <c r="F104">
+        <v>1500</v>
+      </c>
+      <c r="H104" s="3">
+        <v>42904</v>
+      </c>
+      <c r="J104" s="3"/>
+      <c r="K104" s="3"/>
+      <c r="L104" s="2">
+        <v>12</v>
+      </c>
+      <c r="M104" t="s">
+        <v>346</v>
+      </c>
+      <c r="N104" t="s">
+        <v>413</v>
+      </c>
+      <c r="O104" s="2" t="s">
+        <v>439</v>
+      </c>
+      <c r="P104" s="2" t="s">
+        <v>430</v>
+      </c>
+      <c r="AD104" t="s">
+        <v>436</v>
+      </c>
+      <c r="AE104" t="s">
+        <v>431</v>
+      </c>
+      <c r="AF104" t="s">
+        <v>432</v>
+      </c>
+      <c r="AG104" t="s">
+        <v>433</v>
+      </c>
+      <c r="AH104" t="s">
+        <v>434</v>
+      </c>
+      <c r="AJ104" t="s">
+        <v>435</v>
+      </c>
+      <c r="AL104" s="3">
+        <v>43033</v>
+      </c>
+    </row>
+    <row r="105" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="A105" t="s">
+        <v>534</v>
+      </c>
+      <c r="B105" t="s">
+        <v>190</v>
+      </c>
+      <c r="C105" t="s">
+        <v>535</v>
+      </c>
+      <c r="D105" t="s">
+        <v>279</v>
+      </c>
+      <c r="F105">
+        <v>1000</v>
+      </c>
+      <c r="H105" s="3">
+        <v>42904</v>
+      </c>
+      <c r="J105" s="3"/>
+      <c r="K105" s="3"/>
+      <c r="L105" s="2">
+        <v>12</v>
+      </c>
+      <c r="M105" t="s">
+        <v>345</v>
+      </c>
+      <c r="N105" t="s">
+        <v>412</v>
+      </c>
+      <c r="O105" s="2" t="s">
+        <v>440</v>
+      </c>
+      <c r="P105" s="2" t="s">
+        <v>429</v>
+      </c>
+      <c r="AD105" t="s">
+        <v>436</v>
+      </c>
+      <c r="AE105" t="s">
+        <v>431</v>
+      </c>
+      <c r="AF105" t="s">
+        <v>432</v>
+      </c>
+      <c r="AG105" t="s">
+        <v>433</v>
+      </c>
+      <c r="AH105" t="s">
+        <v>434</v>
+      </c>
+      <c r="AJ105" t="s">
+        <v>435</v>
+      </c>
+      <c r="AL105" s="3">
+        <v>43033</v>
+      </c>
+    </row>
+    <row r="106" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="A106" t="s">
+        <v>536</v>
+      </c>
+      <c r="B106" t="s">
+        <v>151</v>
+      </c>
+      <c r="C106" t="s">
+        <v>537</v>
+      </c>
+      <c r="D106" t="s">
+        <v>279</v>
+      </c>
+      <c r="F106">
+        <v>421.43</v>
+      </c>
+      <c r="H106" s="3">
+        <v>42904</v>
+      </c>
+      <c r="J106" s="3"/>
+      <c r="K106" s="3"/>
+      <c r="L106" s="2">
+        <v>12</v>
+      </c>
+      <c r="M106" t="s">
+        <v>306</v>
+      </c>
+      <c r="N106" t="s">
+        <v>373</v>
+      </c>
+      <c r="P106" s="2" t="s">
+        <v>420</v>
+      </c>
+      <c r="AD106" t="s">
+        <v>436</v>
+      </c>
+      <c r="AE106" t="s">
+        <v>431</v>
+      </c>
+      <c r="AF106" t="s">
+        <v>432</v>
+      </c>
+      <c r="AG106" t="s">
+        <v>433</v>
+      </c>
+      <c r="AH106" t="s">
+        <v>434</v>
+      </c>
+      <c r="AJ106" t="s">
+        <v>435</v>
+      </c>
+      <c r="AL106" s="3">
+        <v>43033</v>
+      </c>
+    </row>
+    <row r="107" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="A107" t="s">
+        <v>538</v>
+      </c>
+      <c r="B107" t="s">
+        <v>539</v>
+      </c>
+      <c r="C107" t="s">
+        <v>537</v>
+      </c>
+      <c r="D107" t="s">
+        <v>279</v>
+      </c>
+      <c r="F107">
+        <v>550</v>
+      </c>
+      <c r="H107" s="3">
+        <v>42904</v>
+      </c>
+      <c r="J107" s="3"/>
+      <c r="K107" s="3"/>
+      <c r="L107" s="2">
+        <v>12</v>
+      </c>
+      <c r="M107" t="s">
+        <v>540</v>
+      </c>
+      <c r="N107" t="s">
+        <v>541</v>
+      </c>
+      <c r="AD107" t="s">
+        <v>436</v>
+      </c>
+      <c r="AE107" t="s">
+        <v>431</v>
+      </c>
+      <c r="AF107" t="s">
+        <v>432</v>
+      </c>
+      <c r="AG107" t="s">
+        <v>433</v>
+      </c>
+      <c r="AH107" t="s">
+        <v>434</v>
+      </c>
+      <c r="AJ107" t="s">
+        <v>435</v>
+      </c>
+      <c r="AL107" s="3">
+        <v>43033</v>
+      </c>
+    </row>
+    <row r="108" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="A108" t="s">
+        <v>542</v>
+      </c>
+      <c r="B108" t="s">
+        <v>543</v>
+      </c>
+      <c r="C108" t="s">
+        <v>544</v>
+      </c>
+      <c r="D108" t="s">
+        <v>279</v>
+      </c>
+      <c r="F108">
+        <v>990</v>
+      </c>
+      <c r="H108" s="3">
+        <v>42904</v>
+      </c>
+      <c r="J108" s="3"/>
+      <c r="K108" s="3"/>
+      <c r="L108" s="2">
+        <v>12</v>
+      </c>
+      <c r="M108" t="s">
+        <v>545</v>
+      </c>
+      <c r="N108" t="s">
+        <v>546</v>
+      </c>
+      <c r="AD108" t="s">
+        <v>436</v>
+      </c>
+      <c r="AE108" t="s">
+        <v>431</v>
+      </c>
+      <c r="AF108" t="s">
+        <v>432</v>
+      </c>
+      <c r="AG108" t="s">
+        <v>433</v>
+      </c>
+      <c r="AH108" t="s">
+        <v>434</v>
+      </c>
+      <c r="AJ108" t="s">
+        <v>435</v>
+      </c>
+      <c r="AL108" s="3">
+        <v>43033</v>
+      </c>
+    </row>
+    <row r="109" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="A109" t="s">
+        <v>547</v>
+      </c>
+      <c r="B109" t="s">
+        <v>548</v>
+      </c>
+      <c r="C109" t="s">
+        <v>549</v>
+      </c>
+      <c r="D109" t="s">
+        <v>279</v>
+      </c>
+      <c r="F109">
+        <v>1500</v>
+      </c>
+      <c r="H109" s="3">
+        <v>42904</v>
+      </c>
+      <c r="J109" s="3"/>
+      <c r="K109" s="3"/>
+      <c r="L109" s="2">
+        <v>12</v>
+      </c>
+      <c r="M109" t="s">
+        <v>550</v>
+      </c>
+      <c r="N109" t="s">
+        <v>551</v>
+      </c>
+      <c r="AD109" t="s">
+        <v>436</v>
+      </c>
+      <c r="AE109" t="s">
+        <v>431</v>
+      </c>
+      <c r="AF109" t="s">
+        <v>432</v>
+      </c>
+      <c r="AG109" t="s">
+        <v>433</v>
+      </c>
+      <c r="AH109" t="s">
+        <v>434</v>
+      </c>
+      <c r="AJ109" t="s">
+        <v>435</v>
+      </c>
+      <c r="AL109" s="3">
+        <v>43033</v>
+      </c>
+    </row>
+    <row r="110" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="A110" t="s">
+        <v>552</v>
+      </c>
+      <c r="B110" t="s">
+        <v>553</v>
+      </c>
+      <c r="C110" t="s">
+        <v>554</v>
+      </c>
+      <c r="D110" t="s">
+        <v>279</v>
+      </c>
+      <c r="F110">
+        <v>1409.97</v>
+      </c>
+      <c r="H110" s="3">
+        <v>42904</v>
+      </c>
+      <c r="J110" s="3"/>
+      <c r="K110" s="3"/>
+      <c r="L110" s="2">
+        <v>12</v>
+      </c>
+      <c r="M110" t="s">
+        <v>555</v>
+      </c>
+      <c r="N110" t="s">
+        <v>556</v>
+      </c>
+      <c r="AD110" t="s">
+        <v>436</v>
+      </c>
+      <c r="AE110" t="s">
+        <v>431</v>
+      </c>
+      <c r="AF110" t="s">
+        <v>432</v>
+      </c>
+      <c r="AG110" t="s">
+        <v>433</v>
+      </c>
+      <c r="AH110" t="s">
+        <v>434</v>
+      </c>
+      <c r="AJ110" t="s">
+        <v>435</v>
+      </c>
+      <c r="AL110" s="3">
+        <v>43033</v>
+      </c>
+    </row>
+    <row r="111" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="A111" t="s">
+        <v>557</v>
+      </c>
+      <c r="B111" t="s">
+        <v>558</v>
+      </c>
+      <c r="C111" t="s">
+        <v>559</v>
+      </c>
+      <c r="D111" t="s">
+        <v>279</v>
+      </c>
+      <c r="F111">
+        <v>1500</v>
+      </c>
+      <c r="H111" s="3">
+        <v>42904</v>
+      </c>
+      <c r="J111" s="3"/>
+      <c r="K111" s="3"/>
+      <c r="L111" s="2">
+        <v>12</v>
+      </c>
+      <c r="M111" t="s">
+        <v>560</v>
+      </c>
+      <c r="N111" t="s">
+        <v>561</v>
+      </c>
+      <c r="AD111" t="s">
+        <v>436</v>
+      </c>
+      <c r="AE111" t="s">
+        <v>431</v>
+      </c>
+      <c r="AF111" t="s">
+        <v>432</v>
+      </c>
+      <c r="AG111" t="s">
+        <v>433</v>
+      </c>
+      <c r="AH111" t="s">
+        <v>434</v>
+      </c>
+      <c r="AJ111" t="s">
+        <v>435</v>
+      </c>
+      <c r="AL111" s="3">
+        <v>43033</v>
+      </c>
+    </row>
+    <row r="112" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="A112" t="s">
+        <v>562</v>
+      </c>
+      <c r="B112" t="s">
+        <v>563</v>
+      </c>
+      <c r="C112" t="s">
+        <v>564</v>
+      </c>
+      <c r="D112" t="s">
+        <v>279</v>
+      </c>
+      <c r="F112">
+        <v>1499.6</v>
+      </c>
+      <c r="H112" s="3">
+        <v>42904</v>
+      </c>
+      <c r="J112" s="3"/>
+      <c r="K112" s="3"/>
+      <c r="L112" s="2">
+        <v>12</v>
+      </c>
+      <c r="M112" t="s">
+        <v>565</v>
+      </c>
+      <c r="N112" t="s">
+        <v>566</v>
+      </c>
+      <c r="P112" s="2" t="s">
+        <v>567</v>
+      </c>
+      <c r="AD112" t="s">
+        <v>436</v>
+      </c>
+      <c r="AE112" t="s">
+        <v>431</v>
+      </c>
+      <c r="AF112" t="s">
+        <v>432</v>
+      </c>
+      <c r="AG112" t="s">
+        <v>433</v>
+      </c>
+      <c r="AH112" t="s">
+        <v>434</v>
+      </c>
+      <c r="AJ112" t="s">
+        <v>435</v>
+      </c>
+      <c r="AL112" s="3">
+        <v>43033</v>
+      </c>
+    </row>
+    <row r="113" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="A113" t="s">
+        <v>568</v>
+      </c>
+      <c r="B113" t="s">
+        <v>569</v>
+      </c>
+      <c r="C113" t="s">
+        <v>570</v>
+      </c>
+      <c r="D113" t="s">
+        <v>279</v>
+      </c>
+      <c r="F113">
+        <v>2000</v>
+      </c>
+      <c r="H113" s="3">
+        <v>42910</v>
+      </c>
+      <c r="J113" s="3"/>
+      <c r="K113" s="3"/>
+      <c r="L113" s="2">
+        <v>12</v>
+      </c>
+      <c r="M113" t="s">
+        <v>446</v>
+      </c>
+      <c r="N113" t="s">
+        <v>571</v>
+      </c>
+      <c r="AD113" t="s">
+        <v>436</v>
+      </c>
+      <c r="AE113" t="s">
+        <v>431</v>
+      </c>
+      <c r="AF113" t="s">
+        <v>432</v>
+      </c>
+      <c r="AG113" t="s">
+        <v>433</v>
+      </c>
+      <c r="AH113" t="s">
+        <v>434</v>
+      </c>
+      <c r="AJ113" t="s">
+        <v>435</v>
+      </c>
+      <c r="AL113" s="3">
+        <v>43033</v>
+      </c>
+    </row>
+    <row r="114" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="A114" t="s">
+        <v>572</v>
+      </c>
+      <c r="B114" t="s">
+        <v>573</v>
+      </c>
+      <c r="C114" t="s">
+        <v>574</v>
+      </c>
+      <c r="D114" t="s">
+        <v>279</v>
+      </c>
+      <c r="F114">
+        <v>1990</v>
+      </c>
+      <c r="H114" s="3">
+        <v>42910</v>
+      </c>
+      <c r="J114" s="3"/>
+      <c r="K114" s="3"/>
+      <c r="L114" s="2">
+        <v>12</v>
+      </c>
+      <c r="M114" t="s">
+        <v>304</v>
+      </c>
+      <c r="N114" t="s">
+        <v>445</v>
+      </c>
+      <c r="O114" s="2" t="s">
+        <v>575</v>
+      </c>
+      <c r="P114" s="2" t="s">
+        <v>448</v>
+      </c>
+      <c r="AD114" t="s">
+        <v>436</v>
+      </c>
+      <c r="AE114" t="s">
+        <v>431</v>
+      </c>
+      <c r="AF114" t="s">
+        <v>432</v>
+      </c>
+      <c r="AG114" t="s">
+        <v>433</v>
+      </c>
+      <c r="AH114" t="s">
+        <v>434</v>
+      </c>
+      <c r="AJ114" t="s">
+        <v>435</v>
+      </c>
+      <c r="AL114" s="3">
+        <v>43033</v>
+      </c>
+    </row>
+    <row r="115" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="A115" t="s">
+        <v>576</v>
+      </c>
+      <c r="B115" t="s">
+        <v>174</v>
+      </c>
+      <c r="C115" t="s">
+        <v>577</v>
+      </c>
+      <c r="D115" t="s">
+        <v>279</v>
+      </c>
+      <c r="F115">
+        <v>427</v>
+      </c>
+      <c r="H115" s="3">
+        <v>42910</v>
+      </c>
+      <c r="J115" s="3"/>
+      <c r="K115" s="3"/>
+      <c r="L115" s="2">
+        <v>12</v>
+      </c>
+      <c r="M115" t="s">
+        <v>329</v>
+      </c>
+      <c r="N115" t="s">
+        <v>396</v>
+      </c>
+      <c r="O115" s="2" t="s">
+        <v>486</v>
+      </c>
+      <c r="AD115" t="s">
+        <v>436</v>
+      </c>
+      <c r="AE115" t="s">
+        <v>431</v>
+      </c>
+      <c r="AF115" t="s">
+        <v>432</v>
+      </c>
+      <c r="AG115" t="s">
+        <v>433</v>
+      </c>
+      <c r="AH115" t="s">
+        <v>434</v>
+      </c>
+      <c r="AJ115" t="s">
+        <v>435</v>
+      </c>
+      <c r="AL115" s="3">
+        <v>43033</v>
+      </c>
+    </row>
+    <row r="116" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="A116" t="s">
+        <v>578</v>
+      </c>
+      <c r="B116" t="s">
+        <v>488</v>
+      </c>
+      <c r="C116" t="s">
+        <v>579</v>
+      </c>
+      <c r="D116" t="s">
+        <v>279</v>
+      </c>
+      <c r="F116">
+        <v>1996.62</v>
+      </c>
+      <c r="H116" s="3">
+        <v>42910</v>
+      </c>
+      <c r="J116" s="3"/>
+      <c r="K116" s="3"/>
+      <c r="L116" s="2">
+        <v>12</v>
+      </c>
+      <c r="M116" t="s">
+        <v>326</v>
+      </c>
+      <c r="N116" t="s">
+        <v>393</v>
+      </c>
+      <c r="O116" s="2" t="s">
+        <v>438</v>
+      </c>
+      <c r="P116" s="2" t="s">
+        <v>425</v>
+      </c>
+      <c r="AD116" t="s">
+        <v>436</v>
+      </c>
+      <c r="AE116" t="s">
+        <v>431</v>
+      </c>
+      <c r="AF116" t="s">
+        <v>432</v>
+      </c>
+      <c r="AG116" t="s">
+        <v>433</v>
+      </c>
+      <c r="AH116" t="s">
+        <v>434</v>
+      </c>
+      <c r="AJ116" t="s">
+        <v>435</v>
+      </c>
+      <c r="AL116" s="3">
+        <v>43033</v>
+      </c>
+    </row>
+    <row r="117" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="A117" t="s">
+        <v>580</v>
+      </c>
+      <c r="B117" t="s">
+        <v>191</v>
+      </c>
+      <c r="C117" t="s">
+        <v>581</v>
+      </c>
+      <c r="D117" t="s">
+        <v>279</v>
+      </c>
+      <c r="F117">
+        <v>1949</v>
+      </c>
+      <c r="H117" s="3">
+        <v>42910</v>
+      </c>
+      <c r="J117" s="3"/>
+      <c r="K117" s="3"/>
+      <c r="L117" s="2">
+        <v>12</v>
+      </c>
+      <c r="M117" t="s">
+        <v>346</v>
+      </c>
+      <c r="N117" t="s">
+        <v>413</v>
+      </c>
+      <c r="O117" s="2" t="s">
+        <v>439</v>
+      </c>
+      <c r="P117" s="2" t="s">
+        <v>430</v>
+      </c>
+      <c r="AD117" t="s">
+        <v>436</v>
+      </c>
+      <c r="AE117" t="s">
+        <v>431</v>
+      </c>
+      <c r="AF117" t="s">
+        <v>432</v>
+      </c>
+      <c r="AG117" t="s">
+        <v>433</v>
+      </c>
+      <c r="AH117" t="s">
+        <v>434</v>
+      </c>
+      <c r="AJ117" t="s">
+        <v>435</v>
+      </c>
+      <c r="AL117" s="3">
+        <v>43033</v>
+      </c>
+    </row>
+    <row r="118" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="A118" t="s">
+        <v>582</v>
+      </c>
+      <c r="B118" t="s">
+        <v>583</v>
+      </c>
+      <c r="C118" t="s">
+        <v>584</v>
+      </c>
+      <c r="D118" t="s">
+        <v>279</v>
+      </c>
+      <c r="F118">
+        <v>2000</v>
+      </c>
+      <c r="H118" s="3">
+        <v>42910</v>
+      </c>
+      <c r="J118" s="3"/>
+      <c r="K118" s="3"/>
+      <c r="L118" s="2">
+        <v>12</v>
+      </c>
+      <c r="M118" t="s">
+        <v>585</v>
+      </c>
+      <c r="N118" t="s">
+        <v>586</v>
+      </c>
+      <c r="AD118" t="s">
+        <v>436</v>
+      </c>
+      <c r="AE118" t="s">
+        <v>431</v>
+      </c>
+      <c r="AF118" t="s">
+        <v>432</v>
+      </c>
+      <c r="AG118" t="s">
+        <v>433</v>
+      </c>
+      <c r="AH118" t="s">
+        <v>434</v>
+      </c>
+      <c r="AJ118" t="s">
+        <v>435</v>
+      </c>
+      <c r="AL118" s="3">
+        <v>43033</v>
+      </c>
+    </row>
+    <row r="119" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="A119" t="s">
+        <v>587</v>
+      </c>
+      <c r="B119" t="s">
+        <v>588</v>
+      </c>
+      <c r="C119" t="s">
+        <v>589</v>
+      </c>
+      <c r="D119" t="s">
+        <v>279</v>
+      </c>
+      <c r="F119">
+        <v>2000</v>
+      </c>
+      <c r="H119" s="3">
+        <v>42910</v>
+      </c>
+      <c r="J119" s="3"/>
+      <c r="K119" s="3"/>
+      <c r="L119" s="2">
+        <v>12</v>
+      </c>
+      <c r="M119" t="s">
+        <v>590</v>
+      </c>
+      <c r="N119" t="s">
+        <v>591</v>
+      </c>
+      <c r="AD119" t="s">
+        <v>436</v>
+      </c>
+      <c r="AE119" t="s">
+        <v>431</v>
+      </c>
+      <c r="AF119" t="s">
+        <v>432</v>
+      </c>
+      <c r="AG119" t="s">
+        <v>433</v>
+      </c>
+      <c r="AH119" t="s">
+        <v>434</v>
+      </c>
+      <c r="AJ119" t="s">
+        <v>435</v>
+      </c>
+      <c r="AL119" s="3">
+        <v>43033</v>
+      </c>
+    </row>
+    <row r="120" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="A120" t="s">
+        <v>592</v>
+      </c>
+      <c r="B120" t="s">
+        <v>593</v>
+      </c>
+      <c r="C120" t="s">
+        <v>594</v>
+      </c>
+      <c r="D120" t="s">
+        <v>279</v>
+      </c>
+      <c r="F120">
+        <v>1945.43</v>
+      </c>
+      <c r="H120" s="3">
+        <v>42910</v>
+      </c>
+      <c r="J120" s="3"/>
+      <c r="K120" s="3"/>
+      <c r="L120" s="2">
+        <v>12</v>
+      </c>
+      <c r="M120" t="s">
+        <v>595</v>
+      </c>
+      <c r="N120" t="s">
+        <v>596</v>
+      </c>
+      <c r="AD120" t="s">
+        <v>436</v>
+      </c>
+      <c r="AE120" t="s">
+        <v>431</v>
+      </c>
+      <c r="AF120" t="s">
+        <v>432</v>
+      </c>
+      <c r="AG120" t="s">
+        <v>433</v>
+      </c>
+      <c r="AH120" t="s">
+        <v>434</v>
+      </c>
+      <c r="AJ120" t="s">
+        <v>435</v>
+      </c>
+      <c r="AL120" s="3">
+        <v>43033</v>
+      </c>
+    </row>
+    <row r="121" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="A121" t="s">
+        <v>597</v>
+      </c>
+      <c r="B121" t="s">
+        <v>598</v>
+      </c>
+      <c r="C121" t="s">
+        <v>599</v>
+      </c>
+      <c r="D121" t="s">
+        <v>279</v>
+      </c>
+      <c r="F121">
+        <v>427</v>
+      </c>
+      <c r="H121" s="3">
+        <v>42910</v>
+      </c>
+      <c r="J121" s="3"/>
+      <c r="K121" s="3"/>
+      <c r="L121" s="2">
+        <v>12</v>
+      </c>
+      <c r="M121" t="s">
+        <v>600</v>
+      </c>
+      <c r="N121" t="s">
+        <v>601</v>
+      </c>
+      <c r="O121" s="2" t="s">
+        <v>602</v>
+      </c>
+      <c r="AD121" t="s">
+        <v>436</v>
+      </c>
+      <c r="AE121" t="s">
+        <v>431</v>
+      </c>
+      <c r="AF121" t="s">
+        <v>432</v>
+      </c>
+      <c r="AG121" t="s">
+        <v>433</v>
+      </c>
+      <c r="AH121" t="s">
+        <v>434</v>
+      </c>
+      <c r="AJ121" t="s">
+        <v>435</v>
+      </c>
+      <c r="AL121" s="3">
+        <v>43033</v>
+      </c>
+    </row>
+    <row r="122" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="A122" t="s">
+        <v>603</v>
+      </c>
+      <c r="B122" t="s">
+        <v>604</v>
+      </c>
+      <c r="C122" t="s">
+        <v>605</v>
+      </c>
+      <c r="D122" t="s">
+        <v>279</v>
+      </c>
+      <c r="F122">
+        <v>2000</v>
+      </c>
+      <c r="H122" s="3">
+        <v>42910</v>
+      </c>
+      <c r="J122" s="3"/>
+      <c r="K122" s="3"/>
+      <c r="L122" s="2">
+        <v>12</v>
+      </c>
+      <c r="M122" t="s">
+        <v>606</v>
+      </c>
+      <c r="N122" t="s">
+        <v>607</v>
+      </c>
+      <c r="AD122" t="s">
+        <v>436</v>
+      </c>
+      <c r="AE122" t="s">
+        <v>431</v>
+      </c>
+      <c r="AF122" t="s">
+        <v>432</v>
+      </c>
+      <c r="AG122" t="s">
+        <v>433</v>
+      </c>
+      <c r="AH122" t="s">
+        <v>434</v>
+      </c>
+      <c r="AJ122" t="s">
+        <v>435</v>
+      </c>
+      <c r="AL122" s="3">
+        <v>43033</v>
+      </c>
+    </row>
+    <row r="123" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="A123" t="s">
+        <v>608</v>
+      </c>
+      <c r="B123" t="s">
+        <v>609</v>
+      </c>
+      <c r="C123" t="s">
+        <v>610</v>
+      </c>
+      <c r="D123" t="s">
+        <v>279</v>
+      </c>
+      <c r="F123">
+        <v>1720</v>
+      </c>
+      <c r="H123" s="3">
+        <v>42910</v>
+      </c>
+      <c r="J123" s="3"/>
+      <c r="K123" s="3"/>
+      <c r="L123" s="2">
+        <v>12</v>
+      </c>
+      <c r="M123" t="s">
+        <v>611</v>
+      </c>
+      <c r="N123" t="s">
+        <v>612</v>
+      </c>
+      <c r="AD123" t="s">
+        <v>436</v>
+      </c>
+      <c r="AE123" t="s">
+        <v>431</v>
+      </c>
+      <c r="AF123" t="s">
+        <v>432</v>
+      </c>
+      <c r="AG123" t="s">
+        <v>433</v>
+      </c>
+      <c r="AH123" t="s">
+        <v>434</v>
+      </c>
+      <c r="AJ123" t="s">
+        <v>435</v>
+      </c>
+      <c r="AL123" s="3">
+        <v>43033</v>
+      </c>
+    </row>
   </sheetData>
+  <sortState ref="A2:AM85">
+    <sortCondition ref="H1"/>
+  </sortState>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
 </worksheet>

--- a/grants/trafford_council_voluntary_sector_grants_360_giving_format.xlsx
+++ b/grants/trafford_council_voluntary_sector_grants_360_giving_format.xlsx
@@ -1,15 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="L:\Projects\360Giving\GrantNav_Files\20201111\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8190" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="grants" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="145621" iterateDelta="1E-4"/>
+  <calcPr calcId="145621"/>
   <extLst>
     <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
       <loext:extCalcPr stringRefSyntax="ExcelA1"/>
@@ -19,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2167" uniqueCount="618">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2289" uniqueCount="619">
   <si>
     <t>Identifier</t>
   </si>
@@ -1873,6 +1878,9 @@
   </si>
   <si>
     <t>Trafford African &amp; caribbean over 50's club</t>
+  </si>
+  <si>
+    <t>https://www.trafforddatalab.io/open_data/grants/</t>
   </si>
 </sst>
 </file>
@@ -1911,13 +1919,14 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1927,6 +1936,9 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -1975,7 +1987,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -2010,7 +2022,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -2219,21 +2231,23 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AM123"/>
+  <dimension ref="A1:AM157"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="AC1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="AM1" sqref="AM1"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="12" width="11.42578125"/>
-    <col min="13" max="13" width="46.7109375" customWidth="1"/>
-    <col min="14" max="14" width="57.28515625" customWidth="1"/>
-    <col min="15" max="15" width="28.140625" style="1" customWidth="1"/>
-    <col min="16" max="16" width="30.28515625" style="1" customWidth="1"/>
-    <col min="17" max="1025" width="11.42578125"/>
+    <col min="1" max="12" width="11.453125"/>
+    <col min="13" max="13" width="46.7265625" customWidth="1"/>
+    <col min="14" max="14" width="57.26953125" customWidth="1"/>
+    <col min="15" max="15" width="28.1796875" style="1" customWidth="1"/>
+    <col min="16" max="16" width="30.26953125" style="1" customWidth="1"/>
+    <col min="17" max="1025" width="11.453125"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:39" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -2352,7 +2366,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="2" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:39" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>39</v>
       </c>
@@ -2371,11 +2385,10 @@
       <c r="H2" s="2">
         <v>41292</v>
       </c>
-      <c r="J2" s="2">
-        <v>41000</v>
-      </c>
-      <c r="K2" s="2">
-        <v>41364</v>
+      <c r="J2" s="2"/>
+      <c r="K2" s="2"/>
+      <c r="L2" s="6">
+        <v>12</v>
       </c>
       <c r="M2" t="s">
         <v>522</v>
@@ -2417,10 +2430,13 @@
         <v>54</v>
       </c>
       <c r="AL2" s="3">
-        <v>43067</v>
-      </c>
-    </row>
-    <row r="3" spans="1:39" x14ac:dyDescent="0.25">
+        <v>44146</v>
+      </c>
+      <c r="AM2" t="s">
+        <v>618</v>
+      </c>
+    </row>
+    <row r="3" spans="1:39" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>55</v>
       </c>
@@ -2439,11 +2455,10 @@
       <c r="H3" s="2">
         <v>41292</v>
       </c>
-      <c r="J3" s="2">
-        <v>41000</v>
-      </c>
-      <c r="K3" s="2">
-        <v>41364</v>
+      <c r="J3" s="2"/>
+      <c r="K3" s="2"/>
+      <c r="L3" s="6">
+        <v>12</v>
       </c>
       <c r="M3" t="s">
         <v>523</v>
@@ -2490,10 +2505,13 @@
         <v>54</v>
       </c>
       <c r="AL3" s="3">
-        <v>43067</v>
-      </c>
-    </row>
-    <row r="4" spans="1:39" x14ac:dyDescent="0.25">
+        <v>44146</v>
+      </c>
+      <c r="AM3" t="s">
+        <v>618</v>
+      </c>
+    </row>
+    <row r="4" spans="1:39" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>59</v>
       </c>
@@ -2512,11 +2530,10 @@
       <c r="H4" s="2">
         <v>41292</v>
       </c>
-      <c r="J4" s="2">
-        <v>41000</v>
-      </c>
-      <c r="K4" s="2">
-        <v>41364</v>
+      <c r="J4" s="2"/>
+      <c r="K4" s="2"/>
+      <c r="L4" s="6">
+        <v>12</v>
       </c>
       <c r="M4" t="s">
         <v>524</v>
@@ -2563,10 +2580,13 @@
         <v>54</v>
       </c>
       <c r="AL4" s="3">
-        <v>43067</v>
-      </c>
-    </row>
-    <row r="5" spans="1:39" x14ac:dyDescent="0.25">
+        <v>44146</v>
+      </c>
+      <c r="AM4" t="s">
+        <v>618</v>
+      </c>
+    </row>
+    <row r="5" spans="1:39" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>63</v>
       </c>
@@ -2585,11 +2605,10 @@
       <c r="H5" s="2">
         <v>41292</v>
       </c>
-      <c r="J5" s="2">
-        <v>41000</v>
-      </c>
-      <c r="K5" s="2">
-        <v>41364</v>
+      <c r="J5" s="2"/>
+      <c r="K5" s="2"/>
+      <c r="L5" s="6">
+        <v>12</v>
       </c>
       <c r="M5" t="s">
         <v>525</v>
@@ -2642,10 +2661,13 @@
         <v>54</v>
       </c>
       <c r="AL5" s="3">
-        <v>43067</v>
-      </c>
-    </row>
-    <row r="6" spans="1:39" x14ac:dyDescent="0.25">
+        <v>44146</v>
+      </c>
+      <c r="AM5" t="s">
+        <v>618</v>
+      </c>
+    </row>
+    <row r="6" spans="1:39" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>68</v>
       </c>
@@ -2664,11 +2686,10 @@
       <c r="H6" s="2">
         <v>41292</v>
       </c>
-      <c r="J6" s="2">
-        <v>41000</v>
-      </c>
-      <c r="K6" s="2">
-        <v>41364</v>
+      <c r="J6" s="2"/>
+      <c r="K6" s="2"/>
+      <c r="L6" s="6">
+        <v>12</v>
       </c>
       <c r="M6" t="s">
         <v>526</v>
@@ -2715,10 +2736,13 @@
         <v>54</v>
       </c>
       <c r="AL6" s="3">
-        <v>43067</v>
-      </c>
-    </row>
-    <row r="7" spans="1:39" x14ac:dyDescent="0.25">
+        <v>44146</v>
+      </c>
+      <c r="AM6" t="s">
+        <v>618</v>
+      </c>
+    </row>
+    <row r="7" spans="1:39" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>72</v>
       </c>
@@ -2737,11 +2761,10 @@
       <c r="H7" s="2">
         <v>41292</v>
       </c>
-      <c r="J7" s="2">
-        <v>41000</v>
-      </c>
-      <c r="K7" s="2">
-        <v>41364</v>
+      <c r="J7" s="2"/>
+      <c r="K7" s="2"/>
+      <c r="L7" s="6">
+        <v>12</v>
       </c>
       <c r="M7" t="s">
         <v>527</v>
@@ -2791,10 +2814,13 @@
         <v>54</v>
       </c>
       <c r="AL7" s="3">
-        <v>43067</v>
-      </c>
-    </row>
-    <row r="8" spans="1:39" x14ac:dyDescent="0.25">
+        <v>44146</v>
+      </c>
+      <c r="AM7" t="s">
+        <v>618</v>
+      </c>
+    </row>
+    <row r="8" spans="1:39" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>76</v>
       </c>
@@ -2813,11 +2839,10 @@
       <c r="H8" s="2">
         <v>41292</v>
       </c>
-      <c r="J8" s="2">
-        <v>41000</v>
-      </c>
-      <c r="K8" s="2">
-        <v>41364</v>
+      <c r="J8" s="2"/>
+      <c r="K8" s="2"/>
+      <c r="L8" s="6">
+        <v>12</v>
       </c>
       <c r="M8" t="s">
         <v>528</v>
@@ -2864,10 +2889,13 @@
         <v>54</v>
       </c>
       <c r="AL8" s="3">
-        <v>43067</v>
-      </c>
-    </row>
-    <row r="9" spans="1:39" x14ac:dyDescent="0.25">
+        <v>44146</v>
+      </c>
+      <c r="AM8" t="s">
+        <v>618</v>
+      </c>
+    </row>
+    <row r="9" spans="1:39" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>80</v>
       </c>
@@ -2886,11 +2914,10 @@
       <c r="H9" s="2">
         <v>41292</v>
       </c>
-      <c r="J9" s="2">
-        <v>41000</v>
-      </c>
-      <c r="K9" s="2">
-        <v>41364</v>
+      <c r="J9" s="2"/>
+      <c r="K9" s="2"/>
+      <c r="L9" s="6">
+        <v>12</v>
       </c>
       <c r="M9" t="s">
         <v>529</v>
@@ -2940,10 +2967,13 @@
         <v>54</v>
       </c>
       <c r="AL9" s="3">
-        <v>43067</v>
-      </c>
-    </row>
-    <row r="10" spans="1:39" x14ac:dyDescent="0.25">
+        <v>44146</v>
+      </c>
+      <c r="AM9" t="s">
+        <v>618</v>
+      </c>
+    </row>
+    <row r="10" spans="1:39" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>84</v>
       </c>
@@ -2962,11 +2992,10 @@
       <c r="H10" s="2">
         <v>41447</v>
       </c>
-      <c r="J10" s="2">
-        <v>41365</v>
-      </c>
-      <c r="K10" s="2">
-        <v>41729</v>
+      <c r="J10" s="2"/>
+      <c r="K10" s="2"/>
+      <c r="L10" s="6">
+        <v>12</v>
       </c>
       <c r="M10" t="s">
         <v>530</v>
@@ -3016,10 +3045,13 @@
         <v>54</v>
       </c>
       <c r="AL10" s="3">
-        <v>43067</v>
-      </c>
-    </row>
-    <row r="11" spans="1:39" x14ac:dyDescent="0.25">
+        <v>44146</v>
+      </c>
+      <c r="AM10" t="s">
+        <v>618</v>
+      </c>
+    </row>
+    <row r="11" spans="1:39" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>88</v>
       </c>
@@ -3038,11 +3070,10 @@
       <c r="H11" s="2">
         <v>41447</v>
       </c>
-      <c r="J11" s="2">
-        <v>41365</v>
-      </c>
-      <c r="K11" s="2">
-        <v>41729</v>
+      <c r="J11" s="2"/>
+      <c r="K11" s="2"/>
+      <c r="L11" s="6">
+        <v>12</v>
       </c>
       <c r="M11" t="s">
         <v>531</v>
@@ -3089,10 +3120,13 @@
         <v>54</v>
       </c>
       <c r="AL11" s="3">
-        <v>43067</v>
-      </c>
-    </row>
-    <row r="12" spans="1:39" x14ac:dyDescent="0.25">
+        <v>44146</v>
+      </c>
+      <c r="AM11" t="s">
+        <v>618</v>
+      </c>
+    </row>
+    <row r="12" spans="1:39" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
         <v>92</v>
       </c>
@@ -3111,11 +3145,10 @@
       <c r="H12" s="2">
         <v>41447</v>
       </c>
-      <c r="J12" s="2">
-        <v>41365</v>
-      </c>
-      <c r="K12" s="2">
-        <v>41729</v>
+      <c r="J12" s="2"/>
+      <c r="K12" s="2"/>
+      <c r="L12" s="6">
+        <v>12</v>
       </c>
       <c r="M12" t="s">
         <v>532</v>
@@ -3162,10 +3195,13 @@
         <v>54</v>
       </c>
       <c r="AL12" s="3">
-        <v>43067</v>
-      </c>
-    </row>
-    <row r="13" spans="1:39" x14ac:dyDescent="0.25">
+        <v>44146</v>
+      </c>
+      <c r="AM12" t="s">
+        <v>618</v>
+      </c>
+    </row>
+    <row r="13" spans="1:39" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
         <v>96</v>
       </c>
@@ -3184,11 +3220,10 @@
       <c r="H13" s="2">
         <v>41447</v>
       </c>
-      <c r="J13" s="2">
-        <v>41365</v>
-      </c>
-      <c r="K13" s="2">
-        <v>41729</v>
+      <c r="J13" s="2"/>
+      <c r="K13" s="2"/>
+      <c r="L13" s="6">
+        <v>12</v>
       </c>
       <c r="M13" t="s">
         <v>533</v>
@@ -3235,10 +3270,13 @@
         <v>54</v>
       </c>
       <c r="AL13" s="3">
-        <v>43067</v>
-      </c>
-    </row>
-    <row r="14" spans="1:39" x14ac:dyDescent="0.25">
+        <v>44146</v>
+      </c>
+      <c r="AM13" t="s">
+        <v>618</v>
+      </c>
+    </row>
+    <row r="14" spans="1:39" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
         <v>100</v>
       </c>
@@ -3257,11 +3295,10 @@
       <c r="H14" s="2">
         <v>41447</v>
       </c>
-      <c r="J14" s="2">
-        <v>41365</v>
-      </c>
-      <c r="K14" s="2">
-        <v>41729</v>
+      <c r="J14" s="2"/>
+      <c r="K14" s="2"/>
+      <c r="L14" s="6">
+        <v>12</v>
       </c>
       <c r="M14" t="s">
         <v>534</v>
@@ -3308,10 +3345,13 @@
         <v>54</v>
       </c>
       <c r="AL14" s="3">
-        <v>43067</v>
-      </c>
-    </row>
-    <row r="15" spans="1:39" x14ac:dyDescent="0.25">
+        <v>44146</v>
+      </c>
+      <c r="AM14" t="s">
+        <v>618</v>
+      </c>
+    </row>
+    <row r="15" spans="1:39" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
         <v>104</v>
       </c>
@@ -3330,11 +3370,10 @@
       <c r="H15" s="2">
         <v>41447</v>
       </c>
-      <c r="J15" s="2">
-        <v>41365</v>
-      </c>
-      <c r="K15" s="2">
-        <v>41729</v>
+      <c r="J15" s="2"/>
+      <c r="K15" s="2"/>
+      <c r="L15" s="6">
+        <v>12</v>
       </c>
       <c r="M15" t="s">
         <v>535</v>
@@ -3384,10 +3423,13 @@
         <v>54</v>
       </c>
       <c r="AL15" s="3">
-        <v>43067</v>
-      </c>
-    </row>
-    <row r="16" spans="1:39" x14ac:dyDescent="0.25">
+        <v>44146</v>
+      </c>
+      <c r="AM15" t="s">
+        <v>618</v>
+      </c>
+    </row>
+    <row r="16" spans="1:39" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
         <v>108</v>
       </c>
@@ -3406,11 +3448,10 @@
       <c r="H16" s="2">
         <v>41447</v>
       </c>
-      <c r="J16" s="2">
-        <v>41365</v>
-      </c>
-      <c r="K16" s="2">
-        <v>41729</v>
+      <c r="J16" s="2"/>
+      <c r="K16" s="2"/>
+      <c r="L16" s="6">
+        <v>12</v>
       </c>
       <c r="M16" t="s">
         <v>536</v>
@@ -3460,10 +3501,13 @@
         <v>54</v>
       </c>
       <c r="AL16" s="3">
-        <v>43067</v>
-      </c>
-    </row>
-    <row r="17" spans="1:38" x14ac:dyDescent="0.25">
+        <v>44146</v>
+      </c>
+      <c r="AM16" t="s">
+        <v>618</v>
+      </c>
+    </row>
+    <row r="17" spans="1:39" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
         <v>112</v>
       </c>
@@ -3482,11 +3526,10 @@
       <c r="H17" s="2">
         <v>41447</v>
       </c>
-      <c r="J17" s="2">
-        <v>41365</v>
-      </c>
-      <c r="K17" s="2">
-        <v>41729</v>
+      <c r="J17" s="2"/>
+      <c r="K17" s="2"/>
+      <c r="L17" s="6">
+        <v>12</v>
       </c>
       <c r="M17" t="s">
         <v>537</v>
@@ -3536,10 +3579,13 @@
         <v>54</v>
       </c>
       <c r="AL17" s="3">
-        <v>43067</v>
-      </c>
-    </row>
-    <row r="18" spans="1:38" x14ac:dyDescent="0.25">
+        <v>44146</v>
+      </c>
+      <c r="AM17" t="s">
+        <v>618</v>
+      </c>
+    </row>
+    <row r="18" spans="1:39" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
         <v>117</v>
       </c>
@@ -3558,11 +3604,10 @@
       <c r="H18" s="2">
         <v>41447</v>
       </c>
-      <c r="J18" s="2">
-        <v>41365</v>
-      </c>
-      <c r="K18" s="2">
-        <v>41729</v>
+      <c r="J18" s="2"/>
+      <c r="K18" s="2"/>
+      <c r="L18" s="6">
+        <v>12</v>
       </c>
       <c r="M18" t="s">
         <v>538</v>
@@ -3612,10 +3657,13 @@
         <v>54</v>
       </c>
       <c r="AL18" s="3">
-        <v>43067</v>
-      </c>
-    </row>
-    <row r="19" spans="1:38" x14ac:dyDescent="0.25">
+        <v>44146</v>
+      </c>
+      <c r="AM18" t="s">
+        <v>618</v>
+      </c>
+    </row>
+    <row r="19" spans="1:39" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
         <v>122</v>
       </c>
@@ -3634,11 +3682,10 @@
       <c r="H19" s="2">
         <v>41447</v>
       </c>
-      <c r="J19" s="2">
-        <v>41365</v>
-      </c>
-      <c r="K19" s="2">
-        <v>41729</v>
+      <c r="J19" s="2"/>
+      <c r="K19" s="2"/>
+      <c r="L19" s="6">
+        <v>12</v>
       </c>
       <c r="M19" t="s">
         <v>539</v>
@@ -3688,10 +3735,13 @@
         <v>54</v>
       </c>
       <c r="AL19" s="3">
-        <v>43067</v>
-      </c>
-    </row>
-    <row r="20" spans="1:38" x14ac:dyDescent="0.25">
+        <v>44146</v>
+      </c>
+      <c r="AM19" t="s">
+        <v>618</v>
+      </c>
+    </row>
+    <row r="20" spans="1:39" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
         <v>127</v>
       </c>
@@ -3710,11 +3760,10 @@
       <c r="H20" s="2">
         <v>41447</v>
       </c>
-      <c r="J20" s="2">
-        <v>41365</v>
-      </c>
-      <c r="K20" s="2">
-        <v>41729</v>
+      <c r="J20" s="2"/>
+      <c r="K20" s="2"/>
+      <c r="L20" s="6">
+        <v>12</v>
       </c>
       <c r="M20" t="s">
         <v>532</v>
@@ -3761,10 +3810,13 @@
         <v>54</v>
       </c>
       <c r="AL20" s="3">
-        <v>43067</v>
-      </c>
-    </row>
-    <row r="21" spans="1:38" x14ac:dyDescent="0.25">
+        <v>44146</v>
+      </c>
+      <c r="AM20" t="s">
+        <v>618</v>
+      </c>
+    </row>
+    <row r="21" spans="1:39" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
         <v>129</v>
       </c>
@@ -3783,11 +3835,10 @@
       <c r="H21" s="2">
         <v>41447</v>
       </c>
-      <c r="J21" s="2">
-        <v>41365</v>
-      </c>
-      <c r="K21" s="2">
-        <v>41729</v>
+      <c r="J21" s="2"/>
+      <c r="K21" s="2"/>
+      <c r="L21" s="6">
+        <v>12</v>
       </c>
       <c r="M21" t="s">
         <v>540</v>
@@ -3837,10 +3888,13 @@
         <v>54</v>
       </c>
       <c r="AL21" s="3">
-        <v>43067</v>
-      </c>
-    </row>
-    <row r="22" spans="1:38" x14ac:dyDescent="0.25">
+        <v>44146</v>
+      </c>
+      <c r="AM21" t="s">
+        <v>618</v>
+      </c>
+    </row>
+    <row r="22" spans="1:39" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
         <v>134</v>
       </c>
@@ -3859,11 +3913,10 @@
       <c r="H22" s="2">
         <v>41447</v>
       </c>
-      <c r="J22" s="2">
-        <v>41365</v>
-      </c>
-      <c r="K22" s="2">
-        <v>41729</v>
+      <c r="J22" s="2"/>
+      <c r="K22" s="2"/>
+      <c r="L22" s="6">
+        <v>12</v>
       </c>
       <c r="M22" t="s">
         <v>541</v>
@@ -3910,10 +3963,13 @@
         <v>54</v>
       </c>
       <c r="AL22" s="3">
-        <v>43067</v>
-      </c>
-    </row>
-    <row r="23" spans="1:38" x14ac:dyDescent="0.25">
+        <v>44146</v>
+      </c>
+      <c r="AM22" t="s">
+        <v>618</v>
+      </c>
+    </row>
+    <row r="23" spans="1:39" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
         <v>138</v>
       </c>
@@ -3932,11 +3988,10 @@
       <c r="H23" s="2">
         <v>41447</v>
       </c>
-      <c r="J23" s="2">
-        <v>41365</v>
-      </c>
-      <c r="K23" s="2">
-        <v>41729</v>
+      <c r="J23" s="2"/>
+      <c r="K23" s="2"/>
+      <c r="L23" s="6">
+        <v>12</v>
       </c>
       <c r="M23" t="s">
         <v>542</v>
@@ -3983,10 +4038,13 @@
         <v>54</v>
       </c>
       <c r="AL23" s="3">
-        <v>43067</v>
-      </c>
-    </row>
-    <row r="24" spans="1:38" x14ac:dyDescent="0.25">
+        <v>44146</v>
+      </c>
+      <c r="AM23" t="s">
+        <v>618</v>
+      </c>
+    </row>
+    <row r="24" spans="1:39" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
         <v>142</v>
       </c>
@@ -4005,11 +4063,10 @@
       <c r="H24" s="2">
         <v>41447</v>
       </c>
-      <c r="J24" s="2">
-        <v>41365</v>
-      </c>
-      <c r="K24" s="2">
-        <v>41729</v>
+      <c r="J24" s="2"/>
+      <c r="K24" s="2"/>
+      <c r="L24" s="6">
+        <v>12</v>
       </c>
       <c r="M24" t="s">
         <v>543</v>
@@ -4059,10 +4116,13 @@
         <v>54</v>
       </c>
       <c r="AL24" s="3">
-        <v>43067</v>
-      </c>
-    </row>
-    <row r="25" spans="1:38" x14ac:dyDescent="0.25">
+        <v>44146</v>
+      </c>
+      <c r="AM24" t="s">
+        <v>618</v>
+      </c>
+    </row>
+    <row r="25" spans="1:39" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
         <v>146</v>
       </c>
@@ -4081,11 +4141,10 @@
       <c r="H25" s="2">
         <v>41447</v>
       </c>
-      <c r="J25" s="2">
-        <v>41365</v>
-      </c>
-      <c r="K25" s="2">
-        <v>41729</v>
+      <c r="J25" s="2"/>
+      <c r="K25" s="2"/>
+      <c r="L25" s="6">
+        <v>12</v>
       </c>
       <c r="M25" t="s">
         <v>544</v>
@@ -4132,10 +4191,13 @@
         <v>54</v>
       </c>
       <c r="AL25" s="3">
-        <v>43067</v>
-      </c>
-    </row>
-    <row r="26" spans="1:38" x14ac:dyDescent="0.25">
+        <v>44146</v>
+      </c>
+      <c r="AM25" t="s">
+        <v>618</v>
+      </c>
+    </row>
+    <row r="26" spans="1:39" x14ac:dyDescent="0.35">
       <c r="A26" t="s">
         <v>150</v>
       </c>
@@ -4154,11 +4216,10 @@
       <c r="H26" s="2">
         <v>41447</v>
       </c>
-      <c r="J26" s="2">
-        <v>41365</v>
-      </c>
-      <c r="K26" s="2">
-        <v>41729</v>
+      <c r="J26" s="2"/>
+      <c r="K26" s="2"/>
+      <c r="L26" s="6">
+        <v>12</v>
       </c>
       <c r="M26" t="s">
         <v>545</v>
@@ -4211,10 +4272,13 @@
         <v>54</v>
       </c>
       <c r="AL26" s="3">
-        <v>43067</v>
-      </c>
-    </row>
-    <row r="27" spans="1:38" x14ac:dyDescent="0.25">
+        <v>44146</v>
+      </c>
+      <c r="AM26" t="s">
+        <v>618</v>
+      </c>
+    </row>
+    <row r="27" spans="1:39" x14ac:dyDescent="0.35">
       <c r="A27" t="s">
         <v>156</v>
       </c>
@@ -4233,11 +4297,10 @@
       <c r="H27" s="2">
         <v>41447</v>
       </c>
-      <c r="J27" s="2">
-        <v>41365</v>
-      </c>
-      <c r="K27" s="2">
-        <v>41729</v>
+      <c r="J27" s="2"/>
+      <c r="K27" s="2"/>
+      <c r="L27" s="6">
+        <v>12</v>
       </c>
       <c r="M27" t="s">
         <v>546</v>
@@ -4284,10 +4347,13 @@
         <v>54</v>
       </c>
       <c r="AL27" s="3">
-        <v>43067</v>
-      </c>
-    </row>
-    <row r="28" spans="1:38" x14ac:dyDescent="0.25">
+        <v>44146</v>
+      </c>
+      <c r="AM27" t="s">
+        <v>618</v>
+      </c>
+    </row>
+    <row r="28" spans="1:39" x14ac:dyDescent="0.35">
       <c r="A28" t="s">
         <v>160</v>
       </c>
@@ -4306,11 +4372,10 @@
       <c r="H28" s="2">
         <v>41447</v>
       </c>
-      <c r="J28" s="2">
-        <v>41365</v>
-      </c>
-      <c r="K28" s="2">
-        <v>41729</v>
+      <c r="J28" s="2"/>
+      <c r="K28" s="2"/>
+      <c r="L28" s="6">
+        <v>12</v>
       </c>
       <c r="M28" t="s">
         <v>547</v>
@@ -4357,10 +4422,13 @@
         <v>54</v>
       </c>
       <c r="AL28" s="3">
-        <v>43067</v>
-      </c>
-    </row>
-    <row r="29" spans="1:38" x14ac:dyDescent="0.25">
+        <v>44146</v>
+      </c>
+      <c r="AM28" t="s">
+        <v>618</v>
+      </c>
+    </row>
+    <row r="29" spans="1:39" x14ac:dyDescent="0.35">
       <c r="A29" t="s">
         <v>164</v>
       </c>
@@ -4379,11 +4447,10 @@
       <c r="H29" s="2">
         <v>41454</v>
       </c>
-      <c r="J29" s="2">
-        <v>41365</v>
-      </c>
-      <c r="K29" s="2">
-        <v>41729</v>
+      <c r="J29" s="2"/>
+      <c r="K29" s="2"/>
+      <c r="L29" s="6">
+        <v>12</v>
       </c>
       <c r="M29" t="s">
         <v>548</v>
@@ -4430,10 +4497,13 @@
         <v>54</v>
       </c>
       <c r="AL29" s="3">
-        <v>43067</v>
-      </c>
-    </row>
-    <row r="30" spans="1:38" x14ac:dyDescent="0.25">
+        <v>44146</v>
+      </c>
+      <c r="AM29" t="s">
+        <v>618</v>
+      </c>
+    </row>
+    <row r="30" spans="1:39" x14ac:dyDescent="0.35">
       <c r="A30" t="s">
         <v>168</v>
       </c>
@@ -4452,11 +4522,10 @@
       <c r="H30" s="2">
         <v>41454</v>
       </c>
-      <c r="J30" s="2">
-        <v>41365</v>
-      </c>
-      <c r="K30" s="2">
-        <v>41729</v>
+      <c r="J30" s="2"/>
+      <c r="K30" s="2"/>
+      <c r="L30" s="6">
+        <v>12</v>
       </c>
       <c r="M30" t="s">
         <v>549</v>
@@ -4503,10 +4572,13 @@
         <v>54</v>
       </c>
       <c r="AL30" s="3">
-        <v>43067</v>
-      </c>
-    </row>
-    <row r="31" spans="1:38" x14ac:dyDescent="0.25">
+        <v>44146</v>
+      </c>
+      <c r="AM30" t="s">
+        <v>618</v>
+      </c>
+    </row>
+    <row r="31" spans="1:39" x14ac:dyDescent="0.35">
       <c r="A31" t="s">
         <v>172</v>
       </c>
@@ -4525,11 +4597,10 @@
       <c r="H31" s="2">
         <v>41454</v>
       </c>
-      <c r="J31" s="2">
-        <v>41365</v>
-      </c>
-      <c r="K31" s="2">
-        <v>41729</v>
+      <c r="J31" s="2"/>
+      <c r="K31" s="2"/>
+      <c r="L31" s="6">
+        <v>12</v>
       </c>
       <c r="M31" t="s">
         <v>550</v>
@@ -4579,10 +4650,13 @@
         <v>54</v>
       </c>
       <c r="AL31" s="3">
-        <v>43067</v>
-      </c>
-    </row>
-    <row r="32" spans="1:38" x14ac:dyDescent="0.25">
+        <v>44146</v>
+      </c>
+      <c r="AM31" t="s">
+        <v>618</v>
+      </c>
+    </row>
+    <row r="32" spans="1:39" x14ac:dyDescent="0.35">
       <c r="A32" t="s">
         <v>177</v>
       </c>
@@ -4601,11 +4675,10 @@
       <c r="H32" s="2">
         <v>41454</v>
       </c>
-      <c r="J32" s="2">
-        <v>41365</v>
-      </c>
-      <c r="K32" s="2">
-        <v>41729</v>
+      <c r="J32" s="2"/>
+      <c r="K32" s="2"/>
+      <c r="L32" s="6">
+        <v>12</v>
       </c>
       <c r="M32" t="s">
         <v>551</v>
@@ -4652,10 +4725,13 @@
         <v>54</v>
       </c>
       <c r="AL32" s="3">
-        <v>43067</v>
-      </c>
-    </row>
-    <row r="33" spans="1:38" x14ac:dyDescent="0.25">
+        <v>44146</v>
+      </c>
+      <c r="AM32" t="s">
+        <v>618</v>
+      </c>
+    </row>
+    <row r="33" spans="1:39" x14ac:dyDescent="0.35">
       <c r="A33" t="s">
         <v>181</v>
       </c>
@@ -4674,11 +4750,10 @@
       <c r="H33" s="2">
         <v>41454</v>
       </c>
-      <c r="J33" s="2">
-        <v>41365</v>
-      </c>
-      <c r="K33" s="2">
-        <v>41729</v>
+      <c r="J33" s="2"/>
+      <c r="K33" s="2"/>
+      <c r="L33" s="6">
+        <v>12</v>
       </c>
       <c r="M33" t="s">
         <v>552</v>
@@ -4725,10 +4800,13 @@
         <v>54</v>
       </c>
       <c r="AL33" s="3">
-        <v>43067</v>
-      </c>
-    </row>
-    <row r="34" spans="1:38" x14ac:dyDescent="0.25">
+        <v>44146</v>
+      </c>
+      <c r="AM33" t="s">
+        <v>618</v>
+      </c>
+    </row>
+    <row r="34" spans="1:39" x14ac:dyDescent="0.35">
       <c r="A34" t="s">
         <v>185</v>
       </c>
@@ -4747,11 +4825,10 @@
       <c r="H34" s="2">
         <v>41454</v>
       </c>
-      <c r="J34" s="2">
-        <v>41365</v>
-      </c>
-      <c r="K34" s="2">
-        <v>41729</v>
+      <c r="J34" s="2"/>
+      <c r="K34" s="2"/>
+      <c r="L34" s="6">
+        <v>12</v>
       </c>
       <c r="M34" t="s">
         <v>553</v>
@@ -4801,10 +4878,13 @@
         <v>54</v>
       </c>
       <c r="AL34" s="3">
-        <v>43067</v>
-      </c>
-    </row>
-    <row r="35" spans="1:38" x14ac:dyDescent="0.25">
+        <v>44146</v>
+      </c>
+      <c r="AM34" t="s">
+        <v>618</v>
+      </c>
+    </row>
+    <row r="35" spans="1:39" x14ac:dyDescent="0.35">
       <c r="A35" t="s">
         <v>190</v>
       </c>
@@ -4823,11 +4903,10 @@
       <c r="H35" s="2">
         <v>41454</v>
       </c>
-      <c r="J35" s="2">
-        <v>41365</v>
-      </c>
-      <c r="K35" s="2">
-        <v>41729</v>
+      <c r="J35" s="2"/>
+      <c r="K35" s="2"/>
+      <c r="L35" s="6">
+        <v>12</v>
       </c>
       <c r="M35" t="s">
         <v>554</v>
@@ -4874,10 +4953,13 @@
         <v>54</v>
       </c>
       <c r="AL35" s="3">
-        <v>43067</v>
-      </c>
-    </row>
-    <row r="36" spans="1:38" x14ac:dyDescent="0.25">
+        <v>44146</v>
+      </c>
+      <c r="AM35" t="s">
+        <v>618</v>
+      </c>
+    </row>
+    <row r="36" spans="1:39" x14ac:dyDescent="0.35">
       <c r="A36" t="s">
         <v>194</v>
       </c>
@@ -4896,11 +4978,10 @@
       <c r="H36" s="2">
         <v>41454</v>
       </c>
-      <c r="J36" s="2">
-        <v>41365</v>
-      </c>
-      <c r="K36" s="2">
-        <v>41729</v>
+      <c r="J36" s="2"/>
+      <c r="K36" s="2"/>
+      <c r="L36" s="6">
+        <v>12</v>
       </c>
       <c r="M36" t="s">
         <v>555</v>
@@ -4947,10 +5028,13 @@
         <v>54</v>
       </c>
       <c r="AL36" s="3">
-        <v>43067</v>
-      </c>
-    </row>
-    <row r="37" spans="1:38" x14ac:dyDescent="0.25">
+        <v>44146</v>
+      </c>
+      <c r="AM36" t="s">
+        <v>618</v>
+      </c>
+    </row>
+    <row r="37" spans="1:39" x14ac:dyDescent="0.35">
       <c r="A37" t="s">
         <v>198</v>
       </c>
@@ -4969,11 +5053,10 @@
       <c r="H37" s="2">
         <v>41454</v>
       </c>
-      <c r="J37" s="2">
-        <v>41365</v>
-      </c>
-      <c r="K37" s="2">
-        <v>41729</v>
+      <c r="J37" s="2"/>
+      <c r="K37" s="2"/>
+      <c r="L37" s="6">
+        <v>12</v>
       </c>
       <c r="M37" t="s">
         <v>536</v>
@@ -5023,10 +5106,13 @@
         <v>54</v>
       </c>
       <c r="AL37" s="3">
-        <v>43067</v>
-      </c>
-    </row>
-    <row r="38" spans="1:38" x14ac:dyDescent="0.25">
+        <v>44146</v>
+      </c>
+      <c r="AM37" t="s">
+        <v>618</v>
+      </c>
+    </row>
+    <row r="38" spans="1:39" x14ac:dyDescent="0.35">
       <c r="A38" t="s">
         <v>200</v>
       </c>
@@ -5045,11 +5131,10 @@
       <c r="H38" s="2">
         <v>41454</v>
       </c>
-      <c r="J38" s="2">
-        <v>41365</v>
-      </c>
-      <c r="K38" s="2">
-        <v>41729</v>
+      <c r="J38" s="2"/>
+      <c r="K38" s="2"/>
+      <c r="L38" s="6">
+        <v>12</v>
       </c>
       <c r="M38" t="s">
         <v>556</v>
@@ -5096,10 +5181,13 @@
         <v>54</v>
       </c>
       <c r="AL38" s="3">
-        <v>43067</v>
-      </c>
-    </row>
-    <row r="39" spans="1:38" x14ac:dyDescent="0.25">
+        <v>44146</v>
+      </c>
+      <c r="AM38" t="s">
+        <v>618</v>
+      </c>
+    </row>
+    <row r="39" spans="1:39" x14ac:dyDescent="0.35">
       <c r="A39" t="s">
         <v>204</v>
       </c>
@@ -5118,11 +5206,10 @@
       <c r="H39" s="2">
         <v>41454</v>
       </c>
-      <c r="J39" s="2">
-        <v>41365</v>
-      </c>
-      <c r="K39" s="2">
-        <v>41729</v>
+      <c r="J39" s="2"/>
+      <c r="K39" s="2"/>
+      <c r="L39" s="6">
+        <v>12</v>
       </c>
       <c r="M39" t="s">
         <v>557</v>
@@ -5169,10 +5256,13 @@
         <v>54</v>
       </c>
       <c r="AL39" s="3">
-        <v>43067</v>
-      </c>
-    </row>
-    <row r="40" spans="1:38" x14ac:dyDescent="0.25">
+        <v>44146</v>
+      </c>
+      <c r="AM39" t="s">
+        <v>618</v>
+      </c>
+    </row>
+    <row r="40" spans="1:39" x14ac:dyDescent="0.35">
       <c r="A40" t="s">
         <v>208</v>
       </c>
@@ -5191,11 +5281,10 @@
       <c r="H40" s="2">
         <v>41454</v>
       </c>
-      <c r="J40" s="2">
-        <v>41365</v>
-      </c>
-      <c r="K40" s="2">
-        <v>41729</v>
+      <c r="J40" s="2"/>
+      <c r="K40" s="2"/>
+      <c r="L40" s="6">
+        <v>12</v>
       </c>
       <c r="M40" t="s">
         <v>558</v>
@@ -5245,10 +5334,13 @@
         <v>54</v>
       </c>
       <c r="AL40" s="3">
-        <v>43067</v>
-      </c>
-    </row>
-    <row r="41" spans="1:38" x14ac:dyDescent="0.25">
+        <v>44146</v>
+      </c>
+      <c r="AM40" t="s">
+        <v>618</v>
+      </c>
+    </row>
+    <row r="41" spans="1:39" x14ac:dyDescent="0.35">
       <c r="A41" t="s">
         <v>213</v>
       </c>
@@ -5267,11 +5359,10 @@
       <c r="H41" s="2">
         <v>41454</v>
       </c>
-      <c r="J41" s="2">
-        <v>41365</v>
-      </c>
-      <c r="K41" s="2">
-        <v>41729</v>
+      <c r="J41" s="2"/>
+      <c r="K41" s="2"/>
+      <c r="L41" s="6">
+        <v>12</v>
       </c>
       <c r="M41" t="s">
         <v>559</v>
@@ -5318,10 +5409,13 @@
         <v>54</v>
       </c>
       <c r="AL41" s="3">
-        <v>43067</v>
-      </c>
-    </row>
-    <row r="42" spans="1:38" x14ac:dyDescent="0.25">
+        <v>44146</v>
+      </c>
+      <c r="AM41" t="s">
+        <v>618</v>
+      </c>
+    </row>
+    <row r="42" spans="1:39" x14ac:dyDescent="0.35">
       <c r="A42" t="s">
         <v>217</v>
       </c>
@@ -5340,11 +5434,10 @@
       <c r="H42" s="2">
         <v>41454</v>
       </c>
-      <c r="J42" s="2">
-        <v>41365</v>
-      </c>
-      <c r="K42" s="2">
-        <v>41729</v>
+      <c r="J42" s="2"/>
+      <c r="K42" s="2"/>
+      <c r="L42" s="6">
+        <v>12</v>
       </c>
       <c r="M42" t="s">
         <v>560</v>
@@ -5391,10 +5484,13 @@
         <v>54</v>
       </c>
       <c r="AL42" s="3">
-        <v>43067</v>
-      </c>
-    </row>
-    <row r="43" spans="1:38" x14ac:dyDescent="0.25">
+        <v>44146</v>
+      </c>
+      <c r="AM42" t="s">
+        <v>618</v>
+      </c>
+    </row>
+    <row r="43" spans="1:39" x14ac:dyDescent="0.35">
       <c r="A43" t="s">
         <v>221</v>
       </c>
@@ -5413,11 +5509,10 @@
       <c r="H43" s="2">
         <v>41454</v>
       </c>
-      <c r="J43" s="2">
-        <v>41365</v>
-      </c>
-      <c r="K43" s="2">
-        <v>41729</v>
+      <c r="J43" s="2"/>
+      <c r="K43" s="2"/>
+      <c r="L43" s="6">
+        <v>12</v>
       </c>
       <c r="M43" t="s">
         <v>561</v>
@@ -5464,10 +5559,13 @@
         <v>54</v>
       </c>
       <c r="AL43" s="3">
-        <v>43067</v>
-      </c>
-    </row>
-    <row r="44" spans="1:38" x14ac:dyDescent="0.25">
+        <v>44146</v>
+      </c>
+      <c r="AM43" t="s">
+        <v>618</v>
+      </c>
+    </row>
+    <row r="44" spans="1:39" x14ac:dyDescent="0.35">
       <c r="A44" t="s">
         <v>225</v>
       </c>
@@ -5486,11 +5584,10 @@
       <c r="H44" s="2">
         <v>41454</v>
       </c>
-      <c r="J44" s="2">
-        <v>41365</v>
-      </c>
-      <c r="K44" s="2">
-        <v>41729</v>
+      <c r="J44" s="2"/>
+      <c r="K44" s="2"/>
+      <c r="L44" s="6">
+        <v>12</v>
       </c>
       <c r="M44" t="s">
         <v>562</v>
@@ -5537,10 +5634,13 @@
         <v>54</v>
       </c>
       <c r="AL44" s="3">
-        <v>43067</v>
-      </c>
-    </row>
-    <row r="45" spans="1:38" x14ac:dyDescent="0.25">
+        <v>44146</v>
+      </c>
+      <c r="AM44" t="s">
+        <v>618</v>
+      </c>
+    </row>
+    <row r="45" spans="1:39" x14ac:dyDescent="0.35">
       <c r="A45" t="s">
         <v>229</v>
       </c>
@@ -5559,11 +5659,10 @@
       <c r="H45" s="2">
         <v>41454</v>
       </c>
-      <c r="J45" s="2">
-        <v>41365</v>
-      </c>
-      <c r="K45" s="2">
-        <v>41729</v>
+      <c r="J45" s="2"/>
+      <c r="K45" s="2"/>
+      <c r="L45" s="6">
+        <v>12</v>
       </c>
       <c r="M45" t="s">
         <v>563</v>
@@ -5610,10 +5709,13 @@
         <v>54</v>
       </c>
       <c r="AL45" s="3">
-        <v>43067</v>
-      </c>
-    </row>
-    <row r="46" spans="1:38" x14ac:dyDescent="0.25">
+        <v>44146</v>
+      </c>
+      <c r="AM45" t="s">
+        <v>618</v>
+      </c>
+    </row>
+    <row r="46" spans="1:39" x14ac:dyDescent="0.35">
       <c r="A46" t="s">
         <v>233</v>
       </c>
@@ -5632,11 +5734,10 @@
       <c r="H46" s="2">
         <v>41454</v>
       </c>
-      <c r="J46" s="2">
-        <v>41365</v>
-      </c>
-      <c r="K46" s="2">
-        <v>41729</v>
+      <c r="J46" s="2"/>
+      <c r="K46" s="2"/>
+      <c r="L46" s="6">
+        <v>12</v>
       </c>
       <c r="M46" t="s">
         <v>564</v>
@@ -5683,10 +5784,13 @@
         <v>54</v>
       </c>
       <c r="AL46" s="3">
-        <v>43067</v>
-      </c>
-    </row>
-    <row r="47" spans="1:38" x14ac:dyDescent="0.25">
+        <v>44146</v>
+      </c>
+      <c r="AM46" t="s">
+        <v>618</v>
+      </c>
+    </row>
+    <row r="47" spans="1:39" x14ac:dyDescent="0.35">
       <c r="A47" t="s">
         <v>237</v>
       </c>
@@ -5705,11 +5809,10 @@
       <c r="H47" s="2">
         <v>41454</v>
       </c>
-      <c r="J47" s="2">
-        <v>41365</v>
-      </c>
-      <c r="K47" s="2">
-        <v>41729</v>
+      <c r="J47" s="2"/>
+      <c r="K47" s="2"/>
+      <c r="L47" s="6">
+        <v>12</v>
       </c>
       <c r="M47" t="s">
         <v>565</v>
@@ -5762,10 +5865,13 @@
         <v>54</v>
       </c>
       <c r="AL47" s="3">
-        <v>43067</v>
-      </c>
-    </row>
-    <row r="48" spans="1:38" x14ac:dyDescent="0.25">
+        <v>44146</v>
+      </c>
+      <c r="AM47" t="s">
+        <v>618</v>
+      </c>
+    </row>
+    <row r="48" spans="1:39" x14ac:dyDescent="0.35">
       <c r="A48" t="s">
         <v>242</v>
       </c>
@@ -5784,11 +5890,10 @@
       <c r="H48" s="2">
         <v>41454</v>
       </c>
-      <c r="J48" s="2">
-        <v>41365</v>
-      </c>
-      <c r="K48" s="2">
-        <v>41729</v>
+      <c r="J48" s="2"/>
+      <c r="K48" s="2"/>
+      <c r="L48" s="6">
+        <v>12</v>
       </c>
       <c r="M48" t="s">
         <v>565</v>
@@ -5841,10 +5946,13 @@
         <v>54</v>
       </c>
       <c r="AL48" s="3">
-        <v>43067</v>
-      </c>
-    </row>
-    <row r="49" spans="1:38" x14ac:dyDescent="0.25">
+        <v>44146</v>
+      </c>
+      <c r="AM48" t="s">
+        <v>618</v>
+      </c>
+    </row>
+    <row r="49" spans="1:39" x14ac:dyDescent="0.35">
       <c r="A49" t="s">
         <v>245</v>
       </c>
@@ -5863,11 +5971,10 @@
       <c r="H49" s="2">
         <v>41454</v>
       </c>
-      <c r="J49" s="2">
-        <v>41365</v>
-      </c>
-      <c r="K49" s="2">
-        <v>41729</v>
+      <c r="J49" s="2"/>
+      <c r="K49" s="2"/>
+      <c r="L49" s="6">
+        <v>12</v>
       </c>
       <c r="M49" t="s">
         <v>566</v>
@@ -5914,10 +6021,13 @@
         <v>54</v>
       </c>
       <c r="AL49" s="3">
-        <v>43067</v>
-      </c>
-    </row>
-    <row r="50" spans="1:38" x14ac:dyDescent="0.25">
+        <v>44146</v>
+      </c>
+      <c r="AM49" t="s">
+        <v>618</v>
+      </c>
+    </row>
+    <row r="50" spans="1:39" x14ac:dyDescent="0.35">
       <c r="A50" t="s">
         <v>249</v>
       </c>
@@ -5936,11 +6046,10 @@
       <c r="H50" s="2">
         <v>41454</v>
       </c>
-      <c r="J50" s="2">
-        <v>41365</v>
-      </c>
-      <c r="K50" s="2">
-        <v>41729</v>
+      <c r="J50" s="2"/>
+      <c r="K50" s="2"/>
+      <c r="L50" s="6">
+        <v>12</v>
       </c>
       <c r="M50" t="s">
         <v>567</v>
@@ -5987,10 +6096,13 @@
         <v>54</v>
       </c>
       <c r="AL50" s="3">
-        <v>43067</v>
-      </c>
-    </row>
-    <row r="51" spans="1:38" x14ac:dyDescent="0.25">
+        <v>44146</v>
+      </c>
+      <c r="AM50" t="s">
+        <v>618</v>
+      </c>
+    </row>
+    <row r="51" spans="1:39" x14ac:dyDescent="0.35">
       <c r="A51" t="s">
         <v>253</v>
       </c>
@@ -6009,11 +6121,10 @@
       <c r="H51" s="2">
         <v>41825</v>
       </c>
-      <c r="J51" s="2">
-        <v>41730</v>
-      </c>
-      <c r="K51" s="2">
-        <v>42094</v>
+      <c r="J51" s="2"/>
+      <c r="K51" s="2"/>
+      <c r="L51" s="6">
+        <v>12</v>
       </c>
       <c r="M51" t="s">
         <v>568</v>
@@ -6060,10 +6171,13 @@
         <v>54</v>
       </c>
       <c r="AL51" s="3">
-        <v>43067</v>
-      </c>
-    </row>
-    <row r="52" spans="1:38" x14ac:dyDescent="0.25">
+        <v>44146</v>
+      </c>
+      <c r="AM51" t="s">
+        <v>618</v>
+      </c>
+    </row>
+    <row r="52" spans="1:39" x14ac:dyDescent="0.35">
       <c r="A52" t="s">
         <v>257</v>
       </c>
@@ -6082,11 +6196,10 @@
       <c r="H52" s="2">
         <v>41825</v>
       </c>
-      <c r="J52" s="2">
-        <v>41730</v>
-      </c>
-      <c r="K52" s="2">
-        <v>42094</v>
+      <c r="J52" s="2"/>
+      <c r="K52" s="2"/>
+      <c r="L52" s="6">
+        <v>12</v>
       </c>
       <c r="M52" t="s">
         <v>569</v>
@@ -6139,10 +6252,13 @@
         <v>54</v>
       </c>
       <c r="AL52" s="3">
-        <v>43067</v>
-      </c>
-    </row>
-    <row r="53" spans="1:38" x14ac:dyDescent="0.25">
+        <v>44146</v>
+      </c>
+      <c r="AM52" t="s">
+        <v>618</v>
+      </c>
+    </row>
+    <row r="53" spans="1:39" x14ac:dyDescent="0.35">
       <c r="A53" t="s">
         <v>263</v>
       </c>
@@ -6161,11 +6277,10 @@
       <c r="H53" s="2">
         <v>41825</v>
       </c>
-      <c r="J53" s="2">
-        <v>41730</v>
-      </c>
-      <c r="K53" s="2">
-        <v>42094</v>
+      <c r="J53" s="2"/>
+      <c r="K53" s="2"/>
+      <c r="L53" s="6">
+        <v>12</v>
       </c>
       <c r="M53" t="s">
         <v>570</v>
@@ -6212,10 +6327,13 @@
         <v>54</v>
       </c>
       <c r="AL53" s="3">
-        <v>43067</v>
-      </c>
-    </row>
-    <row r="54" spans="1:38" x14ac:dyDescent="0.25">
+        <v>44146</v>
+      </c>
+      <c r="AM53" t="s">
+        <v>618</v>
+      </c>
+    </row>
+    <row r="54" spans="1:39" x14ac:dyDescent="0.35">
       <c r="A54" t="s">
         <v>267</v>
       </c>
@@ -6234,11 +6352,10 @@
       <c r="H54" s="2">
         <v>41825</v>
       </c>
-      <c r="J54" s="2">
-        <v>41730</v>
-      </c>
-      <c r="K54" s="2">
-        <v>42094</v>
+      <c r="J54" s="2"/>
+      <c r="K54" s="2"/>
+      <c r="L54" s="6">
+        <v>12</v>
       </c>
       <c r="M54" t="s">
         <v>571</v>
@@ -6285,10 +6402,13 @@
         <v>54</v>
       </c>
       <c r="AL54" s="3">
-        <v>43067</v>
-      </c>
-    </row>
-    <row r="55" spans="1:38" x14ac:dyDescent="0.25">
+        <v>44146</v>
+      </c>
+      <c r="AM54" t="s">
+        <v>618</v>
+      </c>
+    </row>
+    <row r="55" spans="1:39" x14ac:dyDescent="0.35">
       <c r="A55" t="s">
         <v>271</v>
       </c>
@@ -6307,11 +6427,10 @@
       <c r="H55" s="2">
         <v>41825</v>
       </c>
-      <c r="J55" s="2">
-        <v>41730</v>
-      </c>
-      <c r="K55" s="2">
-        <v>42094</v>
+      <c r="J55" s="2"/>
+      <c r="K55" s="2"/>
+      <c r="L55" s="6">
+        <v>12</v>
       </c>
       <c r="M55" t="s">
         <v>550</v>
@@ -6361,10 +6480,13 @@
         <v>54</v>
       </c>
       <c r="AL55" s="3">
-        <v>43067</v>
-      </c>
-    </row>
-    <row r="56" spans="1:38" x14ac:dyDescent="0.25">
+        <v>44146</v>
+      </c>
+      <c r="AM55" t="s">
+        <v>618</v>
+      </c>
+    </row>
+    <row r="56" spans="1:39" x14ac:dyDescent="0.35">
       <c r="A56" t="s">
         <v>273</v>
       </c>
@@ -6383,11 +6505,10 @@
       <c r="H56" s="2">
         <v>41825</v>
       </c>
-      <c r="J56" s="2">
-        <v>41730</v>
-      </c>
-      <c r="K56" s="2">
-        <v>42094</v>
+      <c r="J56" s="2"/>
+      <c r="K56" s="2"/>
+      <c r="L56" s="6">
+        <v>12</v>
       </c>
       <c r="M56" t="s">
         <v>572</v>
@@ -6437,10 +6558,13 @@
         <v>54</v>
       </c>
       <c r="AL56" s="3">
-        <v>43067</v>
-      </c>
-    </row>
-    <row r="57" spans="1:38" x14ac:dyDescent="0.25">
+        <v>44146</v>
+      </c>
+      <c r="AM56" t="s">
+        <v>618</v>
+      </c>
+    </row>
+    <row r="57" spans="1:39" x14ac:dyDescent="0.35">
       <c r="A57" t="s">
         <v>278</v>
       </c>
@@ -6459,11 +6583,10 @@
       <c r="H57" s="2">
         <v>41825</v>
       </c>
-      <c r="J57" s="2">
-        <v>41730</v>
-      </c>
-      <c r="K57" s="2">
-        <v>42094</v>
+      <c r="J57" s="2"/>
+      <c r="K57" s="2"/>
+      <c r="L57" s="6">
+        <v>12</v>
       </c>
       <c r="M57" t="s">
         <v>573</v>
@@ -6510,10 +6633,13 @@
         <v>54</v>
       </c>
       <c r="AL57" s="3">
-        <v>43067</v>
-      </c>
-    </row>
-    <row r="58" spans="1:38" x14ac:dyDescent="0.25">
+        <v>44146</v>
+      </c>
+      <c r="AM57" t="s">
+        <v>618</v>
+      </c>
+    </row>
+    <row r="58" spans="1:39" x14ac:dyDescent="0.35">
       <c r="A58" t="s">
         <v>282</v>
       </c>
@@ -6532,11 +6658,10 @@
       <c r="H58" s="2">
         <v>41825</v>
       </c>
-      <c r="J58" s="2">
-        <v>41730</v>
-      </c>
-      <c r="K58" s="2">
-        <v>42094</v>
+      <c r="J58" s="2"/>
+      <c r="K58" s="2"/>
+      <c r="L58" s="6">
+        <v>12</v>
       </c>
       <c r="M58" t="s">
         <v>574</v>
@@ -6583,10 +6708,13 @@
         <v>54</v>
       </c>
       <c r="AL58" s="3">
-        <v>43067</v>
-      </c>
-    </row>
-    <row r="59" spans="1:38" x14ac:dyDescent="0.25">
+        <v>44146</v>
+      </c>
+      <c r="AM58" t="s">
+        <v>618</v>
+      </c>
+    </row>
+    <row r="59" spans="1:39" x14ac:dyDescent="0.35">
       <c r="A59" t="s">
         <v>286</v>
       </c>
@@ -6605,11 +6733,10 @@
       <c r="H59" s="2">
         <v>41832</v>
       </c>
-      <c r="J59" s="2">
-        <v>41730</v>
-      </c>
-      <c r="K59" s="2">
-        <v>42094</v>
+      <c r="J59" s="2"/>
+      <c r="K59" s="2"/>
+      <c r="L59" s="6">
+        <v>12</v>
       </c>
       <c r="M59" t="s">
         <v>575</v>
@@ -6656,10 +6783,13 @@
         <v>54</v>
       </c>
       <c r="AL59" s="3">
-        <v>43067</v>
-      </c>
-    </row>
-    <row r="60" spans="1:38" x14ac:dyDescent="0.25">
+        <v>44146</v>
+      </c>
+      <c r="AM59" t="s">
+        <v>618</v>
+      </c>
+    </row>
+    <row r="60" spans="1:39" x14ac:dyDescent="0.35">
       <c r="A60" t="s">
         <v>290</v>
       </c>
@@ -6678,11 +6808,10 @@
       <c r="H60" s="2">
         <v>41832</v>
       </c>
-      <c r="J60" s="2">
-        <v>41730</v>
-      </c>
-      <c r="K60" s="2">
-        <v>42094</v>
+      <c r="J60" s="2"/>
+      <c r="K60" s="2"/>
+      <c r="L60" s="6">
+        <v>12</v>
       </c>
       <c r="M60" t="s">
         <v>560</v>
@@ -6729,10 +6858,13 @@
         <v>54</v>
       </c>
       <c r="AL60" s="3">
-        <v>43067</v>
-      </c>
-    </row>
-    <row r="61" spans="1:38" x14ac:dyDescent="0.25">
+        <v>44146</v>
+      </c>
+      <c r="AM60" t="s">
+        <v>618</v>
+      </c>
+    </row>
+    <row r="61" spans="1:39" x14ac:dyDescent="0.35">
       <c r="A61" t="s">
         <v>292</v>
       </c>
@@ -6751,11 +6883,10 @@
       <c r="H61" s="2">
         <v>41832</v>
       </c>
-      <c r="J61" s="2">
-        <v>41730</v>
-      </c>
-      <c r="K61" s="2">
-        <v>42094</v>
+      <c r="J61" s="2"/>
+      <c r="K61" s="2"/>
+      <c r="L61" s="6">
+        <v>12</v>
       </c>
       <c r="M61" t="s">
         <v>576</v>
@@ -6805,10 +6936,13 @@
         <v>54</v>
       </c>
       <c r="AL61" s="3">
-        <v>43067</v>
-      </c>
-    </row>
-    <row r="62" spans="1:38" x14ac:dyDescent="0.25">
+        <v>44146</v>
+      </c>
+      <c r="AM61" t="s">
+        <v>618</v>
+      </c>
+    </row>
+    <row r="62" spans="1:39" x14ac:dyDescent="0.35">
       <c r="A62" t="s">
         <v>296</v>
       </c>
@@ -6827,11 +6961,10 @@
       <c r="H62" s="2">
         <v>41832</v>
       </c>
-      <c r="J62" s="2">
-        <v>41730</v>
-      </c>
-      <c r="K62" s="2">
-        <v>42094</v>
+      <c r="J62" s="2"/>
+      <c r="K62" s="2"/>
+      <c r="L62" s="6">
+        <v>12</v>
       </c>
       <c r="M62" t="s">
         <v>577</v>
@@ -6878,10 +7011,13 @@
         <v>54</v>
       </c>
       <c r="AL62" s="3">
-        <v>43067</v>
-      </c>
-    </row>
-    <row r="63" spans="1:38" x14ac:dyDescent="0.25">
+        <v>44146</v>
+      </c>
+      <c r="AM62" t="s">
+        <v>618</v>
+      </c>
+    </row>
+    <row r="63" spans="1:39" x14ac:dyDescent="0.35">
       <c r="A63" t="s">
         <v>300</v>
       </c>
@@ -6900,11 +7036,10 @@
       <c r="H63" s="2">
         <v>41832</v>
       </c>
-      <c r="J63" s="2">
-        <v>41730</v>
-      </c>
-      <c r="K63" s="2">
-        <v>42094</v>
+      <c r="J63" s="2"/>
+      <c r="K63" s="2"/>
+      <c r="L63" s="6">
+        <v>12</v>
       </c>
       <c r="M63" t="s">
         <v>578</v>
@@ -6957,10 +7092,13 @@
         <v>54</v>
       </c>
       <c r="AL63" s="3">
-        <v>43067</v>
-      </c>
-    </row>
-    <row r="64" spans="1:38" x14ac:dyDescent="0.25">
+        <v>44146</v>
+      </c>
+      <c r="AM63" t="s">
+        <v>618</v>
+      </c>
+    </row>
+    <row r="64" spans="1:39" x14ac:dyDescent="0.35">
       <c r="A64" t="s">
         <v>306</v>
       </c>
@@ -6979,11 +7117,10 @@
       <c r="H64" s="2">
         <v>41832</v>
       </c>
-      <c r="J64" s="2">
-        <v>41730</v>
-      </c>
-      <c r="K64" s="2">
-        <v>42094</v>
+      <c r="J64" s="2"/>
+      <c r="K64" s="2"/>
+      <c r="L64" s="6">
+        <v>12</v>
       </c>
       <c r="M64" t="s">
         <v>579</v>
@@ -7030,10 +7167,13 @@
         <v>54</v>
       </c>
       <c r="AL64" s="3">
-        <v>43067</v>
-      </c>
-    </row>
-    <row r="65" spans="1:38" x14ac:dyDescent="0.25">
+        <v>44146</v>
+      </c>
+      <c r="AM64" t="s">
+        <v>618</v>
+      </c>
+    </row>
+    <row r="65" spans="1:39" x14ac:dyDescent="0.35">
       <c r="A65" t="s">
         <v>310</v>
       </c>
@@ -7052,11 +7192,10 @@
       <c r="H65" s="2">
         <v>41832</v>
       </c>
-      <c r="J65" s="2">
-        <v>41730</v>
-      </c>
-      <c r="K65" s="2">
-        <v>42094</v>
+      <c r="J65" s="2"/>
+      <c r="K65" s="2"/>
+      <c r="L65" s="6">
+        <v>12</v>
       </c>
       <c r="M65" t="s">
         <v>550</v>
@@ -7106,10 +7245,13 @@
         <v>54</v>
       </c>
       <c r="AL65" s="3">
-        <v>43067</v>
-      </c>
-    </row>
-    <row r="66" spans="1:38" x14ac:dyDescent="0.25">
+        <v>44146</v>
+      </c>
+      <c r="AM65" t="s">
+        <v>618</v>
+      </c>
+    </row>
+    <row r="66" spans="1:39" x14ac:dyDescent="0.35">
       <c r="A66" t="s">
         <v>312</v>
       </c>
@@ -7128,11 +7270,10 @@
       <c r="H66" s="2">
         <v>41832</v>
       </c>
-      <c r="J66" s="2">
-        <v>41730</v>
-      </c>
-      <c r="K66" s="2">
-        <v>42094</v>
+      <c r="J66" s="2"/>
+      <c r="K66" s="2"/>
+      <c r="L66" s="6">
+        <v>12</v>
       </c>
       <c r="M66" t="s">
         <v>580</v>
@@ -7179,10 +7320,13 @@
         <v>54</v>
       </c>
       <c r="AL66" s="3">
-        <v>43067</v>
-      </c>
-    </row>
-    <row r="67" spans="1:38" x14ac:dyDescent="0.25">
+        <v>44146</v>
+      </c>
+      <c r="AM66" t="s">
+        <v>618</v>
+      </c>
+    </row>
+    <row r="67" spans="1:39" x14ac:dyDescent="0.35">
       <c r="A67" t="s">
         <v>316</v>
       </c>
@@ -7201,11 +7345,10 @@
       <c r="H67" s="2">
         <v>41832</v>
       </c>
-      <c r="J67" s="2">
-        <v>41730</v>
-      </c>
-      <c r="K67" s="2">
-        <v>42094</v>
+      <c r="J67" s="2"/>
+      <c r="K67" s="2"/>
+      <c r="L67" s="6">
+        <v>12</v>
       </c>
       <c r="M67" t="s">
         <v>581</v>
@@ -7252,10 +7395,13 @@
         <v>54</v>
       </c>
       <c r="AL67" s="3">
-        <v>43067</v>
-      </c>
-    </row>
-    <row r="68" spans="1:38" x14ac:dyDescent="0.25">
+        <v>44146</v>
+      </c>
+      <c r="AM67" t="s">
+        <v>618</v>
+      </c>
+    </row>
+    <row r="68" spans="1:39" x14ac:dyDescent="0.35">
       <c r="A68" t="s">
         <v>320</v>
       </c>
@@ -7274,11 +7420,10 @@
       <c r="H68" s="2">
         <v>41832</v>
       </c>
-      <c r="J68" s="2">
-        <v>41730</v>
-      </c>
-      <c r="K68" s="2">
-        <v>42094</v>
+      <c r="J68" s="2"/>
+      <c r="K68" s="2"/>
+      <c r="L68" s="6">
+        <v>12</v>
       </c>
       <c r="M68" t="s">
         <v>536</v>
@@ -7328,10 +7473,13 @@
         <v>54</v>
       </c>
       <c r="AL68" s="3">
-        <v>43067</v>
-      </c>
-    </row>
-    <row r="69" spans="1:38" x14ac:dyDescent="0.25">
+        <v>44146</v>
+      </c>
+      <c r="AM68" t="s">
+        <v>618</v>
+      </c>
+    </row>
+    <row r="69" spans="1:39" x14ac:dyDescent="0.35">
       <c r="A69" t="s">
         <v>322</v>
       </c>
@@ -7350,11 +7498,10 @@
       <c r="H69" s="2">
         <v>41839</v>
       </c>
-      <c r="J69" s="2">
-        <v>41730</v>
-      </c>
-      <c r="K69" s="2">
-        <v>42094</v>
+      <c r="J69" s="2"/>
+      <c r="K69" s="2"/>
+      <c r="L69" s="6">
+        <v>12</v>
       </c>
       <c r="M69" t="s">
         <v>525</v>
@@ -7407,10 +7554,13 @@
         <v>54</v>
       </c>
       <c r="AL69" s="3">
-        <v>43067</v>
-      </c>
-    </row>
-    <row r="70" spans="1:38" x14ac:dyDescent="0.25">
+        <v>44146</v>
+      </c>
+      <c r="AM69" t="s">
+        <v>618</v>
+      </c>
+    </row>
+    <row r="70" spans="1:39" x14ac:dyDescent="0.35">
       <c r="A70" t="s">
         <v>324</v>
       </c>
@@ -7429,11 +7579,10 @@
       <c r="H70" s="2">
         <v>41839</v>
       </c>
-      <c r="J70" s="2">
-        <v>41730</v>
-      </c>
-      <c r="K70" s="2">
-        <v>42094</v>
+      <c r="J70" s="2"/>
+      <c r="K70" s="2"/>
+      <c r="L70" s="6">
+        <v>12</v>
       </c>
       <c r="M70" t="s">
         <v>575</v>
@@ -7480,10 +7629,13 @@
         <v>54</v>
       </c>
       <c r="AL70" s="3">
-        <v>43067</v>
-      </c>
-    </row>
-    <row r="71" spans="1:38" x14ac:dyDescent="0.25">
+        <v>44146</v>
+      </c>
+      <c r="AM70" t="s">
+        <v>618</v>
+      </c>
+    </row>
+    <row r="71" spans="1:39" x14ac:dyDescent="0.35">
       <c r="A71" t="s">
         <v>326</v>
       </c>
@@ -7502,11 +7654,10 @@
       <c r="H71" s="2">
         <v>41839</v>
       </c>
-      <c r="J71" s="2">
-        <v>41730</v>
-      </c>
-      <c r="K71" s="2">
-        <v>42094</v>
+      <c r="J71" s="2"/>
+      <c r="K71" s="2"/>
+      <c r="L71" s="6">
+        <v>12</v>
       </c>
       <c r="M71" t="s">
         <v>529</v>
@@ -7556,10 +7707,13 @@
         <v>54</v>
       </c>
       <c r="AL71" s="3">
-        <v>43067</v>
-      </c>
-    </row>
-    <row r="72" spans="1:38" x14ac:dyDescent="0.25">
+        <v>44146</v>
+      </c>
+      <c r="AM71" t="s">
+        <v>618</v>
+      </c>
+    </row>
+    <row r="72" spans="1:39" x14ac:dyDescent="0.35">
       <c r="A72" t="s">
         <v>328</v>
       </c>
@@ -7578,11 +7732,10 @@
       <c r="H72" s="2">
         <v>41839</v>
       </c>
-      <c r="J72" s="2">
-        <v>41730</v>
-      </c>
-      <c r="K72" s="2">
-        <v>42094</v>
+      <c r="J72" s="2"/>
+      <c r="K72" s="2"/>
+      <c r="L72" s="6">
+        <v>12</v>
       </c>
       <c r="M72" t="s">
         <v>582</v>
@@ -7629,10 +7782,13 @@
         <v>54</v>
       </c>
       <c r="AL72" s="3">
-        <v>43067</v>
-      </c>
-    </row>
-    <row r="73" spans="1:38" x14ac:dyDescent="0.25">
+        <v>44146</v>
+      </c>
+      <c r="AM72" t="s">
+        <v>618</v>
+      </c>
+    </row>
+    <row r="73" spans="1:39" x14ac:dyDescent="0.35">
       <c r="A73" t="s">
         <v>332</v>
       </c>
@@ -7651,11 +7807,10 @@
       <c r="H73" s="2">
         <v>41839</v>
       </c>
-      <c r="J73" s="2">
-        <v>41730</v>
-      </c>
-      <c r="K73" s="2">
-        <v>42094</v>
+      <c r="J73" s="2"/>
+      <c r="K73" s="2"/>
+      <c r="L73" s="6">
+        <v>12</v>
       </c>
       <c r="M73" t="s">
         <v>583</v>
@@ -7705,10 +7860,13 @@
         <v>54</v>
       </c>
       <c r="AL73" s="3">
-        <v>43067</v>
-      </c>
-    </row>
-    <row r="74" spans="1:38" x14ac:dyDescent="0.25">
+        <v>44146</v>
+      </c>
+      <c r="AM73" t="s">
+        <v>618</v>
+      </c>
+    </row>
+    <row r="74" spans="1:39" x14ac:dyDescent="0.35">
       <c r="A74" t="s">
         <v>337</v>
       </c>
@@ -7727,11 +7885,10 @@
       <c r="H74" s="2">
         <v>41839</v>
       </c>
-      <c r="J74" s="2">
-        <v>41730</v>
-      </c>
-      <c r="K74" s="2">
-        <v>42094</v>
+      <c r="J74" s="2"/>
+      <c r="K74" s="2"/>
+      <c r="L74" s="6">
+        <v>12</v>
       </c>
       <c r="M74" t="s">
         <v>584</v>
@@ -7778,10 +7935,13 @@
         <v>54</v>
       </c>
       <c r="AL74" s="3">
-        <v>43067</v>
-      </c>
-    </row>
-    <row r="75" spans="1:38" x14ac:dyDescent="0.25">
+        <v>44146</v>
+      </c>
+      <c r="AM74" t="s">
+        <v>618</v>
+      </c>
+    </row>
+    <row r="75" spans="1:39" x14ac:dyDescent="0.35">
       <c r="A75" t="s">
         <v>341</v>
       </c>
@@ -7800,11 +7960,10 @@
       <c r="H75" s="2">
         <v>41839</v>
       </c>
-      <c r="J75" s="2">
-        <v>41730</v>
-      </c>
-      <c r="K75" s="2">
-        <v>42094</v>
+      <c r="J75" s="2"/>
+      <c r="K75" s="2"/>
+      <c r="L75" s="6">
+        <v>12</v>
       </c>
       <c r="M75" t="s">
         <v>530</v>
@@ -7854,10 +8013,13 @@
         <v>54</v>
       </c>
       <c r="AL75" s="3">
-        <v>43067</v>
-      </c>
-    </row>
-    <row r="76" spans="1:38" x14ac:dyDescent="0.25">
+        <v>44146</v>
+      </c>
+      <c r="AM75" t="s">
+        <v>618</v>
+      </c>
+    </row>
+    <row r="76" spans="1:39" x14ac:dyDescent="0.35">
       <c r="A76" t="s">
         <v>343</v>
       </c>
@@ -7876,11 +8038,10 @@
       <c r="H76" s="2">
         <v>41839</v>
       </c>
-      <c r="J76" s="2">
-        <v>41730</v>
-      </c>
-      <c r="K76" s="2">
-        <v>42094</v>
+      <c r="J76" s="2"/>
+      <c r="K76" s="2"/>
+      <c r="L76" s="6">
+        <v>12</v>
       </c>
       <c r="M76" t="s">
         <v>585</v>
@@ -7927,10 +8088,13 @@
         <v>54</v>
       </c>
       <c r="AL76" s="3">
-        <v>43067</v>
-      </c>
-    </row>
-    <row r="77" spans="1:38" x14ac:dyDescent="0.25">
+        <v>44146</v>
+      </c>
+      <c r="AM76" t="s">
+        <v>618</v>
+      </c>
+    </row>
+    <row r="77" spans="1:39" x14ac:dyDescent="0.35">
       <c r="A77" t="s">
         <v>347</v>
       </c>
@@ -7949,11 +8113,10 @@
       <c r="H77" s="2">
         <v>41888</v>
       </c>
-      <c r="J77" s="2">
-        <v>41730</v>
-      </c>
-      <c r="K77" s="2">
-        <v>42094</v>
+      <c r="J77" s="2"/>
+      <c r="K77" s="2"/>
+      <c r="L77" s="6">
+        <v>12</v>
       </c>
       <c r="M77" t="s">
         <v>568</v>
@@ -8000,10 +8163,13 @@
         <v>54</v>
       </c>
       <c r="AL77" s="3">
-        <v>43067</v>
-      </c>
-    </row>
-    <row r="78" spans="1:38" x14ac:dyDescent="0.25">
+        <v>44146</v>
+      </c>
+      <c r="AM77" t="s">
+        <v>618</v>
+      </c>
+    </row>
+    <row r="78" spans="1:39" x14ac:dyDescent="0.35">
       <c r="A78" t="s">
         <v>349</v>
       </c>
@@ -8022,11 +8188,10 @@
       <c r="H78" s="2">
         <v>41888</v>
       </c>
-      <c r="J78" s="2">
-        <v>41730</v>
-      </c>
-      <c r="K78" s="2">
-        <v>42094</v>
+      <c r="J78" s="2"/>
+      <c r="K78" s="2"/>
+      <c r="L78" s="6">
+        <v>12</v>
       </c>
       <c r="M78" t="s">
         <v>586</v>
@@ -8073,10 +8238,13 @@
         <v>54</v>
       </c>
       <c r="AL78" s="3">
-        <v>43067</v>
-      </c>
-    </row>
-    <row r="79" spans="1:38" x14ac:dyDescent="0.25">
+        <v>44146</v>
+      </c>
+      <c r="AM78" t="s">
+        <v>618</v>
+      </c>
+    </row>
+    <row r="79" spans="1:39" x14ac:dyDescent="0.35">
       <c r="A79" t="s">
         <v>353</v>
       </c>
@@ -8095,11 +8263,10 @@
       <c r="H79" s="2">
         <v>41888</v>
       </c>
-      <c r="J79" s="2">
-        <v>41730</v>
-      </c>
-      <c r="K79" s="2">
-        <v>42094</v>
+      <c r="J79" s="2"/>
+      <c r="K79" s="2"/>
+      <c r="L79" s="6">
+        <v>12</v>
       </c>
       <c r="M79" t="s">
         <v>587</v>
@@ -8146,10 +8313,13 @@
         <v>54</v>
       </c>
       <c r="AL79" s="3">
-        <v>43067</v>
-      </c>
-    </row>
-    <row r="80" spans="1:38" x14ac:dyDescent="0.25">
+        <v>44146</v>
+      </c>
+      <c r="AM79" t="s">
+        <v>618</v>
+      </c>
+    </row>
+    <row r="80" spans="1:39" x14ac:dyDescent="0.35">
       <c r="A80" t="s">
         <v>357</v>
       </c>
@@ -8168,11 +8338,10 @@
       <c r="H80" s="2">
         <v>41888</v>
       </c>
-      <c r="J80" s="2">
-        <v>41730</v>
-      </c>
-      <c r="K80" s="2">
-        <v>42094</v>
+      <c r="J80" s="2"/>
+      <c r="K80" s="2"/>
+      <c r="L80" s="6">
+        <v>12</v>
       </c>
       <c r="M80" t="s">
         <v>588</v>
@@ -8225,10 +8394,13 @@
         <v>54</v>
       </c>
       <c r="AL80" s="3">
-        <v>43067</v>
-      </c>
-    </row>
-    <row r="81" spans="1:38" x14ac:dyDescent="0.25">
+        <v>44146</v>
+      </c>
+      <c r="AM80" t="s">
+        <v>618</v>
+      </c>
+    </row>
+    <row r="81" spans="1:39" x14ac:dyDescent="0.35">
       <c r="A81" t="s">
         <v>363</v>
       </c>
@@ -8247,11 +8419,10 @@
       <c r="H81" s="2">
         <v>41888</v>
       </c>
-      <c r="J81" s="2">
-        <v>41730</v>
-      </c>
-      <c r="K81" s="2">
-        <v>42094</v>
+      <c r="J81" s="2"/>
+      <c r="K81" s="2"/>
+      <c r="L81" s="6">
+        <v>12</v>
       </c>
       <c r="M81" t="s">
         <v>589</v>
@@ -8304,10 +8475,13 @@
         <v>54</v>
       </c>
       <c r="AL81" s="3">
-        <v>43067</v>
-      </c>
-    </row>
-    <row r="82" spans="1:38" x14ac:dyDescent="0.25">
+        <v>44146</v>
+      </c>
+      <c r="AM81" t="s">
+        <v>618</v>
+      </c>
+    </row>
+    <row r="82" spans="1:39" x14ac:dyDescent="0.35">
       <c r="A82" t="s">
         <v>369</v>
       </c>
@@ -8326,11 +8500,10 @@
       <c r="H82" s="2">
         <v>41888</v>
       </c>
-      <c r="J82" s="2">
-        <v>41730</v>
-      </c>
-      <c r="K82" s="2">
-        <v>42094</v>
+      <c r="J82" s="2"/>
+      <c r="K82" s="2"/>
+      <c r="L82" s="6">
+        <v>12</v>
       </c>
       <c r="M82" t="s">
         <v>532</v>
@@ -8377,10 +8550,13 @@
         <v>54</v>
       </c>
       <c r="AL82" s="3">
-        <v>43067</v>
-      </c>
-    </row>
-    <row r="83" spans="1:38" x14ac:dyDescent="0.25">
+        <v>44146</v>
+      </c>
+      <c r="AM82" t="s">
+        <v>618</v>
+      </c>
+    </row>
+    <row r="83" spans="1:39" x14ac:dyDescent="0.35">
       <c r="A83" t="s">
         <v>371</v>
       </c>
@@ -8399,11 +8575,10 @@
       <c r="H83" s="2">
         <v>41888</v>
       </c>
-      <c r="J83" s="2">
-        <v>41730</v>
-      </c>
-      <c r="K83" s="2">
-        <v>42094</v>
+      <c r="J83" s="2"/>
+      <c r="K83" s="2"/>
+      <c r="L83" s="6">
+        <v>12</v>
       </c>
       <c r="M83" t="s">
         <v>590</v>
@@ -8450,10 +8625,13 @@
         <v>54</v>
       </c>
       <c r="AL83" s="3">
-        <v>43067</v>
-      </c>
-    </row>
-    <row r="84" spans="1:38" x14ac:dyDescent="0.25">
+        <v>44146</v>
+      </c>
+      <c r="AM83" t="s">
+        <v>618</v>
+      </c>
+    </row>
+    <row r="84" spans="1:39" x14ac:dyDescent="0.35">
       <c r="A84" t="s">
         <v>375</v>
       </c>
@@ -8472,11 +8650,10 @@
       <c r="H84" s="2">
         <v>41888</v>
       </c>
-      <c r="J84" s="2">
-        <v>41730</v>
-      </c>
-      <c r="K84" s="2">
-        <v>42094</v>
+      <c r="J84" s="2"/>
+      <c r="K84" s="2"/>
+      <c r="L84" s="6">
+        <v>12</v>
       </c>
       <c r="M84" t="s">
         <v>591</v>
@@ -8523,10 +8700,13 @@
         <v>54</v>
       </c>
       <c r="AL84" s="3">
-        <v>43067</v>
-      </c>
-    </row>
-    <row r="85" spans="1:38" x14ac:dyDescent="0.25">
+        <v>44146</v>
+      </c>
+      <c r="AM84" t="s">
+        <v>618</v>
+      </c>
+    </row>
+    <row r="85" spans="1:39" x14ac:dyDescent="0.35">
       <c r="A85" t="s">
         <v>379</v>
       </c>
@@ -8545,11 +8725,10 @@
       <c r="H85" s="2">
         <v>41888</v>
       </c>
-      <c r="J85" s="2">
-        <v>41730</v>
-      </c>
-      <c r="K85" s="2">
-        <v>42094</v>
+      <c r="J85" s="2"/>
+      <c r="K85" s="2"/>
+      <c r="L85" s="6">
+        <v>12</v>
       </c>
       <c r="M85" t="s">
         <v>592</v>
@@ -8596,10 +8775,13 @@
         <v>54</v>
       </c>
       <c r="AL85" s="3">
-        <v>43067</v>
-      </c>
-    </row>
-    <row r="86" spans="1:38" x14ac:dyDescent="0.25">
+        <v>44146</v>
+      </c>
+      <c r="AM85" t="s">
+        <v>618</v>
+      </c>
+    </row>
+    <row r="86" spans="1:39" x14ac:dyDescent="0.35">
       <c r="A86" t="s">
         <v>383</v>
       </c>
@@ -8618,13 +8800,11 @@
       <c r="H86" s="3">
         <v>42896</v>
       </c>
-      <c r="J86" s="3">
-        <v>42826</v>
-      </c>
-      <c r="K86" s="3">
-        <v>43190</v>
-      </c>
-      <c r="L86" s="1"/>
+      <c r="J86" s="3"/>
+      <c r="K86" s="3"/>
+      <c r="L86" s="6">
+        <v>12</v>
+      </c>
       <c r="M86" t="s">
         <v>555</v>
       </c>
@@ -8670,10 +8850,13 @@
         <v>54</v>
       </c>
       <c r="AL86" s="3">
-        <v>43067</v>
-      </c>
-    </row>
-    <row r="87" spans="1:38" x14ac:dyDescent="0.25">
+        <v>44146</v>
+      </c>
+      <c r="AM86" t="s">
+        <v>618</v>
+      </c>
+    </row>
+    <row r="87" spans="1:39" x14ac:dyDescent="0.35">
       <c r="A87" t="s">
         <v>386</v>
       </c>
@@ -8692,13 +8875,11 @@
       <c r="H87" s="3">
         <v>42896</v>
       </c>
-      <c r="J87" s="3">
-        <v>42826</v>
-      </c>
-      <c r="K87" s="3">
-        <v>43190</v>
-      </c>
-      <c r="L87" s="1"/>
+      <c r="J87" s="3"/>
+      <c r="K87" s="3"/>
+      <c r="L87" s="6">
+        <v>12</v>
+      </c>
       <c r="M87" t="s">
         <v>593</v>
       </c>
@@ -8744,10 +8925,13 @@
         <v>54</v>
       </c>
       <c r="AL87" s="3">
-        <v>43067</v>
-      </c>
-    </row>
-    <row r="88" spans="1:38" x14ac:dyDescent="0.25">
+        <v>44146</v>
+      </c>
+      <c r="AM87" t="s">
+        <v>618</v>
+      </c>
+    </row>
+    <row r="88" spans="1:39" x14ac:dyDescent="0.35">
       <c r="A88" t="s">
         <v>390</v>
       </c>
@@ -8766,13 +8950,11 @@
       <c r="H88" s="3">
         <v>42896</v>
       </c>
-      <c r="J88" s="3">
-        <v>42826</v>
-      </c>
-      <c r="K88" s="3">
-        <v>43190</v>
-      </c>
-      <c r="L88" s="1"/>
+      <c r="J88" s="3"/>
+      <c r="K88" s="3"/>
+      <c r="L88" s="6">
+        <v>12</v>
+      </c>
       <c r="M88" t="s">
         <v>594</v>
       </c>
@@ -8818,10 +9000,13 @@
         <v>54</v>
       </c>
       <c r="AL88" s="3">
-        <v>43067</v>
-      </c>
-    </row>
-    <row r="89" spans="1:38" x14ac:dyDescent="0.25">
+        <v>44146</v>
+      </c>
+      <c r="AM88" t="s">
+        <v>618</v>
+      </c>
+    </row>
+    <row r="89" spans="1:39" x14ac:dyDescent="0.35">
       <c r="A89" t="s">
         <v>394</v>
       </c>
@@ -8840,13 +9025,11 @@
       <c r="H89" s="3">
         <v>42896</v>
       </c>
-      <c r="J89" s="3">
-        <v>42826</v>
-      </c>
-      <c r="K89" s="3">
-        <v>43190</v>
-      </c>
-      <c r="L89" s="1"/>
+      <c r="J89" s="3"/>
+      <c r="K89" s="3"/>
+      <c r="L89" s="6">
+        <v>12</v>
+      </c>
       <c r="M89" t="s">
         <v>595</v>
       </c>
@@ -8892,10 +9075,13 @@
         <v>54</v>
       </c>
       <c r="AL89" s="3">
-        <v>43067</v>
-      </c>
-    </row>
-    <row r="90" spans="1:38" x14ac:dyDescent="0.25">
+        <v>44146</v>
+      </c>
+      <c r="AM89" t="s">
+        <v>618</v>
+      </c>
+    </row>
+    <row r="90" spans="1:39" x14ac:dyDescent="0.35">
       <c r="A90" t="s">
         <v>398</v>
       </c>
@@ -8914,13 +9100,11 @@
       <c r="H90" s="3">
         <v>42896</v>
       </c>
-      <c r="J90" s="3">
-        <v>42826</v>
-      </c>
-      <c r="K90" s="3">
-        <v>43190</v>
-      </c>
-      <c r="L90" s="1"/>
+      <c r="J90" s="3"/>
+      <c r="K90" s="3"/>
+      <c r="L90" s="6">
+        <v>12</v>
+      </c>
       <c r="M90" t="s">
         <v>596</v>
       </c>
@@ -8966,10 +9150,13 @@
         <v>54</v>
       </c>
       <c r="AL90" s="3">
-        <v>43067</v>
-      </c>
-    </row>
-    <row r="91" spans="1:38" x14ac:dyDescent="0.25">
+        <v>44146</v>
+      </c>
+      <c r="AM90" t="s">
+        <v>618</v>
+      </c>
+    </row>
+    <row r="91" spans="1:39" x14ac:dyDescent="0.35">
       <c r="A91" t="s">
         <v>402</v>
       </c>
@@ -8988,13 +9175,11 @@
       <c r="H91" s="3">
         <v>42896</v>
       </c>
-      <c r="J91" s="3">
-        <v>42826</v>
-      </c>
-      <c r="K91" s="3">
-        <v>43190</v>
-      </c>
-      <c r="L91" s="1"/>
+      <c r="J91" s="3"/>
+      <c r="K91" s="3"/>
+      <c r="L91" s="6">
+        <v>12</v>
+      </c>
       <c r="M91" t="s">
         <v>597</v>
       </c>
@@ -9043,10 +9228,13 @@
         <v>54</v>
       </c>
       <c r="AL91" s="3">
-        <v>43067</v>
-      </c>
-    </row>
-    <row r="92" spans="1:38" x14ac:dyDescent="0.25">
+        <v>44146</v>
+      </c>
+      <c r="AM91" t="s">
+        <v>618</v>
+      </c>
+    </row>
+    <row r="92" spans="1:39" x14ac:dyDescent="0.35">
       <c r="A92" t="s">
         <v>407</v>
       </c>
@@ -9065,13 +9253,11 @@
       <c r="H92" s="3">
         <v>42903</v>
       </c>
-      <c r="J92" s="3">
-        <v>42826</v>
-      </c>
-      <c r="K92" s="3">
-        <v>43190</v>
-      </c>
-      <c r="L92" s="1"/>
+      <c r="J92" s="3"/>
+      <c r="K92" s="3"/>
+      <c r="L92" s="6">
+        <v>12</v>
+      </c>
       <c r="M92" t="s">
         <v>529</v>
       </c>
@@ -9120,10 +9306,13 @@
         <v>54</v>
       </c>
       <c r="AL92" s="3">
-        <v>43067</v>
-      </c>
-    </row>
-    <row r="93" spans="1:38" x14ac:dyDescent="0.25">
+        <v>44146</v>
+      </c>
+      <c r="AM92" t="s">
+        <v>618</v>
+      </c>
+    </row>
+    <row r="93" spans="1:39" x14ac:dyDescent="0.35">
       <c r="A93" t="s">
         <v>410</v>
       </c>
@@ -9142,13 +9331,11 @@
       <c r="H93" s="3">
         <v>42903</v>
       </c>
-      <c r="J93" s="3">
-        <v>42826</v>
-      </c>
-      <c r="K93" s="3">
-        <v>43190</v>
-      </c>
-      <c r="L93" s="1"/>
+      <c r="J93" s="3"/>
+      <c r="K93" s="3"/>
+      <c r="L93" s="6">
+        <v>12</v>
+      </c>
       <c r="M93" t="s">
         <v>530</v>
       </c>
@@ -9197,10 +9384,13 @@
         <v>54</v>
       </c>
       <c r="AL93" s="3">
-        <v>43067</v>
-      </c>
-    </row>
-    <row r="94" spans="1:38" x14ac:dyDescent="0.25">
+        <v>44146</v>
+      </c>
+      <c r="AM93" t="s">
+        <v>618</v>
+      </c>
+    </row>
+    <row r="94" spans="1:39" x14ac:dyDescent="0.35">
       <c r="A94" t="s">
         <v>413</v>
       </c>
@@ -9219,13 +9409,11 @@
       <c r="H94" s="3">
         <v>42903</v>
       </c>
-      <c r="J94" s="3">
-        <v>42826</v>
-      </c>
-      <c r="K94" s="3">
-        <v>43190</v>
-      </c>
-      <c r="L94" s="1"/>
+      <c r="J94" s="3"/>
+      <c r="K94" s="3"/>
+      <c r="L94" s="6">
+        <v>12</v>
+      </c>
       <c r="M94" t="s">
         <v>576</v>
       </c>
@@ -9274,10 +9462,13 @@
         <v>54</v>
       </c>
       <c r="AL94" s="3">
-        <v>43067</v>
-      </c>
-    </row>
-    <row r="95" spans="1:38" x14ac:dyDescent="0.25">
+        <v>44146</v>
+      </c>
+      <c r="AM94" t="s">
+        <v>618</v>
+      </c>
+    </row>
+    <row r="95" spans="1:39" x14ac:dyDescent="0.35">
       <c r="A95" t="s">
         <v>416</v>
       </c>
@@ -9296,13 +9487,11 @@
       <c r="H95" s="3">
         <v>42903</v>
       </c>
-      <c r="J95" s="3">
-        <v>42826</v>
-      </c>
-      <c r="K95" s="3">
-        <v>43190</v>
-      </c>
-      <c r="L95" s="1"/>
+      <c r="J95" s="3"/>
+      <c r="K95" s="3"/>
+      <c r="L95" s="6">
+        <v>12</v>
+      </c>
       <c r="M95" t="s">
         <v>569</v>
       </c>
@@ -9354,10 +9543,13 @@
         <v>54</v>
       </c>
       <c r="AL95" s="3">
-        <v>43067</v>
-      </c>
-    </row>
-    <row r="96" spans="1:38" x14ac:dyDescent="0.25">
+        <v>44146</v>
+      </c>
+      <c r="AM95" t="s">
+        <v>618</v>
+      </c>
+    </row>
+    <row r="96" spans="1:39" x14ac:dyDescent="0.35">
       <c r="A96" t="s">
         <v>419</v>
       </c>
@@ -9376,13 +9568,11 @@
       <c r="H96" s="3">
         <v>42903</v>
       </c>
-      <c r="J96" s="3">
-        <v>42826</v>
-      </c>
-      <c r="K96" s="3">
-        <v>43190</v>
-      </c>
-      <c r="L96" s="1"/>
+      <c r="J96" s="3"/>
+      <c r="K96" s="3"/>
+      <c r="L96" s="6">
+        <v>12</v>
+      </c>
       <c r="M96" t="s">
         <v>598</v>
       </c>
@@ -9431,10 +9621,13 @@
         <v>54</v>
       </c>
       <c r="AL96" s="3">
-        <v>43067</v>
-      </c>
-    </row>
-    <row r="97" spans="1:38" x14ac:dyDescent="0.25">
+        <v>44146</v>
+      </c>
+      <c r="AM96" t="s">
+        <v>618</v>
+      </c>
+    </row>
+    <row r="97" spans="1:39" x14ac:dyDescent="0.35">
       <c r="A97" t="s">
         <v>424</v>
       </c>
@@ -9453,13 +9646,11 @@
       <c r="H97" s="3">
         <v>42903</v>
       </c>
-      <c r="J97" s="3">
-        <v>42826</v>
-      </c>
-      <c r="K97" s="3">
-        <v>43190</v>
-      </c>
-      <c r="L97" s="1"/>
+      <c r="J97" s="3"/>
+      <c r="K97" s="3"/>
+      <c r="L97" s="6">
+        <v>12</v>
+      </c>
       <c r="M97" t="s">
         <v>599</v>
       </c>
@@ -9511,10 +9702,13 @@
         <v>54</v>
       </c>
       <c r="AL97" s="3">
-        <v>43067</v>
-      </c>
-    </row>
-    <row r="98" spans="1:38" x14ac:dyDescent="0.25">
+        <v>44146</v>
+      </c>
+      <c r="AM97" t="s">
+        <v>618</v>
+      </c>
+    </row>
+    <row r="98" spans="1:39" x14ac:dyDescent="0.35">
       <c r="A98" t="s">
         <v>430</v>
       </c>
@@ -9533,13 +9727,11 @@
       <c r="H98" s="3">
         <v>42903</v>
       </c>
-      <c r="J98" s="3">
-        <v>42826</v>
-      </c>
-      <c r="K98" s="3">
-        <v>43190</v>
-      </c>
-      <c r="L98" s="1"/>
+      <c r="J98" s="3"/>
+      <c r="K98" s="3"/>
+      <c r="L98" s="6">
+        <v>12</v>
+      </c>
       <c r="M98" t="s">
         <v>600</v>
       </c>
@@ -9585,10 +9777,13 @@
         <v>54</v>
       </c>
       <c r="AL98" s="3">
-        <v>43067</v>
-      </c>
-    </row>
-    <row r="99" spans="1:38" x14ac:dyDescent="0.25">
+        <v>44146</v>
+      </c>
+      <c r="AM98" t="s">
+        <v>618</v>
+      </c>
+    </row>
+    <row r="99" spans="1:39" x14ac:dyDescent="0.35">
       <c r="A99" t="s">
         <v>434</v>
       </c>
@@ -9607,13 +9802,11 @@
       <c r="H99" s="3">
         <v>42903</v>
       </c>
-      <c r="J99" s="3">
-        <v>42826</v>
-      </c>
-      <c r="K99" s="3">
-        <v>43190</v>
-      </c>
-      <c r="L99" s="1"/>
+      <c r="J99" s="3"/>
+      <c r="K99" s="3"/>
+      <c r="L99" s="6">
+        <v>12</v>
+      </c>
       <c r="M99" t="s">
         <v>601</v>
       </c>
@@ -9662,10 +9855,13 @@
         <v>54</v>
       </c>
       <c r="AL99" s="3">
-        <v>43067</v>
-      </c>
-    </row>
-    <row r="100" spans="1:38" x14ac:dyDescent="0.25">
+        <v>44146</v>
+      </c>
+      <c r="AM99" t="s">
+        <v>618</v>
+      </c>
+    </row>
+    <row r="100" spans="1:39" x14ac:dyDescent="0.35">
       <c r="A100" t="s">
         <v>439</v>
       </c>
@@ -9684,13 +9880,11 @@
       <c r="H100" s="3">
         <v>42903</v>
       </c>
-      <c r="J100" s="3">
-        <v>42826</v>
-      </c>
-      <c r="K100" s="3">
-        <v>43190</v>
-      </c>
-      <c r="L100" s="1"/>
+      <c r="J100" s="3"/>
+      <c r="K100" s="3"/>
+      <c r="L100" s="6">
+        <v>12</v>
+      </c>
       <c r="M100" t="s">
         <v>602</v>
       </c>
@@ -9739,10 +9933,13 @@
         <v>54</v>
       </c>
       <c r="AL100" s="3">
-        <v>43067</v>
-      </c>
-    </row>
-    <row r="101" spans="1:38" x14ac:dyDescent="0.25">
+        <v>44146</v>
+      </c>
+      <c r="AM100" t="s">
+        <v>618</v>
+      </c>
+    </row>
+    <row r="101" spans="1:39" x14ac:dyDescent="0.35">
       <c r="A101" t="s">
         <v>444</v>
       </c>
@@ -9761,13 +9958,11 @@
       <c r="H101" s="3">
         <v>42903</v>
       </c>
-      <c r="J101" s="3">
-        <v>42826</v>
-      </c>
-      <c r="K101" s="3">
-        <v>43190</v>
-      </c>
-      <c r="L101" s="1"/>
+      <c r="J101" s="3"/>
+      <c r="K101" s="3"/>
+      <c r="L101" s="6">
+        <v>12</v>
+      </c>
       <c r="M101" t="s">
         <v>603</v>
       </c>
@@ -9819,10 +10014,13 @@
         <v>54</v>
       </c>
       <c r="AL101" s="3">
-        <v>43067</v>
-      </c>
-    </row>
-    <row r="102" spans="1:38" x14ac:dyDescent="0.25">
+        <v>44146</v>
+      </c>
+      <c r="AM101" t="s">
+        <v>618</v>
+      </c>
+    </row>
+    <row r="102" spans="1:39" x14ac:dyDescent="0.35">
       <c r="A102" t="s">
         <v>450</v>
       </c>
@@ -9841,13 +10039,11 @@
       <c r="H102" s="3">
         <v>42904</v>
       </c>
-      <c r="J102" s="3">
-        <v>42826</v>
-      </c>
-      <c r="K102" s="3">
-        <v>43190</v>
-      </c>
-      <c r="L102" s="1"/>
+      <c r="J102" s="3"/>
+      <c r="K102" s="3"/>
+      <c r="L102" s="6">
+        <v>12</v>
+      </c>
       <c r="M102" t="s">
         <v>587</v>
       </c>
@@ -9893,10 +10089,13 @@
         <v>54</v>
       </c>
       <c r="AL102" s="3">
-        <v>43067</v>
-      </c>
-    </row>
-    <row r="103" spans="1:38" x14ac:dyDescent="0.25">
+        <v>44146</v>
+      </c>
+      <c r="AM102" t="s">
+        <v>618</v>
+      </c>
+    </row>
+    <row r="103" spans="1:39" x14ac:dyDescent="0.35">
       <c r="A103" t="s">
         <v>452</v>
       </c>
@@ -9915,13 +10114,11 @@
       <c r="H103" s="3">
         <v>42904</v>
       </c>
-      <c r="J103" s="3">
-        <v>42826</v>
-      </c>
-      <c r="K103" s="3">
-        <v>43190</v>
-      </c>
-      <c r="L103" s="1"/>
+      <c r="J103" s="3"/>
+      <c r="K103" s="3"/>
+      <c r="L103" s="6">
+        <v>12</v>
+      </c>
       <c r="M103" t="s">
         <v>525</v>
       </c>
@@ -9973,10 +10170,13 @@
         <v>54</v>
       </c>
       <c r="AL103" s="3">
-        <v>43067</v>
-      </c>
-    </row>
-    <row r="104" spans="1:38" x14ac:dyDescent="0.25">
+        <v>44146</v>
+      </c>
+      <c r="AM103" t="s">
+        <v>618</v>
+      </c>
+    </row>
+    <row r="104" spans="1:39" x14ac:dyDescent="0.35">
       <c r="A104" t="s">
         <v>455</v>
       </c>
@@ -9995,13 +10195,11 @@
       <c r="H104" s="3">
         <v>42904</v>
       </c>
-      <c r="J104" s="3">
-        <v>42826</v>
-      </c>
-      <c r="K104" s="3">
-        <v>43190</v>
-      </c>
-      <c r="L104" s="1"/>
+      <c r="J104" s="3"/>
+      <c r="K104" s="3"/>
+      <c r="L104" s="6">
+        <v>12</v>
+      </c>
       <c r="M104" t="s">
         <v>589</v>
       </c>
@@ -10053,10 +10251,13 @@
         <v>54</v>
       </c>
       <c r="AL104" s="3">
-        <v>43067</v>
-      </c>
-    </row>
-    <row r="105" spans="1:38" x14ac:dyDescent="0.25">
+        <v>44146</v>
+      </c>
+      <c r="AM104" t="s">
+        <v>618</v>
+      </c>
+    </row>
+    <row r="105" spans="1:39" x14ac:dyDescent="0.35">
       <c r="A105" t="s">
         <v>457</v>
       </c>
@@ -10075,13 +10276,11 @@
       <c r="H105" s="3">
         <v>42904</v>
       </c>
-      <c r="J105" s="3">
-        <v>42826</v>
-      </c>
-      <c r="K105" s="3">
-        <v>43190</v>
-      </c>
-      <c r="L105" s="1"/>
+      <c r="J105" s="3"/>
+      <c r="K105" s="3"/>
+      <c r="L105" s="6">
+        <v>12</v>
+      </c>
       <c r="M105" t="s">
         <v>588</v>
       </c>
@@ -10133,10 +10332,13 @@
         <v>54</v>
       </c>
       <c r="AL105" s="3">
-        <v>43067</v>
-      </c>
-    </row>
-    <row r="106" spans="1:38" x14ac:dyDescent="0.25">
+        <v>44146</v>
+      </c>
+      <c r="AM105" t="s">
+        <v>618</v>
+      </c>
+    </row>
+    <row r="106" spans="1:39" x14ac:dyDescent="0.35">
       <c r="A106" t="s">
         <v>459</v>
       </c>
@@ -10155,13 +10357,11 @@
       <c r="H106" s="3">
         <v>42904</v>
       </c>
-      <c r="J106" s="3">
-        <v>42826</v>
-      </c>
-      <c r="K106" s="3">
-        <v>43190</v>
-      </c>
-      <c r="L106" s="1"/>
+      <c r="J106" s="3"/>
+      <c r="K106" s="3"/>
+      <c r="L106" s="6">
+        <v>12</v>
+      </c>
       <c r="M106" t="s">
         <v>537</v>
       </c>
@@ -10210,10 +10410,13 @@
         <v>54</v>
       </c>
       <c r="AL106" s="3">
-        <v>43067</v>
-      </c>
-    </row>
-    <row r="107" spans="1:38" x14ac:dyDescent="0.25">
+        <v>44146</v>
+      </c>
+      <c r="AM106" t="s">
+        <v>618</v>
+      </c>
+    </row>
+    <row r="107" spans="1:39" x14ac:dyDescent="0.35">
       <c r="A107" t="s">
         <v>461</v>
       </c>
@@ -10232,13 +10435,11 @@
       <c r="H107" s="3">
         <v>42904</v>
       </c>
-      <c r="J107" s="3">
-        <v>42826</v>
-      </c>
-      <c r="K107" s="3">
-        <v>43190</v>
-      </c>
-      <c r="L107" s="1"/>
+      <c r="J107" s="3"/>
+      <c r="K107" s="3"/>
+      <c r="L107" s="6">
+        <v>12</v>
+      </c>
       <c r="M107" t="s">
         <v>604</v>
       </c>
@@ -10284,10 +10485,13 @@
         <v>54</v>
       </c>
       <c r="AL107" s="3">
-        <v>43067</v>
-      </c>
-    </row>
-    <row r="108" spans="1:38" x14ac:dyDescent="0.25">
+        <v>44146</v>
+      </c>
+      <c r="AM107" t="s">
+        <v>618</v>
+      </c>
+    </row>
+    <row r="108" spans="1:39" x14ac:dyDescent="0.35">
       <c r="A108" t="s">
         <v>464</v>
       </c>
@@ -10306,13 +10510,11 @@
       <c r="H108" s="3">
         <v>42904</v>
       </c>
-      <c r="J108" s="3">
-        <v>42826</v>
-      </c>
-      <c r="K108" s="3">
-        <v>43190</v>
-      </c>
-      <c r="L108" s="1"/>
+      <c r="J108" s="3"/>
+      <c r="K108" s="3"/>
+      <c r="L108" s="6">
+        <v>12</v>
+      </c>
       <c r="M108" t="s">
         <v>605</v>
       </c>
@@ -10358,10 +10560,13 @@
         <v>54</v>
       </c>
       <c r="AL108" s="3">
-        <v>43067</v>
-      </c>
-    </row>
-    <row r="109" spans="1:38" x14ac:dyDescent="0.25">
+        <v>44146</v>
+      </c>
+      <c r="AM108" t="s">
+        <v>618</v>
+      </c>
+    </row>
+    <row r="109" spans="1:39" x14ac:dyDescent="0.35">
       <c r="A109" t="s">
         <v>468</v>
       </c>
@@ -10380,13 +10585,11 @@
       <c r="H109" s="3">
         <v>42904</v>
       </c>
-      <c r="J109" s="3">
-        <v>42826</v>
-      </c>
-      <c r="K109" s="3">
-        <v>43190</v>
-      </c>
-      <c r="L109" s="1"/>
+      <c r="J109" s="3"/>
+      <c r="K109" s="3"/>
+      <c r="L109" s="6">
+        <v>12</v>
+      </c>
       <c r="M109" t="s">
         <v>606</v>
       </c>
@@ -10432,10 +10635,13 @@
         <v>54</v>
       </c>
       <c r="AL109" s="3">
-        <v>43067</v>
-      </c>
-    </row>
-    <row r="110" spans="1:38" x14ac:dyDescent="0.25">
+        <v>44146</v>
+      </c>
+      <c r="AM109" t="s">
+        <v>618</v>
+      </c>
+    </row>
+    <row r="110" spans="1:39" x14ac:dyDescent="0.35">
       <c r="A110" t="s">
         <v>472</v>
       </c>
@@ -10454,13 +10660,11 @@
       <c r="H110" s="3">
         <v>42904</v>
       </c>
-      <c r="J110" s="3">
-        <v>42826</v>
-      </c>
-      <c r="K110" s="3">
-        <v>43190</v>
-      </c>
-      <c r="L110" s="1"/>
+      <c r="J110" s="3"/>
+      <c r="K110" s="3"/>
+      <c r="L110" s="6">
+        <v>12</v>
+      </c>
       <c r="M110" t="s">
         <v>607</v>
       </c>
@@ -10506,10 +10710,13 @@
         <v>54</v>
       </c>
       <c r="AL110" s="3">
-        <v>43067</v>
-      </c>
-    </row>
-    <row r="111" spans="1:38" x14ac:dyDescent="0.25">
+        <v>44146</v>
+      </c>
+      <c r="AM110" t="s">
+        <v>618</v>
+      </c>
+    </row>
+    <row r="111" spans="1:39" x14ac:dyDescent="0.35">
       <c r="A111" t="s">
         <v>476</v>
       </c>
@@ -10528,13 +10735,11 @@
       <c r="H111" s="3">
         <v>42904</v>
       </c>
-      <c r="J111" s="3">
-        <v>42826</v>
-      </c>
-      <c r="K111" s="3">
-        <v>43190</v>
-      </c>
-      <c r="L111" s="1"/>
+      <c r="J111" s="3"/>
+      <c r="K111" s="3"/>
+      <c r="L111" s="6">
+        <v>12</v>
+      </c>
       <c r="M111" t="s">
         <v>608</v>
       </c>
@@ -10580,10 +10785,13 @@
         <v>54</v>
       </c>
       <c r="AL111" s="3">
-        <v>43067</v>
-      </c>
-    </row>
-    <row r="112" spans="1:38" x14ac:dyDescent="0.25">
+        <v>44146</v>
+      </c>
+      <c r="AM111" t="s">
+        <v>618</v>
+      </c>
+    </row>
+    <row r="112" spans="1:39" x14ac:dyDescent="0.35">
       <c r="A112" t="s">
         <v>480</v>
       </c>
@@ -10602,13 +10810,11 @@
       <c r="H112" s="3">
         <v>42904</v>
       </c>
-      <c r="J112" s="3">
-        <v>42826</v>
-      </c>
-      <c r="K112" s="3">
-        <v>43190</v>
-      </c>
-      <c r="L112" s="1"/>
+      <c r="J112" s="3"/>
+      <c r="K112" s="3"/>
+      <c r="L112" s="6">
+        <v>12</v>
+      </c>
       <c r="M112" t="s">
         <v>609</v>
       </c>
@@ -10657,10 +10863,13 @@
         <v>54</v>
       </c>
       <c r="AL112" s="3">
-        <v>43067</v>
-      </c>
-    </row>
-    <row r="113" spans="1:38" x14ac:dyDescent="0.25">
+        <v>44146</v>
+      </c>
+      <c r="AM112" t="s">
+        <v>618</v>
+      </c>
+    </row>
+    <row r="113" spans="1:39" x14ac:dyDescent="0.35">
       <c r="A113" t="s">
         <v>485</v>
       </c>
@@ -10679,13 +10888,11 @@
       <c r="H113" s="3">
         <v>42910</v>
       </c>
-      <c r="J113" s="3">
-        <v>42826</v>
-      </c>
-      <c r="K113" s="3">
-        <v>43190</v>
-      </c>
-      <c r="L113" s="1"/>
+      <c r="J113" s="3"/>
+      <c r="K113" s="3"/>
+      <c r="L113" s="6">
+        <v>12</v>
+      </c>
       <c r="M113" t="s">
         <v>567</v>
       </c>
@@ -10731,10 +10938,13 @@
         <v>54</v>
       </c>
       <c r="AL113" s="3">
-        <v>43067</v>
-      </c>
-    </row>
-    <row r="114" spans="1:38" x14ac:dyDescent="0.25">
+        <v>44146</v>
+      </c>
+      <c r="AM113" t="s">
+        <v>618</v>
+      </c>
+    </row>
+    <row r="114" spans="1:39" x14ac:dyDescent="0.35">
       <c r="A114" t="s">
         <v>487</v>
       </c>
@@ -10753,13 +10963,11 @@
       <c r="H114" s="3">
         <v>42910</v>
       </c>
-      <c r="J114" s="3">
-        <v>42826</v>
-      </c>
-      <c r="K114" s="3">
-        <v>43190</v>
-      </c>
-      <c r="L114" s="1"/>
+      <c r="J114" s="3"/>
+      <c r="K114" s="3"/>
+      <c r="L114" s="6">
+        <v>12</v>
+      </c>
       <c r="M114" t="s">
         <v>565</v>
       </c>
@@ -10811,10 +11019,13 @@
         <v>54</v>
       </c>
       <c r="AL114" s="3">
-        <v>43067</v>
-      </c>
-    </row>
-    <row r="115" spans="1:38" x14ac:dyDescent="0.25">
+        <v>44146</v>
+      </c>
+      <c r="AM114" t="s">
+        <v>618</v>
+      </c>
+    </row>
+    <row r="115" spans="1:39" x14ac:dyDescent="0.35">
       <c r="A115" t="s">
         <v>491</v>
       </c>
@@ -10833,13 +11044,11 @@
       <c r="H115" s="3">
         <v>42910</v>
       </c>
-      <c r="J115" s="3">
-        <v>42826</v>
-      </c>
-      <c r="K115" s="3">
-        <v>43190</v>
-      </c>
-      <c r="L115" s="1"/>
+      <c r="J115" s="3"/>
+      <c r="K115" s="3"/>
+      <c r="L115" s="6">
+        <v>12</v>
+      </c>
       <c r="M115" t="s">
         <v>576</v>
       </c>
@@ -10888,10 +11097,13 @@
         <v>54</v>
       </c>
       <c r="AL115" s="3">
-        <v>43067</v>
-      </c>
-    </row>
-    <row r="116" spans="1:38" x14ac:dyDescent="0.25">
+        <v>44146</v>
+      </c>
+      <c r="AM115" t="s">
+        <v>618</v>
+      </c>
+    </row>
+    <row r="116" spans="1:39" x14ac:dyDescent="0.35">
       <c r="A116" t="s">
         <v>493</v>
       </c>
@@ -10910,13 +11122,11 @@
       <c r="H116" s="3">
         <v>42910</v>
       </c>
-      <c r="J116" s="3">
-        <v>42826</v>
-      </c>
-      <c r="K116" s="3">
-        <v>43190</v>
-      </c>
-      <c r="L116" s="1"/>
+      <c r="J116" s="3"/>
+      <c r="K116" s="3"/>
+      <c r="L116" s="6">
+        <v>12</v>
+      </c>
       <c r="M116" t="s">
         <v>569</v>
       </c>
@@ -10968,10 +11178,13 @@
         <v>54</v>
       </c>
       <c r="AL116" s="3">
-        <v>43067</v>
-      </c>
-    </row>
-    <row r="117" spans="1:38" x14ac:dyDescent="0.25">
+        <v>44146</v>
+      </c>
+      <c r="AM116" t="s">
+        <v>618</v>
+      </c>
+    </row>
+    <row r="117" spans="1:39" x14ac:dyDescent="0.35">
       <c r="A117" t="s">
         <v>495</v>
       </c>
@@ -10990,13 +11203,11 @@
       <c r="H117" s="3">
         <v>42910</v>
       </c>
-      <c r="J117" s="3">
-        <v>42826</v>
-      </c>
-      <c r="K117" s="3">
-        <v>43190</v>
-      </c>
-      <c r="L117" s="1"/>
+      <c r="J117" s="3"/>
+      <c r="K117" s="3"/>
+      <c r="L117" s="6">
+        <v>12</v>
+      </c>
       <c r="M117" t="s">
         <v>589</v>
       </c>
@@ -11048,10 +11259,13 @@
         <v>54</v>
       </c>
       <c r="AL117" s="3">
-        <v>43067</v>
-      </c>
-    </row>
-    <row r="118" spans="1:38" x14ac:dyDescent="0.25">
+        <v>44146</v>
+      </c>
+      <c r="AM117" t="s">
+        <v>618</v>
+      </c>
+    </row>
+    <row r="118" spans="1:39" x14ac:dyDescent="0.35">
       <c r="A118" t="s">
         <v>497</v>
       </c>
@@ -11070,13 +11284,11 @@
       <c r="H118" s="3">
         <v>42910</v>
       </c>
-      <c r="J118" s="3">
-        <v>42826</v>
-      </c>
-      <c r="K118" s="3">
-        <v>43190</v>
-      </c>
-      <c r="L118" s="1"/>
+      <c r="J118" s="3"/>
+      <c r="K118" s="3"/>
+      <c r="L118" s="6">
+        <v>12</v>
+      </c>
       <c r="M118" t="s">
         <v>610</v>
       </c>
@@ -11122,10 +11334,13 @@
         <v>54</v>
       </c>
       <c r="AL118" s="3">
-        <v>43067</v>
-      </c>
-    </row>
-    <row r="119" spans="1:38" x14ac:dyDescent="0.25">
+        <v>44146</v>
+      </c>
+      <c r="AM118" t="s">
+        <v>618</v>
+      </c>
+    </row>
+    <row r="119" spans="1:39" x14ac:dyDescent="0.35">
       <c r="A119" t="s">
         <v>501</v>
       </c>
@@ -11144,13 +11359,11 @@
       <c r="H119" s="3">
         <v>42910</v>
       </c>
-      <c r="J119" s="3">
-        <v>42826</v>
-      </c>
-      <c r="K119" s="3">
-        <v>43190</v>
-      </c>
-      <c r="L119" s="1"/>
+      <c r="J119" s="3"/>
+      <c r="K119" s="3"/>
+      <c r="L119" s="6">
+        <v>12</v>
+      </c>
       <c r="M119" t="s">
         <v>611</v>
       </c>
@@ -11196,10 +11409,13 @@
         <v>54</v>
       </c>
       <c r="AL119" s="3">
-        <v>43067</v>
-      </c>
-    </row>
-    <row r="120" spans="1:38" x14ac:dyDescent="0.25">
+        <v>44146</v>
+      </c>
+      <c r="AM119" t="s">
+        <v>618</v>
+      </c>
+    </row>
+    <row r="120" spans="1:39" x14ac:dyDescent="0.35">
       <c r="A120" t="s">
         <v>505</v>
       </c>
@@ -11218,13 +11434,11 @@
       <c r="H120" s="3">
         <v>42910</v>
       </c>
-      <c r="J120" s="3">
-        <v>42826</v>
-      </c>
-      <c r="K120" s="3">
-        <v>43190</v>
-      </c>
-      <c r="L120" s="1"/>
+      <c r="J120" s="3"/>
+      <c r="K120" s="3"/>
+      <c r="L120" s="6">
+        <v>12</v>
+      </c>
       <c r="M120" t="s">
         <v>612</v>
       </c>
@@ -11270,10 +11484,13 @@
         <v>54</v>
       </c>
       <c r="AL120" s="3">
-        <v>43067</v>
-      </c>
-    </row>
-    <row r="121" spans="1:38" x14ac:dyDescent="0.25">
+        <v>44146</v>
+      </c>
+      <c r="AM120" t="s">
+        <v>618</v>
+      </c>
+    </row>
+    <row r="121" spans="1:39" x14ac:dyDescent="0.35">
       <c r="A121" t="s">
         <v>509</v>
       </c>
@@ -11292,13 +11509,11 @@
       <c r="H121" s="3">
         <v>42910</v>
       </c>
-      <c r="J121" s="3">
-        <v>42826</v>
-      </c>
-      <c r="K121" s="3">
-        <v>43190</v>
-      </c>
-      <c r="L121" s="1"/>
+      <c r="J121" s="3"/>
+      <c r="K121" s="3"/>
+      <c r="L121" s="6">
+        <v>12</v>
+      </c>
       <c r="M121" t="s">
         <v>613</v>
       </c>
@@ -11347,10 +11562,13 @@
         <v>54</v>
       </c>
       <c r="AL121" s="3">
-        <v>43067</v>
-      </c>
-    </row>
-    <row r="122" spans="1:38" x14ac:dyDescent="0.25">
+        <v>44146</v>
+      </c>
+      <c r="AM121" t="s">
+        <v>618</v>
+      </c>
+    </row>
+    <row r="122" spans="1:39" x14ac:dyDescent="0.35">
       <c r="A122" t="s">
         <v>514</v>
       </c>
@@ -11369,13 +11587,11 @@
       <c r="H122" s="3">
         <v>42910</v>
       </c>
-      <c r="J122" s="3">
-        <v>42826</v>
-      </c>
-      <c r="K122" s="3">
-        <v>43190</v>
-      </c>
-      <c r="L122" s="1"/>
+      <c r="J122" s="3"/>
+      <c r="K122" s="3"/>
+      <c r="L122" s="6">
+        <v>12</v>
+      </c>
       <c r="M122" t="s">
         <v>614</v>
       </c>
@@ -11421,10 +11637,13 @@
         <v>54</v>
       </c>
       <c r="AL122" s="3">
-        <v>43067</v>
-      </c>
-    </row>
-    <row r="123" spans="1:38" x14ac:dyDescent="0.25">
+        <v>44146</v>
+      </c>
+      <c r="AM122" t="s">
+        <v>618</v>
+      </c>
+    </row>
+    <row r="123" spans="1:39" x14ac:dyDescent="0.35">
       <c r="A123" t="s">
         <v>518</v>
       </c>
@@ -11443,13 +11662,11 @@
       <c r="H123" s="3">
         <v>42910</v>
       </c>
-      <c r="J123" s="3">
-        <v>42826</v>
-      </c>
-      <c r="K123" s="3">
-        <v>43190</v>
-      </c>
-      <c r="L123" s="1"/>
+      <c r="J123" s="3"/>
+      <c r="K123" s="3"/>
+      <c r="L123" s="6">
+        <v>12</v>
+      </c>
       <c r="M123" t="s">
         <v>615</v>
       </c>
@@ -11495,11 +11712,116 @@
         <v>54</v>
       </c>
       <c r="AL123" s="3">
-        <v>43067</v>
-      </c>
+        <v>44146</v>
+      </c>
+      <c r="AM123" t="s">
+        <v>618</v>
+      </c>
+    </row>
+    <row r="124" spans="1:39" x14ac:dyDescent="0.35">
+      <c r="AL124" s="3"/>
+    </row>
+    <row r="125" spans="1:39" x14ac:dyDescent="0.35">
+      <c r="AL125" s="3"/>
+    </row>
+    <row r="126" spans="1:39" x14ac:dyDescent="0.35">
+      <c r="AL126" s="3"/>
+    </row>
+    <row r="127" spans="1:39" x14ac:dyDescent="0.35">
+      <c r="AL127" s="3"/>
+    </row>
+    <row r="128" spans="1:39" x14ac:dyDescent="0.35">
+      <c r="AL128" s="3"/>
+    </row>
+    <row r="129" spans="38:38" x14ac:dyDescent="0.35">
+      <c r="AL129" s="3"/>
+    </row>
+    <row r="130" spans="38:38" x14ac:dyDescent="0.35">
+      <c r="AL130" s="3"/>
+    </row>
+    <row r="131" spans="38:38" x14ac:dyDescent="0.35">
+      <c r="AL131" s="3"/>
+    </row>
+    <row r="132" spans="38:38" x14ac:dyDescent="0.35">
+      <c r="AL132" s="3"/>
+    </row>
+    <row r="133" spans="38:38" x14ac:dyDescent="0.35">
+      <c r="AL133" s="3"/>
+    </row>
+    <row r="134" spans="38:38" x14ac:dyDescent="0.35">
+      <c r="AL134" s="3"/>
+    </row>
+    <row r="135" spans="38:38" x14ac:dyDescent="0.35">
+      <c r="AL135" s="3"/>
+    </row>
+    <row r="136" spans="38:38" x14ac:dyDescent="0.35">
+      <c r="AL136" s="3"/>
+    </row>
+    <row r="137" spans="38:38" x14ac:dyDescent="0.35">
+      <c r="AL137" s="3"/>
+    </row>
+    <row r="138" spans="38:38" x14ac:dyDescent="0.35">
+      <c r="AL138" s="3"/>
+    </row>
+    <row r="139" spans="38:38" x14ac:dyDescent="0.35">
+      <c r="AL139" s="3"/>
+    </row>
+    <row r="140" spans="38:38" x14ac:dyDescent="0.35">
+      <c r="AL140" s="3"/>
+    </row>
+    <row r="141" spans="38:38" x14ac:dyDescent="0.35">
+      <c r="AL141" s="3"/>
+    </row>
+    <row r="142" spans="38:38" x14ac:dyDescent="0.35">
+      <c r="AL142" s="3"/>
+    </row>
+    <row r="143" spans="38:38" x14ac:dyDescent="0.35">
+      <c r="AL143" s="3"/>
+    </row>
+    <row r="144" spans="38:38" x14ac:dyDescent="0.35">
+      <c r="AL144" s="3"/>
+    </row>
+    <row r="145" spans="38:38" x14ac:dyDescent="0.35">
+      <c r="AL145" s="3"/>
+    </row>
+    <row r="146" spans="38:38" x14ac:dyDescent="0.35">
+      <c r="AL146" s="3"/>
+    </row>
+    <row r="147" spans="38:38" x14ac:dyDescent="0.35">
+      <c r="AL147" s="3"/>
+    </row>
+    <row r="148" spans="38:38" x14ac:dyDescent="0.35">
+      <c r="AL148" s="3"/>
+    </row>
+    <row r="149" spans="38:38" x14ac:dyDescent="0.35">
+      <c r="AL149" s="3"/>
+    </row>
+    <row r="150" spans="38:38" x14ac:dyDescent="0.35">
+      <c r="AL150" s="3"/>
+    </row>
+    <row r="151" spans="38:38" x14ac:dyDescent="0.35">
+      <c r="AL151" s="3"/>
+    </row>
+    <row r="152" spans="38:38" x14ac:dyDescent="0.35">
+      <c r="AL152" s="3"/>
+    </row>
+    <row r="153" spans="38:38" x14ac:dyDescent="0.35">
+      <c r="AL153" s="3"/>
+    </row>
+    <row r="154" spans="38:38" x14ac:dyDescent="0.35">
+      <c r="AL154" s="3"/>
+    </row>
+    <row r="155" spans="38:38" x14ac:dyDescent="0.35">
+      <c r="AL155" s="3"/>
+    </row>
+    <row r="156" spans="38:38" x14ac:dyDescent="0.35">
+      <c r="AL156" s="3"/>
+    </row>
+    <row r="157" spans="38:38" x14ac:dyDescent="0.35">
+      <c r="AL157" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555496" footer="0.51180555555555496"/>
-  <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
+  <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>
 </file>